--- a/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -54,11 +54,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -78,6 +84,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,7 +106,7 @@
     <col min="2" max="2" width="12.42578125" customWidth="true"/>
     <col min="3" max="3" width="12.42578125" customWidth="true"/>
     <col min="4" max="4" width="12.42578125" customWidth="true"/>
-    <col min="5" max="5" width="11.42578125" customWidth="true"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.42578125" customWidth="true"/>
     <col min="7" max="7" width="12.42578125" customWidth="true"/>
     <col min="8" max="8" width="12.42578125" customWidth="true"/>
@@ -106,24 +118,24 @@
     <col min="14" max="14" width="12.42578125" customWidth="true"/>
     <col min="15" max="15" width="12.42578125" customWidth="true"/>
     <col min="16" max="16" width="12.42578125" customWidth="true"/>
-    <col min="17" max="17" width="11.42578125" customWidth="true"/>
+    <col min="17" max="17" width="12.42578125" customWidth="true"/>
     <col min="18" max="18" width="12.42578125" customWidth="true"/>
     <col min="19" max="19" width="12.42578125" customWidth="true"/>
-    <col min="20" max="20" width="12.42578125" customWidth="true"/>
+    <col min="20" max="20" width="11.42578125" customWidth="true"/>
     <col min="21" max="21" width="12.42578125" customWidth="true"/>
-    <col min="22" max="22" width="11.42578125" customWidth="true"/>
+    <col min="22" max="22" width="12.42578125" customWidth="true"/>
     <col min="23" max="23" width="12.42578125" customWidth="true"/>
     <col min="24" max="24" width="12.42578125" customWidth="true"/>
     <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="12.42578125" customWidth="true"/>
     <col min="27" max="27" width="12.42578125" customWidth="true"/>
-    <col min="28" max="28" width="11.42578125" customWidth="true"/>
+    <col min="28" max="28" width="12.42578125" customWidth="true"/>
     <col min="29" max="29" width="12.42578125" customWidth="true"/>
     <col min="30" max="30" width="12.42578125" customWidth="true"/>
     <col min="31" max="31" width="12.42578125" customWidth="true"/>
     <col min="32" max="32" width="12.42578125" customWidth="true"/>
     <col min="33" max="33" width="12.42578125" customWidth="true"/>
-    <col min="34" max="34" width="12.42578125" customWidth="true"/>
+    <col min="34" max="34" width="11.42578125" customWidth="true"/>
     <col min="35" max="35" width="12.42578125" customWidth="true"/>
     <col min="36" max="36" width="12.42578125" customWidth="true"/>
     <col min="37" max="37" width="12.42578125" customWidth="true"/>
@@ -134,18 +146,18 @@
     <col min="42" max="42" width="12.42578125" customWidth="true"/>
     <col min="43" max="43" width="12.42578125" customWidth="true"/>
     <col min="44" max="44" width="12.42578125" customWidth="true"/>
-    <col min="45" max="45" width="12.42578125" customWidth="true"/>
+    <col min="45" max="45" width="11.42578125" customWidth="true"/>
     <col min="46" max="46" width="12.42578125" customWidth="true"/>
-    <col min="47" max="47" width="10.42578125" customWidth="true"/>
+    <col min="47" max="47" width="12.42578125" customWidth="true"/>
     <col min="48" max="48" width="12.42578125" customWidth="true"/>
     <col min="49" max="49" width="12.42578125" customWidth="true"/>
     <col min="50" max="50" width="12.42578125" customWidth="true"/>
-    <col min="51" max="51" width="11.42578125" customWidth="true"/>
+    <col min="51" max="51" width="12.42578125" customWidth="true"/>
     <col min="52" max="52" width="12.42578125" customWidth="true"/>
     <col min="53" max="53" width="12.42578125" customWidth="true"/>
-    <col min="54" max="54" width="11.42578125" customWidth="true"/>
+    <col min="54" max="54" width="12.42578125" customWidth="true"/>
     <col min="55" max="55" width="12.42578125" customWidth="true"/>
-    <col min="56" max="56" width="11.42578125" customWidth="true"/>
+    <col min="56" max="56" width="12.42578125" customWidth="true"/>
     <col min="57" max="57" width="12.42578125" customWidth="true"/>
     <col min="58" max="58" width="12.42578125" customWidth="true"/>
     <col min="59" max="59" width="12.42578125" customWidth="true"/>
@@ -160,7 +172,7 @@
     <col min="68" max="68" width="12.42578125" customWidth="true"/>
     <col min="69" max="69" width="12.42578125" customWidth="true"/>
     <col min="70" max="70" width="12.42578125" customWidth="true"/>
-    <col min="71" max="71" width="11.42578125" customWidth="true"/>
+    <col min="71" max="71" width="12.42578125" customWidth="true"/>
     <col min="72" max="72" width="12.42578125" customWidth="true"/>
     <col min="73" max="73" width="12.42578125" customWidth="true"/>
     <col min="74" max="74" width="12.42578125" customWidth="true"/>
@@ -176,20 +188,20 @@
     <col min="84" max="84" width="12.42578125" customWidth="true"/>
     <col min="85" max="85" width="12.42578125" customWidth="true"/>
     <col min="86" max="86" width="12.42578125" customWidth="true"/>
-    <col min="87" max="87" width="11.42578125" customWidth="true"/>
+    <col min="87" max="87" width="12.42578125" customWidth="true"/>
     <col min="88" max="88" width="12.42578125" customWidth="true"/>
-    <col min="89" max="89" width="11.42578125" customWidth="true"/>
+    <col min="89" max="89" width="12.42578125" customWidth="true"/>
     <col min="90" max="90" width="12.42578125" customWidth="true"/>
     <col min="91" max="91" width="12.42578125" customWidth="true"/>
     <col min="92" max="92" width="12.42578125" customWidth="true"/>
-    <col min="93" max="93" width="10.42578125" customWidth="true"/>
+    <col min="93" max="93" width="12.42578125" customWidth="true"/>
     <col min="94" max="94" width="12.42578125" customWidth="true"/>
     <col min="95" max="95" width="12.42578125" customWidth="true"/>
     <col min="96" max="96" width="12.42578125" customWidth="true"/>
     <col min="97" max="97" width="12.42578125" customWidth="true"/>
-    <col min="98" max="98" width="10.42578125" customWidth="true"/>
+    <col min="98" max="98" width="12.42578125" customWidth="true"/>
     <col min="99" max="99" width="12.42578125" customWidth="true"/>
-    <col min="100" max="100" width="12.42578125" customWidth="true"/>
+    <col min="100" max="100" width="11.42578125" customWidth="true"/>
     <col min="101" max="101" width="12.42578125" customWidth="true"/>
     <col min="102" max="102" width="12.42578125" customWidth="true"/>
     <col min="103" max="103" width="12.42578125" customWidth="true"/>
@@ -206,21 +218,21 @@
     <col min="114" max="114" width="12.42578125" customWidth="true"/>
     <col min="115" max="115" width="12.42578125" customWidth="true"/>
     <col min="116" max="116" width="12.42578125" customWidth="true"/>
-    <col min="117" max="117" width="12.42578125" customWidth="true"/>
-    <col min="118" max="118" width="11.42578125" customWidth="true"/>
+    <col min="117" max="117" width="11.42578125" customWidth="true"/>
+    <col min="118" max="118" width="12.42578125" customWidth="true"/>
     <col min="119" max="119" width="12.42578125" customWidth="true"/>
     <col min="120" max="120" width="12.42578125" customWidth="true"/>
-    <col min="121" max="121" width="11.42578125" customWidth="true"/>
+    <col min="121" max="121" width="12.42578125" customWidth="true"/>
     <col min="122" max="122" width="12.42578125" customWidth="true"/>
     <col min="123" max="123" width="12.42578125" customWidth="true"/>
-    <col min="124" max="124" width="12.42578125" customWidth="true"/>
+    <col min="124" max="124" width="11.42578125" customWidth="true"/>
     <col min="125" max="125" width="12.42578125" customWidth="true"/>
     <col min="126" max="126" width="11.42578125" customWidth="true"/>
-    <col min="127" max="127" width="12.42578125" customWidth="true"/>
+    <col min="127" max="127" width="11.42578125" customWidth="true"/>
     <col min="128" max="128" width="12.42578125" customWidth="true"/>
     <col min="129" max="129" width="12.42578125" customWidth="true"/>
     <col min="130" max="130" width="12.42578125" customWidth="true"/>
-    <col min="131" max="131" width="12.42578125" customWidth="true"/>
+    <col min="131" max="131" width="11.42578125" customWidth="true"/>
     <col min="132" max="132" width="12.42578125" customWidth="true"/>
     <col min="133" max="133" width="12.42578125" customWidth="true"/>
     <col min="134" max="134" width="12.42578125" customWidth="true"/>
@@ -229,8 +241,8 @@
     <col min="137" max="137" width="12.42578125" customWidth="true"/>
     <col min="138" max="138" width="12.42578125" customWidth="true"/>
     <col min="139" max="139" width="12.42578125" customWidth="true"/>
-    <col min="140" max="140" width="11.42578125" customWidth="true"/>
-    <col min="141" max="141" width="12.42578125" customWidth="true"/>
+    <col min="140" max="140" width="12.42578125" customWidth="true"/>
+    <col min="141" max="141" width="11.42578125" customWidth="true"/>
     <col min="142" max="142" width="12.42578125" customWidth="true"/>
     <col min="143" max="143" width="12.42578125" customWidth="true"/>
     <col min="144" max="144" width="12.42578125" customWidth="true"/>
@@ -238,7 +250,7 @@
     <col min="146" max="146" width="12.42578125" customWidth="true"/>
     <col min="147" max="147" width="12.42578125" customWidth="true"/>
     <col min="148" max="148" width="12.42578125" customWidth="true"/>
-    <col min="149" max="149" width="12.42578125" customWidth="true"/>
+    <col min="149" max="149" width="11.42578125" customWidth="true"/>
     <col min="150" max="150" width="12.42578125" customWidth="true"/>
     <col min="151" max="151" width="12.42578125" customWidth="true"/>
     <col min="152" max="152" width="12.42578125" customWidth="true"/>
@@ -254,12 +266,12 @@
     <col min="162" max="162" width="12.42578125" customWidth="true"/>
     <col min="163" max="163" width="12.42578125" customWidth="true"/>
     <col min="164" max="164" width="12.42578125" customWidth="true"/>
-    <col min="165" max="165" width="12.42578125" customWidth="true"/>
+    <col min="165" max="165" width="11.42578125" customWidth="true"/>
     <col min="166" max="166" width="12.42578125" customWidth="true"/>
     <col min="167" max="167" width="12.42578125" customWidth="true"/>
     <col min="168" max="168" width="12.42578125" customWidth="true"/>
     <col min="169" max="169" width="12.42578125" customWidth="true"/>
-    <col min="170" max="170" width="12.42578125" customWidth="true"/>
+    <col min="170" max="170" width="11.42578125" customWidth="true"/>
     <col min="171" max="171" width="12.42578125" customWidth="true"/>
     <col min="172" max="172" width="12.42578125" customWidth="true"/>
     <col min="173" max="173" width="12.42578125" customWidth="true"/>
@@ -267,26 +279,26 @@
     <col min="175" max="175" width="12.42578125" customWidth="true"/>
     <col min="176" max="176" width="12.42578125" customWidth="true"/>
     <col min="177" max="177" width="12.42578125" customWidth="true"/>
-    <col min="178" max="178" width="11.42578125" customWidth="true"/>
-    <col min="179" max="179" width="11.42578125" customWidth="true"/>
+    <col min="178" max="178" width="12.42578125" customWidth="true"/>
+    <col min="179" max="179" width="12.42578125" customWidth="true"/>
     <col min="180" max="180" width="12.42578125" customWidth="true"/>
-    <col min="181" max="181" width="11.42578125" customWidth="true"/>
+    <col min="181" max="181" width="12.42578125" customWidth="true"/>
     <col min="182" max="182" width="12.42578125" customWidth="true"/>
     <col min="183" max="183" width="12.42578125" customWidth="true"/>
     <col min="184" max="184" width="12.42578125" customWidth="true"/>
     <col min="185" max="185" width="12.42578125" customWidth="true"/>
-    <col min="186" max="186" width="12.42578125" customWidth="true"/>
-    <col min="187" max="187" width="11.42578125" customWidth="true"/>
-    <col min="188" max="188" width="11.42578125" customWidth="true"/>
+    <col min="186" max="186" width="10.42578125" customWidth="true"/>
+    <col min="187" max="187" width="12.42578125" customWidth="true"/>
+    <col min="188" max="188" width="12.42578125" customWidth="true"/>
     <col min="189" max="189" width="12.42578125" customWidth="true"/>
-    <col min="190" max="190" width="12.42578125" customWidth="true"/>
-    <col min="191" max="191" width="12.42578125" customWidth="true"/>
+    <col min="190" max="190" width="11.42578125" customWidth="true"/>
+    <col min="191" max="191" width="10.42578125" customWidth="true"/>
     <col min="192" max="192" width="12.42578125" customWidth="true"/>
-    <col min="193" max="193" width="12.42578125" customWidth="true"/>
+    <col min="193" max="193" width="11.42578125" customWidth="true"/>
     <col min="194" max="194" width="12.42578125" customWidth="true"/>
     <col min="195" max="195" width="12.42578125" customWidth="true"/>
     <col min="196" max="196" width="12.42578125" customWidth="true"/>
-    <col min="197" max="197" width="11.42578125" customWidth="true"/>
+    <col min="197" max="197" width="12.42578125" customWidth="true"/>
     <col min="198" max="198" width="12.42578125" customWidth="true"/>
     <col min="199" max="199" width="12.42578125" customWidth="true"/>
     <col min="200" max="200" width="12.42578125" customWidth="true"/>
@@ -303,16 +315,16 @@
     <col min="211" max="211" width="12.42578125" customWidth="true"/>
     <col min="212" max="212" width="12.42578125" customWidth="true"/>
     <col min="213" max="213" width="12.42578125" customWidth="true"/>
-    <col min="214" max="214" width="12.42578125" customWidth="true"/>
+    <col min="214" max="214" width="11.42578125" customWidth="true"/>
     <col min="215" max="215" width="12.42578125" customWidth="true"/>
     <col min="216" max="216" width="12.42578125" customWidth="true"/>
     <col min="217" max="217" width="12.42578125" customWidth="true"/>
     <col min="218" max="218" width="12.42578125" customWidth="true"/>
     <col min="219" max="219" width="12.42578125" customWidth="true"/>
     <col min="220" max="220" width="11.42578125" customWidth="true"/>
-    <col min="221" max="221" width="11.42578125" customWidth="true"/>
+    <col min="221" max="221" width="12.42578125" customWidth="true"/>
     <col min="222" max="222" width="12.42578125" customWidth="true"/>
-    <col min="223" max="223" width="12.42578125" customWidth="true"/>
+    <col min="223" max="223" width="11.42578125" customWidth="true"/>
     <col min="224" max="224" width="12.42578125" customWidth="true"/>
     <col min="225" max="225" width="12.42578125" customWidth="true"/>
     <col min="226" max="226" width="12.42578125" customWidth="true"/>
@@ -320,17 +332,17 @@
     <col min="228" max="228" width="12.42578125" customWidth="true"/>
     <col min="229" max="229" width="12.42578125" customWidth="true"/>
     <col min="230" max="230" width="12.42578125" customWidth="true"/>
-    <col min="231" max="231" width="12.42578125" customWidth="true"/>
+    <col min="231" max="231" width="11.42578125" customWidth="true"/>
     <col min="232" max="232" width="12.42578125" customWidth="true"/>
     <col min="233" max="233" width="12.42578125" customWidth="true"/>
-    <col min="234" max="234" width="12.42578125" customWidth="true"/>
+    <col min="234" max="234" width="11.42578125" customWidth="true"/>
     <col min="235" max="235" width="12.42578125" customWidth="true"/>
     <col min="236" max="236" width="12.42578125" customWidth="true"/>
     <col min="237" max="237" width="12.42578125" customWidth="true"/>
     <col min="238" max="238" width="12.42578125" customWidth="true"/>
     <col min="239" max="239" width="12.42578125" customWidth="true"/>
     <col min="240" max="240" width="12.42578125" customWidth="true"/>
-    <col min="241" max="241" width="12.42578125" customWidth="true"/>
+    <col min="241" max="241" width="11.42578125" customWidth="true"/>
     <col min="242" max="242" width="12.42578125" customWidth="true"/>
     <col min="243" max="243" width="12.42578125" customWidth="true"/>
     <col min="244" max="244" width="12.42578125" customWidth="true"/>
@@ -344,7 +356,7 @@
     <col min="252" max="252" width="12.42578125" customWidth="true"/>
     <col min="253" max="253" width="12.42578125" customWidth="true"/>
     <col min="254" max="254" width="12.42578125" customWidth="true"/>
-    <col min="255" max="255" width="11.42578125" customWidth="true"/>
+    <col min="255" max="255" width="12.42578125" customWidth="true"/>
     <col min="256" max="256" width="12.42578125" customWidth="true"/>
     <col min="257" max="257" width="12.42578125" customWidth="true"/>
     <col min="258" max="258" width="12.42578125" customWidth="true"/>
@@ -352,22 +364,22 @@
     <col min="260" max="260" width="12.42578125" customWidth="true"/>
     <col min="261" max="261" width="12.42578125" customWidth="true"/>
     <col min="262" max="262" width="12.42578125" customWidth="true"/>
-    <col min="263" max="263" width="12.42578125" customWidth="true"/>
+    <col min="263" max="263" width="11.42578125" customWidth="true"/>
     <col min="264" max="264" width="12.42578125" customWidth="true"/>
     <col min="265" max="265" width="12.42578125" customWidth="true"/>
     <col min="266" max="266" width="12.42578125" customWidth="true"/>
     <col min="267" max="267" width="12.42578125" customWidth="true"/>
     <col min="268" max="268" width="12.42578125" customWidth="true"/>
-    <col min="269" max="269" width="12.42578125" customWidth="true"/>
-    <col min="270" max="270" width="12.42578125" customWidth="true"/>
-    <col min="271" max="271" width="12.42578125" customWidth="true"/>
+    <col min="269" max="269" width="11.42578125" customWidth="true"/>
+    <col min="270" max="270" width="10.42578125" customWidth="true"/>
+    <col min="271" max="271" width="11.42578125" customWidth="true"/>
     <col min="272" max="272" width="12.42578125" customWidth="true"/>
     <col min="273" max="273" width="12.42578125" customWidth="true"/>
     <col min="274" max="274" width="12.42578125" customWidth="true"/>
-    <col min="275" max="275" width="12.42578125" customWidth="true"/>
+    <col min="275" max="275" width="11.42578125" customWidth="true"/>
     <col min="276" max="276" width="12.42578125" customWidth="true"/>
     <col min="277" max="277" width="12.42578125" customWidth="true"/>
-    <col min="278" max="278" width="11.42578125" customWidth="true"/>
+    <col min="278" max="278" width="12.42578125" customWidth="true"/>
     <col min="279" max="279" width="12.42578125" customWidth="true"/>
     <col min="280" max="280" width="12.42578125" customWidth="true"/>
     <col min="281" max="281" width="12.42578125" customWidth="true"/>
@@ -375,14 +387,14 @@
     <col min="283" max="283" width="12.42578125" customWidth="true"/>
     <col min="284" max="284" width="12.42578125" customWidth="true"/>
     <col min="285" max="285" width="12.42578125" customWidth="true"/>
-    <col min="286" max="286" width="11.42578125" customWidth="true"/>
+    <col min="286" max="286" width="12.42578125" customWidth="true"/>
     <col min="287" max="287" width="12.42578125" customWidth="true"/>
     <col min="288" max="288" width="12.42578125" customWidth="true"/>
     <col min="289" max="289" width="12.42578125" customWidth="true"/>
     <col min="290" max="290" width="12.42578125" customWidth="true"/>
     <col min="291" max="291" width="12.42578125" customWidth="true"/>
     <col min="292" max="292" width="12.42578125" customWidth="true"/>
-    <col min="293" max="293" width="11.42578125" customWidth="true"/>
+    <col min="293" max="293" width="12.42578125" customWidth="true"/>
     <col min="294" max="294" width="12.42578125" customWidth="true"/>
     <col min="295" max="295" width="12.42578125" customWidth="true"/>
     <col min="296" max="296" width="12.42578125" customWidth="true"/>
@@ -393,7 +405,7 @@
     <col min="301" max="301" width="12.42578125" customWidth="true"/>
     <col min="302" max="302" width="12.42578125" customWidth="true"/>
     <col min="303" max="303" width="12.42578125" customWidth="true"/>
-    <col min="304" max="304" width="11.42578125" customWidth="true"/>
+    <col min="304" max="304" width="12.42578125" customWidth="true"/>
     <col min="305" max="305" width="12.42578125" customWidth="true"/>
     <col min="306" max="306" width="12.42578125" customWidth="true"/>
     <col min="307" max="307" width="12.42578125" customWidth="true"/>
@@ -402,16 +414,16 @@
     <col min="310" max="310" width="12.42578125" customWidth="true"/>
     <col min="311" max="311" width="12.42578125" customWidth="true"/>
     <col min="312" max="312" width="12.42578125" customWidth="true"/>
-    <col min="313" max="313" width="11.42578125" customWidth="true"/>
+    <col min="313" max="313" width="12.42578125" customWidth="true"/>
     <col min="314" max="314" width="12.42578125" customWidth="true"/>
     <col min="315" max="315" width="12.42578125" customWidth="true"/>
     <col min="316" max="316" width="12.42578125" customWidth="true"/>
-    <col min="317" max="317" width="11.42578125" customWidth="true"/>
+    <col min="317" max="317" width="12.42578125" customWidth="true"/>
     <col min="318" max="318" width="12.42578125" customWidth="true"/>
     <col min="319" max="319" width="12.42578125" customWidth="true"/>
     <col min="320" max="320" width="12.42578125" customWidth="true"/>
-    <col min="321" max="321" width="11.42578125" customWidth="true"/>
-    <col min="322" max="322" width="11.42578125" customWidth="true"/>
+    <col min="321" max="321" width="12.42578125" customWidth="true"/>
+    <col min="322" max="322" width="12.42578125" customWidth="true"/>
     <col min="323" max="323" width="12.42578125" customWidth="true"/>
     <col min="324" max="324" width="12.42578125" customWidth="true"/>
     <col min="325" max="325" width="12.42578125" customWidth="true"/>
@@ -421,1053 +433,1053 @@
     <col min="329" max="329" width="12.42578125" customWidth="true"/>
     <col min="330" max="330" width="12.42578125" customWidth="true"/>
     <col min="331" max="331" width="12.42578125" customWidth="true"/>
-    <col min="332" max="332" width="12.42578125" customWidth="true"/>
+    <col min="332" max="332" width="11.42578125" customWidth="true"/>
     <col min="333" max="333" width="12.42578125" customWidth="true"/>
     <col min="334" max="334" width="12.42578125" customWidth="true"/>
-    <col min="335" max="335" width="11.42578125" customWidth="true"/>
+    <col min="335" max="335" width="12.42578125" customWidth="true"/>
     <col min="336" max="336" width="12.42578125" customWidth="true"/>
     <col min="337" max="337" width="12.42578125" customWidth="true"/>
-    <col min="338" max="338" width="11.42578125" customWidth="true"/>
+    <col min="338" max="338" width="12.42578125" customWidth="true"/>
     <col min="339" max="339" width="12.42578125" customWidth="true"/>
-    <col min="340" max="340" width="11.42578125" customWidth="true"/>
+    <col min="340" max="340" width="12.42578125" customWidth="true"/>
     <col min="341" max="341" width="12.42578125" customWidth="true"/>
-    <col min="342" max="342" width="11.42578125" customWidth="true"/>
-    <col min="343" max="343" width="11.42578125" customWidth="true"/>
-    <col min="344" max="344" width="12.42578125" customWidth="true"/>
+    <col min="342" max="342" width="12.42578125" customWidth="true"/>
+    <col min="343" max="343" width="12.42578125" customWidth="true"/>
+    <col min="344" max="344" width="11.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>-34.998622575521509</v>
+        <v>-35.001005569034746</v>
       </c>
       <c r="B1">
-        <v>-34.727486038700761</v>
+        <v>-34.728930277144293</v>
       </c>
       <c r="C1">
-        <v>-34.435142591779936</v>
+        <v>-34.43671064409051</v>
       </c>
       <c r="D1">
-        <v>-34.159473083168706</v>
+        <v>-34.160885750765495</v>
       </c>
       <c r="E1">
-        <v>-33.878886197201368</v>
+        <v>-33.880089783674059</v>
       </c>
       <c r="F1">
-        <v>-33.636165414354451</v>
+        <v>-33.637155691545644</v>
       </c>
       <c r="G1">
-        <v>-33.394909826788229</v>
+        <v>-33.39587018758543</v>
       </c>
       <c r="H1">
-        <v>-33.132631952639329</v>
+        <v>-33.133772611880808</v>
       </c>
       <c r="I1">
-        <v>-32.887481266829852</v>
+        <v>-32.888615016827039</v>
       </c>
       <c r="J1">
-        <v>-32.624200369779629</v>
+        <v>-32.625437312972686</v>
       </c>
       <c r="K1">
-        <v>-32.412617725129564</v>
+        <v>-32.416983788736019</v>
       </c>
       <c r="L1">
-        <v>-32.189842851520893</v>
+        <v>-32.194053623201235</v>
       </c>
       <c r="M1">
-        <v>-31.995387519912413</v>
+        <v>-31.999584712449835</v>
       </c>
       <c r="N1">
-        <v>-31.750891738851365</v>
+        <v>-31.754810189406264</v>
       </c>
       <c r="O1">
-        <v>-31.537931371037068</v>
+        <v>-31.541788012469954</v>
       </c>
       <c r="P1">
-        <v>-31.304729633450371</v>
+        <v>-31.308889571650631</v>
       </c>
       <c r="Q1">
-        <v>-31.066840199276609</v>
+        <v>-31.071502955418357</v>
       </c>
       <c r="R1">
-        <v>-30.851884112623907</v>
+        <v>-30.857256032246578</v>
       </c>
       <c r="S1">
-        <v>-30.631238293324792</v>
+        <v>-30.6359374607257</v>
       </c>
       <c r="T1">
-        <v>-30.414035215224406</v>
+        <v>-30.418535402736193</v>
       </c>
       <c r="U1">
-        <v>-30.208702764586697</v>
+        <v>-30.213136207515699</v>
       </c>
       <c r="V1">
-        <v>-30.025695900102907</v>
+        <v>-30.029686851451292</v>
       </c>
       <c r="W1">
-        <v>-29.802710127824607</v>
+        <v>-29.807215385722714</v>
       </c>
       <c r="X1">
-        <v>-29.615051241595001</v>
+        <v>-29.619127928673208</v>
       </c>
       <c r="Y1">
-        <v>-29.46247186826319</v>
+        <v>-29.46951529091448</v>
       </c>
       <c r="Z1">
-        <v>-29.229642080468007</v>
+        <v>-29.234358458418054</v>
       </c>
       <c r="AA1">
-        <v>-29.058942323385523</v>
+        <v>-29.064146494754716</v>
       </c>
       <c r="AB1">
-        <v>-28.904774702215349</v>
+        <v>-28.909859006352892</v>
       </c>
       <c r="AC1">
-        <v>-28.730368435208788</v>
+        <v>-28.735547622332835</v>
       </c>
       <c r="AD1">
-        <v>-28.535795632020289</v>
+        <v>-28.541438869955766</v>
       </c>
       <c r="AE1">
-        <v>-28.356743778307195</v>
+        <v>-28.362435821457101</v>
       </c>
       <c r="AF1">
-        <v>-28.170485176149345</v>
+        <v>-28.174532029107969</v>
       </c>
       <c r="AG1">
-        <v>-27.987544267547005</v>
+        <v>-27.991250587218637</v>
       </c>
       <c r="AH1">
-        <v>-27.848346930997554</v>
+        <v>-27.852208501438458</v>
       </c>
       <c r="AI1">
-        <v>-27.642026079106255</v>
+        <v>-27.646241051267655</v>
       </c>
       <c r="AJ1">
-        <v>-27.474361325559464</v>
+        <v>-27.478414291233069</v>
       </c>
       <c r="AK1">
-        <v>-27.282977951129322</v>
+        <v>-27.287775136158864</v>
       </c>
       <c r="AL1">
-        <v>-27.111792405453926</v>
+        <v>-27.116344708063405</v>
       </c>
       <c r="AM1">
-        <v>-26.963659893347032</v>
+        <v>-26.972731972084532</v>
       </c>
       <c r="AN1">
-        <v>-26.775697236114922</v>
+        <v>-26.782874510302094</v>
       </c>
       <c r="AO1">
-        <v>-26.624582038702417</v>
+        <v>-26.632131754704634</v>
       </c>
       <c r="AP1">
-        <v>-26.469582118304722</v>
+        <v>-26.477094609233848</v>
       </c>
       <c r="AQ1">
-        <v>-26.351693040146927</v>
+        <v>-26.35892478716821</v>
       </c>
       <c r="AR1">
-        <v>-26.286653327688803</v>
+        <v>-26.293112155476155</v>
       </c>
       <c r="AS1">
-        <v>-26.192569676971775</v>
+        <v>-26.198994597531478</v>
       </c>
       <c r="AT1">
-        <v>-26.073155686606309</v>
+        <v>-26.077669552195179</v>
       </c>
       <c r="AU1">
-        <v>-25.943828001916124</v>
+        <v>-25.947699358326638</v>
       </c>
       <c r="AV1">
-        <v>-25.898143211943317</v>
+        <v>-25.902588392908246</v>
       </c>
       <c r="AW1">
-        <v>-25.87638460624353</v>
+        <v>-25.881231112863038</v>
       </c>
       <c r="AX1">
-        <v>-25.814410239665609</v>
+        <v>-25.819233814919361</v>
       </c>
       <c r="AY1">
-        <v>-25.838362901784183</v>
+        <v>-25.842841544011602</v>
       </c>
       <c r="AZ1">
-        <v>-25.760256934602207</v>
+        <v>-25.764922760724545</v>
       </c>
       <c r="BA1">
-        <v>-25.728562246787682</v>
+        <v>-25.733533345234108</v>
       </c>
       <c r="BB1">
-        <v>-25.711844704808552</v>
+        <v>-25.717013410668617</v>
       </c>
       <c r="BC1">
-        <v>-25.798219827250797</v>
+        <v>-25.803599884925251</v>
       </c>
       <c r="BD1">
-        <v>-25.764737495775133</v>
+        <v>-25.770190082252768</v>
       </c>
       <c r="BE1">
-        <v>-25.748786259181557</v>
+        <v>-25.754231715889773</v>
       </c>
       <c r="BF1">
-        <v>-25.88148708024212</v>
+        <v>-25.886217557484301</v>
       </c>
       <c r="BG1">
-        <v>-25.943365955786138</v>
+        <v>-25.948053680256528</v>
       </c>
       <c r="BH1">
-        <v>-26.03693050651842</v>
+        <v>-26.042074328797391</v>
       </c>
       <c r="BI1">
-        <v>-26.015465606522177</v>
+        <v>-26.019956463138783</v>
       </c>
       <c r="BJ1">
-        <v>-26.151132659278289</v>
+        <v>-26.155833976811099</v>
       </c>
       <c r="BK1">
-        <v>-26.32437268252837</v>
+        <v>-26.328932216131722</v>
       </c>
       <c r="BL1">
-        <v>-26.363795634320002</v>
+        <v>-26.368481713718978</v>
       </c>
       <c r="BM1">
-        <v>-26.308159279439259</v>
+        <v>-26.31316726042396</v>
       </c>
       <c r="BN1">
-        <v>-26.36346872602719</v>
+        <v>-26.368239776894093</v>
       </c>
       <c r="BO1">
-        <v>-26.449796186801589</v>
+        <v>-26.455473236412296</v>
       </c>
       <c r="BP1">
-        <v>-26.427901280463043</v>
+        <v>-26.433164406185636</v>
       </c>
       <c r="BQ1">
-        <v>-26.496902658081243</v>
+        <v>-26.502181643496822</v>
       </c>
       <c r="BR1">
-        <v>-26.612212012704418</v>
+        <v>-26.617300658245341</v>
       </c>
       <c r="BS1">
-        <v>-26.666277401726212</v>
+        <v>-26.671377107901037</v>
       </c>
       <c r="BT1">
-        <v>-26.597037605654254</v>
+        <v>-26.602531591446539</v>
       </c>
       <c r="BU1">
-        <v>-26.675908987895927</v>
+        <v>-26.68096183280915</v>
       </c>
       <c r="BV1">
-        <v>-26.891334477830839</v>
+        <v>-26.900736614819326</v>
       </c>
       <c r="BW1">
-        <v>-26.795991952442879</v>
+        <v>-26.803531907808395</v>
       </c>
       <c r="BX1">
-        <v>-26.803981089104006</v>
+        <v>-26.81145158614266</v>
       </c>
       <c r="BY1">
-        <v>-26.713439549317208</v>
+        <v>-26.72098166204681</v>
       </c>
       <c r="BZ1">
-        <v>-26.706703621601015</v>
+        <v>-26.714043518753478</v>
       </c>
       <c r="CA1">
-        <v>-26.700860636694593</v>
+        <v>-26.708035044670861</v>
       </c>
       <c r="CB1">
-        <v>-26.682097363017171</v>
+        <v>-26.689226194004792</v>
       </c>
       <c r="CC1">
-        <v>-26.794355168434127</v>
+        <v>-26.804817513432006</v>
       </c>
       <c r="CD1">
-        <v>-26.8446246261799</v>
+        <v>-26.855080305820085</v>
       </c>
       <c r="CE1">
-        <v>-26.937438842180335</v>
+        <v>-26.947856473113003</v>
       </c>
       <c r="CF1">
-        <v>-27.015764642828781</v>
+        <v>-27.026075410506948</v>
       </c>
       <c r="CG1">
-        <v>-27.093390235648126</v>
+        <v>-27.10357962839938</v>
       </c>
       <c r="CH1">
-        <v>-27.082843860215725</v>
+        <v>-27.093346617353834</v>
       </c>
       <c r="CI1">
-        <v>-27.199208299118254</v>
+        <v>-27.209680575287848</v>
       </c>
       <c r="CJ1">
-        <v>-27.332724321193627</v>
+        <v>-27.344712613641853</v>
       </c>
       <c r="CK1">
-        <v>-27.37770859627183</v>
+        <v>-27.389142970092902</v>
       </c>
       <c r="CL1">
-        <v>-27.509168930505396</v>
+        <v>-27.52104900776671</v>
       </c>
       <c r="CM1">
-        <v>-27.538189356320899</v>
+        <v>-27.549776166831105</v>
       </c>
       <c r="CN1">
-        <v>-27.695362262558945</v>
+        <v>-27.706997530371279</v>
       </c>
       <c r="CO1">
-        <v>-27.781345002489594</v>
+        <v>-27.792956666489914</v>
       </c>
       <c r="CP1">
-        <v>-27.938934568495526</v>
+        <v>-27.950876053119828</v>
       </c>
       <c r="CQ1">
-        <v>-28.170603786767124</v>
+        <v>-28.184659923811168</v>
       </c>
       <c r="CR1">
-        <v>-28.449981873079192</v>
+        <v>-28.465665483003839</v>
       </c>
       <c r="CS1">
-        <v>-28.651001045458614</v>
+        <v>-28.666572547390931</v>
       </c>
       <c r="CT1">
-        <v>-28.959232996112352</v>
+        <v>-28.974716682181711</v>
       </c>
       <c r="CU1">
-        <v>-29.203385621020175</v>
+        <v>-29.218788233822632</v>
       </c>
       <c r="CV1">
-        <v>-29.555969876084621</v>
+        <v>-29.570835504195742</v>
       </c>
       <c r="CW1">
-        <v>-29.875606387982586</v>
+        <v>-29.890252686305505</v>
       </c>
       <c r="CX1">
-        <v>-30.224882918296128</v>
+        <v>-30.240125192331828</v>
       </c>
       <c r="CY1">
-        <v>-30.587791564514575</v>
+        <v>-30.603345792918194</v>
       </c>
       <c r="CZ1">
-        <v>-31.127488157130646</v>
+        <v>-31.143282876805028</v>
       </c>
       <c r="DA1">
-        <v>-31.601424439777333</v>
+        <v>-31.617048234872478</v>
       </c>
       <c r="DB1">
-        <v>-31.800984446995663</v>
+        <v>-31.81723631078173</v>
       </c>
       <c r="DC1">
-        <v>-31.958008342649801</v>
+        <v>-31.974672618993381</v>
       </c>
       <c r="DD1">
-        <v>-32.271682908345234</v>
+        <v>-32.287963039348739</v>
       </c>
       <c r="DE1">
-        <v>-32.849561741630708</v>
+        <v>-32.871731489106431</v>
       </c>
       <c r="DF1">
-        <v>-33.123871349360648</v>
+        <v>-33.145286412359148</v>
       </c>
       <c r="DG1">
-        <v>-33.590713335111872</v>
+        <v>-33.612194183984073</v>
       </c>
       <c r="DH1">
-        <v>-33.811069913389098</v>
+        <v>-33.832865684158172</v>
       </c>
       <c r="DI1">
-        <v>-34.112020291664386</v>
+        <v>-34.133718313908545</v>
       </c>
       <c r="DJ1">
-        <v>-34.332387320593085</v>
+        <v>-34.354295339311086</v>
       </c>
       <c r="DK1">
-        <v>-34.521300488835308</v>
+        <v>-34.543400310868023</v>
       </c>
       <c r="DL1">
-        <v>-34.97786033555834</v>
+        <v>-35.005492020352364</v>
       </c>
       <c r="DM1">
-        <v>-35.644804620863418</v>
+        <v>-35.676035695317665</v>
       </c>
       <c r="DN1">
-        <v>-36.04106039958311</v>
+        <v>-36.072155232943182</v>
       </c>
       <c r="DO1">
-        <v>-36.369963986643356</v>
+        <v>-36.401178867350794</v>
       </c>
       <c r="DP1">
-        <v>-36.697399680336069</v>
+        <v>-36.72866402228972</v>
       </c>
       <c r="DQ1">
-        <v>-36.866338799296749</v>
+        <v>-36.89836002271899</v>
       </c>
       <c r="DR1">
-        <v>-37.158301615204998</v>
+        <v>-37.19015661260763</v>
       </c>
       <c r="DS1">
-        <v>-37.568131060913217</v>
+        <v>-37.602004554300372</v>
       </c>
       <c r="DT1">
-        <v>-37.839556183790229</v>
+        <v>-37.872596601752619</v>
       </c>
       <c r="DU1">
-        <v>-38.230063532751934</v>
+        <v>-38.263287969912476</v>
       </c>
       <c r="DV1">
-        <v>-38.634049902484811</v>
+        <v>-38.666984501868029</v>
       </c>
       <c r="DW1">
-        <v>-38.758193157405721</v>
+        <v>-38.792104095037011</v>
       </c>
       <c r="DX1">
-        <v>-38.903784231571258</v>
+        <v>-38.938115123930942</v>
       </c>
       <c r="DY1">
-        <v>-39.092652485820203</v>
+        <v>-39.126856120410672</v>
       </c>
       <c r="DZ1">
-        <v>-39.435060357047995</v>
+        <v>-39.472892530325666</v>
       </c>
       <c r="EA1">
-        <v>-39.852168014515179</v>
+        <v>-39.891577201324367</v>
       </c>
       <c r="EB1">
-        <v>-40.33012325009917</v>
+        <v>-40.369907514813114</v>
       </c>
       <c r="EC1">
-        <v>-40.80753420685263</v>
+        <v>-40.847270263882429</v>
       </c>
       <c r="ED1">
-        <v>-41.297561108988404</v>
+        <v>-41.336888735779659</v>
       </c>
       <c r="EE1">
-        <v>-41.954985949602175</v>
+        <v>-41.99291846361146</v>
       </c>
       <c r="EF1">
-        <v>-42.659625014264407</v>
+        <v>-42.697150310287917</v>
       </c>
       <c r="EG1">
-        <v>-43.700486386373413</v>
+        <v>-43.744627484804845</v>
       </c>
       <c r="EH1">
-        <v>-44.277756672522713</v>
+        <v>-44.318997479057025</v>
       </c>
       <c r="EI1">
-        <v>-45.083208565358703</v>
+        <v>-45.124667329864671</v>
       </c>
       <c r="EJ1">
-        <v>-46.278733595009733</v>
+        <v>-46.319017355273907</v>
       </c>
       <c r="EK1">
-        <v>-47.393541721111539</v>
+        <v>-47.432828899798331</v>
       </c>
       <c r="EL1">
-        <v>-48.329422252973984</v>
+        <v>-48.36898756533067</v>
       </c>
       <c r="EM1">
-        <v>-49.564937217772432</v>
+        <v>-49.602858444654728</v>
       </c>
       <c r="EN1">
-        <v>-51.192104240061212</v>
+        <v>-51.235635112916214</v>
       </c>
       <c r="EO1">
-        <v>-53.175890355246523</v>
+        <v>-53.223316151342296</v>
       </c>
       <c r="EP1">
-        <v>-55.068025347527104</v>
+        <v>-55.115472972266112</v>
       </c>
       <c r="EQ1">
-        <v>-57.05803327096325</v>
+        <v>-57.104977766770837</v>
       </c>
       <c r="ER1">
-        <v>-59.071443862174959</v>
+        <v>-59.117677457911412</v>
       </c>
       <c r="ES1">
-        <v>-61.14455906928773</v>
+        <v>-61.189931197341117</v>
       </c>
       <c r="ET1">
-        <v>-62.737509805284787</v>
+        <v>-62.78430363913359</v>
       </c>
       <c r="EU1">
-        <v>-65.347461189274028</v>
+        <v>-65.402019550593167</v>
       </c>
       <c r="EV1">
-        <v>-67.260921674711796</v>
+        <v>-67.314818292553312</v>
       </c>
       <c r="EW1">
-        <v>-69.255202535135822</v>
+        <v>-69.30919092758775</v>
       </c>
       <c r="EX1">
-        <v>-70.68198173562908</v>
+        <v>-70.739037346753335</v>
       </c>
       <c r="EY1">
-        <v>-72.936334056281808</v>
+        <v>-72.989423633282968</v>
       </c>
       <c r="EZ1">
-        <v>-74.742258407139261</v>
+        <v>-74.79511165103186</v>
       </c>
       <c r="FA1">
-        <v>-76.427318236182899</v>
+        <v>-76.480600688472521</v>
       </c>
       <c r="FB1">
-        <v>-79.39464881741921</v>
+        <v>-79.458141710814914</v>
       </c>
       <c r="FC1">
-        <v>-81.147115031742857</v>
+        <v>-81.207987876844342</v>
       </c>
       <c r="FD1">
-        <v>-82.585314331196656</v>
+        <v>-82.644304424769985</v>
       </c>
       <c r="FE1">
-        <v>-83.917057179511147</v>
+        <v>-83.977180566148959</v>
       </c>
       <c r="FF1">
-        <v>-85.75113012520805</v>
+        <v>-85.809457479588971</v>
       </c>
       <c r="FG1">
-        <v>-87.380834349945275</v>
+        <v>-87.437964263263581</v>
       </c>
       <c r="FH1">
-        <v>-88.597537126240454</v>
+        <v>-88.654385726641522</v>
       </c>
       <c r="FI1">
-        <v>-90.530706323573781</v>
+        <v>-90.591992603041689</v>
       </c>
       <c r="FJ1">
-        <v>-91.535507082826442</v>
+        <v>-91.595294822857184</v>
       </c>
       <c r="FK1">
-        <v>-92.934993106547793</v>
+        <v>-92.994489881109516</v>
       </c>
       <c r="FL1">
-        <v>-94.510250428929098</v>
+        <v>-94.568261952757453</v>
       </c>
       <c r="FM1">
-        <v>-95.702935475869438</v>
+        <v>-95.762550968735908</v>
       </c>
       <c r="FN1">
-        <v>-96.823003137070685</v>
+        <v>-96.884059402085086</v>
       </c>
       <c r="FO1">
-        <v>-97.838207426897412</v>
+        <v>-97.900832828952105</v>
       </c>
       <c r="FP1">
-        <v>-99.108466589352801</v>
+        <v>-99.17157246489819</v>
       </c>
       <c r="FQ1">
-        <v>-99.946569760403932</v>
+        <v>-100.00968041649286</v>
       </c>
       <c r="FR1">
-        <v>-100.9275731835381</v>
+        <v>-100.99066314262521</v>
       </c>
       <c r="FS1">
-        <v>-101.6163075780575</v>
+        <v>-101.67629733131812</v>
       </c>
       <c r="FT1">
-        <v>-102.47569781748298</v>
+        <v>-102.53550667172428</v>
       </c>
       <c r="FU1">
-        <v>-103.01976280679327</v>
+        <v>-103.08060316858291</v>
       </c>
       <c r="FV1">
-        <v>-103.58025803792931</v>
+        <v>-103.6418311032478</v>
       </c>
       <c r="FW1">
-        <v>-104.80839796579045</v>
+        <v>-104.87834307841521</v>
       </c>
       <c r="FX1">
-        <v>-105.73815549617714</v>
+        <v>-105.80779844044949</v>
       </c>
       <c r="FY1">
-        <v>-106.05988696978692</v>
+        <v>-106.1290298624757</v>
       </c>
       <c r="FZ1">
-        <v>-106.73697455187917</v>
+        <v>-106.80594978516244</v>
       </c>
       <c r="GA1">
-        <v>-107.29134808333359</v>
+        <v>-107.36042453182709</v>
       </c>
       <c r="GB1">
-        <v>-107.52130748619797</v>
+        <v>-107.59277560665363</v>
       </c>
       <c r="GC1">
-        <v>-107.77342540450661</v>
+        <v>-107.84644414491291</v>
       </c>
       <c r="GD1">
-        <v>-108.20556311845614</v>
+        <v>-108.27870996411923</v>
       </c>
       <c r="GE1">
-        <v>-108.31743804423125</v>
+        <v>-108.38672161240055</v>
       </c>
       <c r="GF1">
-        <v>-108.54195404370887</v>
+        <v>-108.61097259126602</v>
       </c>
       <c r="GG1">
-        <v>-108.67264067358448</v>
+        <v>-108.73899745775877</v>
       </c>
       <c r="GH1">
-        <v>-108.76501410649688</v>
+        <v>-108.83076204163416</v>
       </c>
       <c r="GI1">
-        <v>-108.61671971781992</v>
+        <v>-108.68353995863939</v>
       </c>
       <c r="GJ1">
-        <v>-108.62519619805447</v>
+        <v>-108.69171868450222</v>
       </c>
       <c r="GK1">
-        <v>-108.70487838679685</v>
+        <v>-108.77173796051743</v>
       </c>
       <c r="GL1">
-        <v>-108.65261529240119</v>
+        <v>-108.71625594695021</v>
       </c>
       <c r="GM1">
-        <v>-108.55539463185544</v>
+        <v>-108.61808518921571</v>
       </c>
       <c r="GN1">
-        <v>-108.46071052403853</v>
+        <v>-108.51861794526292</v>
       </c>
       <c r="GO1">
-        <v>-108.44528697578581</v>
+        <v>-108.50383119637539</v>
       </c>
       <c r="GP1">
-        <v>-108.22724818953587</v>
+        <v>-108.28481490887266</v>
       </c>
       <c r="GQ1">
-        <v>-108.11375430545517</v>
+        <v>-108.17105226271785</v>
       </c>
       <c r="GR1">
-        <v>-108.05392806061252</v>
+        <v>-108.11149360815907</v>
       </c>
       <c r="GS1">
-        <v>-108.04949438149933</v>
+        <v>-108.10928669258713</v>
       </c>
       <c r="GT1">
-        <v>-108.00277115472139</v>
+        <v>-108.06203448359121</v>
       </c>
       <c r="GU1">
-        <v>-107.81247596726971</v>
+        <v>-107.8619459843827</v>
       </c>
       <c r="GV1">
-        <v>-107.61814940932123</v>
+        <v>-107.66502157037765</v>
       </c>
       <c r="GW1">
-        <v>-107.5380616816213</v>
+        <v>-107.58522019382598</v>
       </c>
       <c r="GX1">
-        <v>-107.33587830999429</v>
+        <v>-107.3831057471873</v>
       </c>
       <c r="GY1">
-        <v>-107.17722605574322</v>
+        <v>-107.22022680466306</v>
       </c>
       <c r="GZ1">
-        <v>-106.96047522292362</v>
+        <v>-107.00010554671783</v>
       </c>
       <c r="HA1">
-        <v>-106.77514235132854</v>
+        <v>-106.81443322880978</v>
       </c>
       <c r="HB1">
-        <v>-106.67555845574347</v>
+        <v>-106.71890967034139</v>
       </c>
       <c r="HC1">
-        <v>-106.57994611182291</v>
+        <v>-106.62417992099962</v>
       </c>
       <c r="HD1">
-        <v>-106.41530258147112</v>
+        <v>-106.45901332051774</v>
       </c>
       <c r="HE1">
-        <v>-106.20324678466991</v>
+        <v>-106.24706935059986</v>
       </c>
       <c r="HF1">
-        <v>-106.0792597071938</v>
+        <v>-106.12352602654667</v>
       </c>
       <c r="HG1">
-        <v>-105.91852080664589</v>
+        <v>-105.96115241853769</v>
       </c>
       <c r="HH1">
-        <v>-105.83514788474486</v>
+        <v>-105.87884520704468</v>
       </c>
       <c r="HI1">
-        <v>-105.77415338766409</v>
+        <v>-105.81953115519653</v>
       </c>
       <c r="HJ1">
-        <v>-105.63380618422349</v>
+        <v>-105.67745026603237</v>
       </c>
       <c r="HK1">
-        <v>-105.50491743626341</v>
+        <v>-105.54828992937129</v>
       </c>
       <c r="HL1">
-        <v>-105.3279739510198</v>
+        <v>-105.37137498414425</v>
       </c>
       <c r="HM1">
-        <v>-105.18173896519424</v>
+        <v>-105.22145560100081</v>
       </c>
       <c r="HN1">
-        <v>-105.14944622804947</v>
+        <v>-105.19314847653162</v>
       </c>
       <c r="HO1">
-        <v>-105.03297665569542</v>
+        <v>-105.07608899349363</v>
       </c>
       <c r="HP1">
-        <v>-104.92719742374437</v>
+        <v>-104.96863384403144</v>
       </c>
       <c r="HQ1">
-        <v>-104.76340255158817</v>
+        <v>-104.8031539437111</v>
       </c>
       <c r="HR1">
-        <v>-104.76268653187826</v>
+        <v>-104.80305047886992</v>
       </c>
       <c r="HS1">
-        <v>-104.58793065725948</v>
+        <v>-104.62720265866895</v>
       </c>
       <c r="HT1">
-        <v>-104.42727540079952</v>
+        <v>-104.4610126232817</v>
       </c>
       <c r="HU1">
-        <v>-104.36131120290393</v>
+        <v>-104.39686278955115</v>
       </c>
       <c r="HV1">
-        <v>-104.26887420650769</v>
+        <v>-104.30439020653783</v>
       </c>
       <c r="HW1">
-        <v>-104.16738035339155</v>
+        <v>-104.20176204842885</v>
       </c>
       <c r="HX1">
-        <v>-103.94193191289159</v>
+        <v>-103.97385690314177</v>
       </c>
       <c r="HY1">
-        <v>-103.85798207417474</v>
+        <v>-103.89004552391599</v>
       </c>
       <c r="HZ1">
-        <v>-103.72111977302274</v>
+        <v>-103.7530619631026</v>
       </c>
       <c r="IA1">
-        <v>-103.58513420446188</v>
+        <v>-103.61457808165461</v>
       </c>
       <c r="IB1">
-        <v>-103.54094362061454</v>
+        <v>-103.57268991709653</v>
       </c>
       <c r="IC1">
-        <v>-103.43368678793965</v>
+        <v>-103.4651192038</v>
       </c>
       <c r="ID1">
-        <v>-103.308328588286</v>
+        <v>-103.33835265807382</v>
       </c>
       <c r="IE1">
-        <v>-103.11002905512787</v>
+        <v>-103.13881242113936</v>
       </c>
       <c r="IF1">
-        <v>-102.94249959016759</v>
+        <v>-102.97119860142037</v>
       </c>
       <c r="IG1">
-        <v>-102.86218654567605</v>
+        <v>-102.89092297456742</v>
       </c>
       <c r="IH1">
-        <v>-102.88444940654139</v>
+        <v>-102.92067432013125</v>
       </c>
       <c r="II1">
-        <v>-102.74126037665812</v>
+        <v>-102.7748718551168</v>
       </c>
       <c r="IJ1">
-        <v>-102.64759313127684</v>
+        <v>-102.68107327564447</v>
       </c>
       <c r="IK1">
-        <v>-102.65592464745028</v>
+        <v>-102.69131733568054</v>
       </c>
       <c r="IL1">
-        <v>-102.60051467941682</v>
+        <v>-102.63574571168876</v>
       </c>
       <c r="IM1">
-        <v>-102.58365629618959</v>
+        <v>-102.61872044455272</v>
       </c>
       <c r="IN1">
-        <v>-102.52862657532795</v>
+        <v>-102.56363738817151</v>
       </c>
       <c r="IO1">
-        <v>-102.64606724509049</v>
+        <v>-102.68820690776425</v>
       </c>
       <c r="IP1">
-        <v>-102.60899215105837</v>
+        <v>-102.64862937757441</v>
       </c>
       <c r="IQ1">
-        <v>-102.67146558188749</v>
+        <v>-102.71162218804885</v>
       </c>
       <c r="IR1">
-        <v>-102.62456613939513</v>
+        <v>-102.66452252509661</v>
       </c>
       <c r="IS1">
-        <v>-102.54988042670664</v>
+        <v>-102.59006989656379</v>
       </c>
       <c r="IT1">
-        <v>-102.46733160095691</v>
+        <v>-102.50711141079636</v>
       </c>
       <c r="IU1">
-        <v>-102.36727298365875</v>
+        <v>-102.40457523601978</v>
       </c>
       <c r="IV1">
-        <v>-102.23199464651556</v>
+        <v>-102.26697627009239</v>
       </c>
       <c r="IW1">
-        <v>-102.27501365902643</v>
+        <v>-102.31573949515253</v>
       </c>
       <c r="IX1">
-        <v>-102.20350661939007</v>
+        <v>-102.243349783806</v>
       </c>
       <c r="IY1">
-        <v>-102.16044255208276</v>
+        <v>-102.20012644696665</v>
       </c>
       <c r="IZ1">
-        <v>-102.08068846158223</v>
+        <v>-102.12006216859797</v>
       </c>
       <c r="JA1">
-        <v>-101.98349965937288</v>
+        <v>-102.02286808160582</v>
       </c>
       <c r="JB1">
-        <v>-101.86050169159135</v>
+        <v>-101.89999720236185</v>
       </c>
       <c r="JC1">
-        <v>-101.78241461783142</v>
+        <v>-101.8215770124081</v>
       </c>
       <c r="JD1">
-        <v>-101.73112223898103</v>
+        <v>-101.77080671850273</v>
       </c>
       <c r="JE1">
-        <v>-101.65396856459107</v>
+        <v>-101.69349673857437</v>
       </c>
       <c r="JF1">
-        <v>-101.61257288379814</v>
+        <v>-101.6524646589703</v>
       </c>
       <c r="JG1">
-        <v>-101.50916843421177</v>
+        <v>-101.548732901975</v>
       </c>
       <c r="JH1">
-        <v>-101.45941936339653</v>
+        <v>-101.49875685663274</v>
       </c>
       <c r="JI1">
-        <v>-101.45441872666902</v>
+        <v>-101.49388300792009</v>
       </c>
       <c r="JJ1">
-        <v>-101.49594606253791</v>
+        <v>-101.53778004145684</v>
       </c>
       <c r="JK1">
-        <v>-101.48341723926887</v>
+        <v>-101.52480198232473</v>
       </c>
       <c r="JL1">
-        <v>-101.42476860537536</v>
+        <v>-101.46582264547831</v>
       </c>
       <c r="JM1">
-        <v>-101.34903159768103</v>
+        <v>-101.38799119779893</v>
       </c>
       <c r="JN1">
-        <v>-101.23889229066808</v>
+        <v>-101.27694624951457</v>
       </c>
       <c r="JO1">
-        <v>-101.16494884442713</v>
+        <v>-101.20290697081613</v>
       </c>
       <c r="JP1">
-        <v>-100.9627532943942</v>
+        <v>-100.99936046740899</v>
       </c>
       <c r="JQ1">
-        <v>-100.85594391425629</v>
+        <v>-100.89263935049948</v>
       </c>
       <c r="JR1">
-        <v>-100.86251399665147</v>
+        <v>-100.90197174591329</v>
       </c>
       <c r="JS1">
-        <v>-100.8160695207189</v>
+        <v>-100.85555648600582</v>
       </c>
       <c r="JT1">
-        <v>-100.83057007295784</v>
+        <v>-100.87206722108256</v>
       </c>
       <c r="JU1">
-        <v>-100.68656486066406</v>
+        <v>-100.72571846814792</v>
       </c>
       <c r="JV1">
-        <v>-100.57315773992707</v>
+        <v>-100.61208674887797</v>
       </c>
       <c r="JW1">
-        <v>-100.47738217603741</v>
+        <v>-100.51595835384488</v>
       </c>
       <c r="JX1">
-        <v>-100.38209064631764</v>
+        <v>-100.4194107674564</v>
       </c>
       <c r="JY1">
-        <v>-100.27912023574368</v>
+        <v>-100.3159502245699</v>
       </c>
       <c r="JZ1">
-        <v>-100.14435902382394</v>
+        <v>-100.17969352597849</v>
       </c>
       <c r="KA1">
-        <v>-100.04244389940405</v>
+        <v>-100.07719722749577</v>
       </c>
       <c r="KB1">
-        <v>-100.02812667504084</v>
+        <v>-100.06500436097632</v>
       </c>
       <c r="KC1">
-        <v>-100.00137085795801</v>
+        <v>-100.03844339796301</v>
       </c>
       <c r="KD1">
-        <v>-99.907536350097146</v>
+        <v>-99.943642518056109</v>
       </c>
       <c r="KE1">
-        <v>-99.988652654950016</v>
+        <v>-100.0312089286821</v>
       </c>
       <c r="KF1">
-        <v>-99.848344360464594</v>
+        <v>-99.887877854885531</v>
       </c>
       <c r="KG1">
-        <v>-99.847424700996498</v>
+        <v>-99.888198066051046</v>
       </c>
       <c r="KH1">
-        <v>-99.839255961031256</v>
+        <v>-99.880146819015607</v>
       </c>
       <c r="KI1">
-        <v>-99.899986993902303</v>
+        <v>-99.940781770104905</v>
       </c>
       <c r="KJ1">
-        <v>-99.847788483141514</v>
+        <v>-99.888732968613269</v>
       </c>
       <c r="KK1">
-        <v>-99.796981963284381</v>
+        <v>-99.837107893870808</v>
       </c>
       <c r="KL1">
-        <v>-99.687608289880004</v>
+        <v>-99.724417024919092</v>
       </c>
       <c r="KM1">
-        <v>-99.5890407613809</v>
+        <v>-99.625192212388313</v>
       </c>
       <c r="KN1">
-        <v>-99.579131466938804</v>
+        <v>-99.615292073990432</v>
       </c>
       <c r="KO1">
-        <v>-99.447660157939779</v>
+        <v>-99.480637657163683</v>
       </c>
       <c r="KP1">
-        <v>-99.445502747233419</v>
+        <v>-99.479425925413565</v>
       </c>
       <c r="KQ1">
-        <v>-99.323157333939193</v>
+        <v>-99.356825109236681</v>
       </c>
       <c r="KR1">
-        <v>-99.235027200417861</v>
+        <v>-99.2683582876695</v>
       </c>
       <c r="KS1">
-        <v>-99.116100278752285</v>
+        <v>-99.148526491396993</v>
       </c>
       <c r="KT1">
-        <v>-99.051713054585548</v>
+        <v>-99.084774940247655</v>
       </c>
       <c r="KU1">
-        <v>-98.972649105072421</v>
+        <v>-99.005634268218159</v>
       </c>
       <c r="KV1">
-        <v>-98.963809810315269</v>
+        <v>-98.999438085559504</v>
       </c>
       <c r="KW1">
-        <v>-98.925088207604205</v>
+        <v>-98.960675706895145</v>
       </c>
       <c r="KX1">
-        <v>-98.83009935553369</v>
+        <v>-98.865283542730424</v>
       </c>
       <c r="KY1">
-        <v>-98.689377627421237</v>
+        <v>-98.722343280134524</v>
       </c>
       <c r="KZ1">
-        <v>-98.679289639419665</v>
+        <v>-98.715089093015592</v>
       </c>
       <c r="LA1">
-        <v>-98.601988504994409</v>
+        <v>-98.637354646380132</v>
       </c>
       <c r="LB1">
-        <v>-98.486264394221863</v>
+        <v>-98.520872763018957</v>
       </c>
       <c r="LC1">
-        <v>-98.402339267104836</v>
+        <v>-98.436021253882814</v>
       </c>
       <c r="LD1">
-        <v>-98.273557686198586</v>
+        <v>-98.305925523572512</v>
       </c>
       <c r="LE1">
-        <v>-98.102522302764328</v>
+        <v>-98.13432521655794</v>
       </c>
       <c r="LF1">
-        <v>-97.921435069469439</v>
+        <v>-97.950794539835101</v>
       </c>
       <c r="LG1">
-        <v>-97.827822240250626</v>
+        <v>-97.859448270289576</v>
       </c>
       <c r="LH1">
-        <v>-97.647676325242955</v>
+        <v>-97.678205578813333</v>
       </c>
       <c r="LI1">
-        <v>-97.575064604396403</v>
+        <v>-97.605986893376681</v>
       </c>
       <c r="LJ1">
-        <v>-97.423166895229841</v>
+        <v>-97.451148116795665</v>
       </c>
       <c r="LK1">
-        <v>-97.239051329422225</v>
+        <v>-97.265352745205334</v>
       </c>
       <c r="LL1">
-        <v>-97.04570203193947</v>
+        <v>-97.071619254986089</v>
       </c>
       <c r="LM1">
-        <v>-96.902895315100594</v>
+        <v>-96.929564245538302</v>
       </c>
       <c r="LN1">
-        <v>-96.761536710415584</v>
+        <v>-96.789509953107711</v>
       </c>
       <c r="LO1">
-        <v>-96.576932151454841</v>
+        <v>-96.604229845309789</v>
       </c>
       <c r="LP1">
-        <v>-96.382756422048644</v>
+        <v>-96.409820061578557</v>
       </c>
       <c r="LQ1">
-        <v>-96.179864220129488</v>
+        <v>-96.205120965341578</v>
       </c>
       <c r="LR1">
-        <v>-95.995028792738992</v>
+        <v>-96.020188356230335</v>
       </c>
       <c r="LS1">
-        <v>-95.821294007861354</v>
+        <v>-95.846424637650557</v>
       </c>
       <c r="LT1">
-        <v>-95.6379664433546</v>
+        <v>-95.662477496768517</v>
       </c>
       <c r="LU1">
-        <v>-95.434600366902529</v>
+        <v>-95.458085569786945</v>
       </c>
       <c r="LV1">
-        <v>-95.24807227888077</v>
+        <v>-95.271513124364247</v>
       </c>
       <c r="LW1">
-        <v>-95.052717802309061</v>
+        <v>-95.075953386434094</v>
       </c>
       <c r="LX1">
-        <v>-94.863148281379267</v>
+        <v>-94.885180752287681</v>
       </c>
       <c r="LY1">
-        <v>-94.674408948213824</v>
+        <v>-94.696076907559245</v>
       </c>
       <c r="LZ1">
-        <v>-94.477284603113006</v>
+        <v>-94.498545140944813</v>
       </c>
       <c r="MA1">
-        <v>-94.27272212769212</v>
+        <v>-94.292957677220627</v>
       </c>
       <c r="MB1">
-        <v>-94.066289501537725</v>
+        <v>-94.084999316361063</v>
       </c>
       <c r="MC1">
-        <v>-93.861910666281744</v>
+        <v>-93.880186268114429</v>
       </c>
       <c r="MD1">
-        <v>-93.674489301509624</v>
+        <v>-93.694275674952962</v>
       </c>
       <c r="ME1">
-        <v>-93.501612396231138</v>
+        <v>-93.524818320550736</v>
       </c>
       <c r="MF1">
-        <v>-93.309606523702158</v>
+        <v>-93.331441503853966</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -60,11 +60,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -90,6 +94,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +114,7 @@
     <col min="2" max="2" width="12.42578125" customWidth="true"/>
     <col min="3" max="3" width="12.42578125" customWidth="true"/>
     <col min="4" max="4" width="12.42578125" customWidth="true"/>
-    <col min="5" max="5" width="12.42578125" customWidth="true"/>
+    <col min="5" max="5" width="11.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.42578125" customWidth="true"/>
     <col min="7" max="7" width="12.42578125" customWidth="true"/>
     <col min="8" max="8" width="12.42578125" customWidth="true"/>
@@ -118,24 +126,24 @@
     <col min="14" max="14" width="12.42578125" customWidth="true"/>
     <col min="15" max="15" width="12.42578125" customWidth="true"/>
     <col min="16" max="16" width="12.42578125" customWidth="true"/>
-    <col min="17" max="17" width="12.42578125" customWidth="true"/>
+    <col min="17" max="17" width="11.42578125" customWidth="true"/>
     <col min="18" max="18" width="12.42578125" customWidth="true"/>
     <col min="19" max="19" width="12.42578125" customWidth="true"/>
-    <col min="20" max="20" width="11.42578125" customWidth="true"/>
+    <col min="20" max="20" width="12.42578125" customWidth="true"/>
     <col min="21" max="21" width="12.42578125" customWidth="true"/>
-    <col min="22" max="22" width="12.42578125" customWidth="true"/>
+    <col min="22" max="22" width="11.42578125" customWidth="true"/>
     <col min="23" max="23" width="12.42578125" customWidth="true"/>
     <col min="24" max="24" width="12.42578125" customWidth="true"/>
     <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="12.42578125" customWidth="true"/>
     <col min="27" max="27" width="12.42578125" customWidth="true"/>
-    <col min="28" max="28" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="11.42578125" customWidth="true"/>
     <col min="29" max="29" width="12.42578125" customWidth="true"/>
     <col min="30" max="30" width="12.42578125" customWidth="true"/>
     <col min="31" max="31" width="12.42578125" customWidth="true"/>
     <col min="32" max="32" width="12.42578125" customWidth="true"/>
     <col min="33" max="33" width="12.42578125" customWidth="true"/>
-    <col min="34" max="34" width="11.42578125" customWidth="true"/>
+    <col min="34" max="34" width="12.42578125" customWidth="true"/>
     <col min="35" max="35" width="12.42578125" customWidth="true"/>
     <col min="36" max="36" width="12.42578125" customWidth="true"/>
     <col min="37" max="37" width="12.42578125" customWidth="true"/>
@@ -146,18 +154,18 @@
     <col min="42" max="42" width="12.42578125" customWidth="true"/>
     <col min="43" max="43" width="12.42578125" customWidth="true"/>
     <col min="44" max="44" width="12.42578125" customWidth="true"/>
-    <col min="45" max="45" width="11.42578125" customWidth="true"/>
+    <col min="45" max="45" width="12.42578125" customWidth="true"/>
     <col min="46" max="46" width="12.42578125" customWidth="true"/>
-    <col min="47" max="47" width="12.42578125" customWidth="true"/>
+    <col min="47" max="47" width="10.42578125" customWidth="true"/>
     <col min="48" max="48" width="12.42578125" customWidth="true"/>
     <col min="49" max="49" width="12.42578125" customWidth="true"/>
     <col min="50" max="50" width="12.42578125" customWidth="true"/>
-    <col min="51" max="51" width="12.42578125" customWidth="true"/>
+    <col min="51" max="51" width="11.42578125" customWidth="true"/>
     <col min="52" max="52" width="12.42578125" customWidth="true"/>
     <col min="53" max="53" width="12.42578125" customWidth="true"/>
-    <col min="54" max="54" width="12.42578125" customWidth="true"/>
+    <col min="54" max="54" width="11.42578125" customWidth="true"/>
     <col min="55" max="55" width="12.42578125" customWidth="true"/>
-    <col min="56" max="56" width="12.42578125" customWidth="true"/>
+    <col min="56" max="56" width="11.42578125" customWidth="true"/>
     <col min="57" max="57" width="12.42578125" customWidth="true"/>
     <col min="58" max="58" width="12.42578125" customWidth="true"/>
     <col min="59" max="59" width="12.42578125" customWidth="true"/>
@@ -172,7 +180,7 @@
     <col min="68" max="68" width="12.42578125" customWidth="true"/>
     <col min="69" max="69" width="12.42578125" customWidth="true"/>
     <col min="70" max="70" width="12.42578125" customWidth="true"/>
-    <col min="71" max="71" width="12.42578125" customWidth="true"/>
+    <col min="71" max="71" width="11.42578125" customWidth="true"/>
     <col min="72" max="72" width="12.42578125" customWidth="true"/>
     <col min="73" max="73" width="12.42578125" customWidth="true"/>
     <col min="74" max="74" width="12.42578125" customWidth="true"/>
@@ -188,20 +196,20 @@
     <col min="84" max="84" width="12.42578125" customWidth="true"/>
     <col min="85" max="85" width="12.42578125" customWidth="true"/>
     <col min="86" max="86" width="12.42578125" customWidth="true"/>
-    <col min="87" max="87" width="12.42578125" customWidth="true"/>
+    <col min="87" max="87" width="11.42578125" customWidth="true"/>
     <col min="88" max="88" width="12.42578125" customWidth="true"/>
-    <col min="89" max="89" width="12.42578125" customWidth="true"/>
+    <col min="89" max="89" width="11.42578125" customWidth="true"/>
     <col min="90" max="90" width="12.42578125" customWidth="true"/>
     <col min="91" max="91" width="12.42578125" customWidth="true"/>
     <col min="92" max="92" width="12.42578125" customWidth="true"/>
-    <col min="93" max="93" width="12.42578125" customWidth="true"/>
+    <col min="93" max="93" width="10.42578125" customWidth="true"/>
     <col min="94" max="94" width="12.42578125" customWidth="true"/>
     <col min="95" max="95" width="12.42578125" customWidth="true"/>
     <col min="96" max="96" width="12.42578125" customWidth="true"/>
     <col min="97" max="97" width="12.42578125" customWidth="true"/>
-    <col min="98" max="98" width="12.42578125" customWidth="true"/>
+    <col min="98" max="98" width="10.42578125" customWidth="true"/>
     <col min="99" max="99" width="12.42578125" customWidth="true"/>
-    <col min="100" max="100" width="11.42578125" customWidth="true"/>
+    <col min="100" max="100" width="12.42578125" customWidth="true"/>
     <col min="101" max="101" width="12.42578125" customWidth="true"/>
     <col min="102" max="102" width="12.42578125" customWidth="true"/>
     <col min="103" max="103" width="12.42578125" customWidth="true"/>
@@ -218,21 +226,21 @@
     <col min="114" max="114" width="12.42578125" customWidth="true"/>
     <col min="115" max="115" width="12.42578125" customWidth="true"/>
     <col min="116" max="116" width="12.42578125" customWidth="true"/>
-    <col min="117" max="117" width="11.42578125" customWidth="true"/>
-    <col min="118" max="118" width="12.42578125" customWidth="true"/>
+    <col min="117" max="117" width="12.42578125" customWidth="true"/>
+    <col min="118" max="118" width="11.42578125" customWidth="true"/>
     <col min="119" max="119" width="12.42578125" customWidth="true"/>
     <col min="120" max="120" width="12.42578125" customWidth="true"/>
-    <col min="121" max="121" width="12.42578125" customWidth="true"/>
+    <col min="121" max="121" width="11.42578125" customWidth="true"/>
     <col min="122" max="122" width="12.42578125" customWidth="true"/>
     <col min="123" max="123" width="12.42578125" customWidth="true"/>
-    <col min="124" max="124" width="11.42578125" customWidth="true"/>
+    <col min="124" max="124" width="12.42578125" customWidth="true"/>
     <col min="125" max="125" width="12.42578125" customWidth="true"/>
     <col min="126" max="126" width="11.42578125" customWidth="true"/>
-    <col min="127" max="127" width="11.42578125" customWidth="true"/>
+    <col min="127" max="127" width="12.42578125" customWidth="true"/>
     <col min="128" max="128" width="12.42578125" customWidth="true"/>
     <col min="129" max="129" width="12.42578125" customWidth="true"/>
     <col min="130" max="130" width="12.42578125" customWidth="true"/>
-    <col min="131" max="131" width="11.42578125" customWidth="true"/>
+    <col min="131" max="131" width="12.42578125" customWidth="true"/>
     <col min="132" max="132" width="12.42578125" customWidth="true"/>
     <col min="133" max="133" width="12.42578125" customWidth="true"/>
     <col min="134" max="134" width="12.42578125" customWidth="true"/>
@@ -241,8 +249,8 @@
     <col min="137" max="137" width="12.42578125" customWidth="true"/>
     <col min="138" max="138" width="12.42578125" customWidth="true"/>
     <col min="139" max="139" width="12.42578125" customWidth="true"/>
-    <col min="140" max="140" width="12.42578125" customWidth="true"/>
-    <col min="141" max="141" width="11.42578125" customWidth="true"/>
+    <col min="140" max="140" width="11.42578125" customWidth="true"/>
+    <col min="141" max="141" width="12.42578125" customWidth="true"/>
     <col min="142" max="142" width="12.42578125" customWidth="true"/>
     <col min="143" max="143" width="12.42578125" customWidth="true"/>
     <col min="144" max="144" width="12.42578125" customWidth="true"/>
@@ -250,7 +258,7 @@
     <col min="146" max="146" width="12.42578125" customWidth="true"/>
     <col min="147" max="147" width="12.42578125" customWidth="true"/>
     <col min="148" max="148" width="12.42578125" customWidth="true"/>
-    <col min="149" max="149" width="11.42578125" customWidth="true"/>
+    <col min="149" max="149" width="12.42578125" customWidth="true"/>
     <col min="150" max="150" width="12.42578125" customWidth="true"/>
     <col min="151" max="151" width="12.42578125" customWidth="true"/>
     <col min="152" max="152" width="12.42578125" customWidth="true"/>
@@ -266,12 +274,12 @@
     <col min="162" max="162" width="12.42578125" customWidth="true"/>
     <col min="163" max="163" width="12.42578125" customWidth="true"/>
     <col min="164" max="164" width="12.42578125" customWidth="true"/>
-    <col min="165" max="165" width="11.42578125" customWidth="true"/>
+    <col min="165" max="165" width="12.42578125" customWidth="true"/>
     <col min="166" max="166" width="12.42578125" customWidth="true"/>
     <col min="167" max="167" width="12.42578125" customWidth="true"/>
     <col min="168" max="168" width="12.42578125" customWidth="true"/>
     <col min="169" max="169" width="12.42578125" customWidth="true"/>
-    <col min="170" max="170" width="11.42578125" customWidth="true"/>
+    <col min="170" max="170" width="12.42578125" customWidth="true"/>
     <col min="171" max="171" width="12.42578125" customWidth="true"/>
     <col min="172" max="172" width="12.42578125" customWidth="true"/>
     <col min="173" max="173" width="12.42578125" customWidth="true"/>
@@ -279,26 +287,26 @@
     <col min="175" max="175" width="12.42578125" customWidth="true"/>
     <col min="176" max="176" width="12.42578125" customWidth="true"/>
     <col min="177" max="177" width="12.42578125" customWidth="true"/>
-    <col min="178" max="178" width="12.42578125" customWidth="true"/>
-    <col min="179" max="179" width="12.42578125" customWidth="true"/>
+    <col min="178" max="178" width="11.42578125" customWidth="true"/>
+    <col min="179" max="179" width="11.42578125" customWidth="true"/>
     <col min="180" max="180" width="12.42578125" customWidth="true"/>
-    <col min="181" max="181" width="12.42578125" customWidth="true"/>
+    <col min="181" max="181" width="11.42578125" customWidth="true"/>
     <col min="182" max="182" width="12.42578125" customWidth="true"/>
     <col min="183" max="183" width="12.42578125" customWidth="true"/>
     <col min="184" max="184" width="12.42578125" customWidth="true"/>
     <col min="185" max="185" width="12.42578125" customWidth="true"/>
-    <col min="186" max="186" width="10.42578125" customWidth="true"/>
-    <col min="187" max="187" width="12.42578125" customWidth="true"/>
-    <col min="188" max="188" width="12.42578125" customWidth="true"/>
+    <col min="186" max="186" width="12.42578125" customWidth="true"/>
+    <col min="187" max="187" width="11.42578125" customWidth="true"/>
+    <col min="188" max="188" width="11.42578125" customWidth="true"/>
     <col min="189" max="189" width="12.42578125" customWidth="true"/>
-    <col min="190" max="190" width="11.42578125" customWidth="true"/>
-    <col min="191" max="191" width="10.42578125" customWidth="true"/>
+    <col min="190" max="190" width="12.42578125" customWidth="true"/>
+    <col min="191" max="191" width="12.42578125" customWidth="true"/>
     <col min="192" max="192" width="12.42578125" customWidth="true"/>
-    <col min="193" max="193" width="11.42578125" customWidth="true"/>
+    <col min="193" max="193" width="12.42578125" customWidth="true"/>
     <col min="194" max="194" width="12.42578125" customWidth="true"/>
     <col min="195" max="195" width="12.42578125" customWidth="true"/>
     <col min="196" max="196" width="12.42578125" customWidth="true"/>
-    <col min="197" max="197" width="12.42578125" customWidth="true"/>
+    <col min="197" max="197" width="11.42578125" customWidth="true"/>
     <col min="198" max="198" width="12.42578125" customWidth="true"/>
     <col min="199" max="199" width="12.42578125" customWidth="true"/>
     <col min="200" max="200" width="12.42578125" customWidth="true"/>
@@ -315,16 +323,16 @@
     <col min="211" max="211" width="12.42578125" customWidth="true"/>
     <col min="212" max="212" width="12.42578125" customWidth="true"/>
     <col min="213" max="213" width="12.42578125" customWidth="true"/>
-    <col min="214" max="214" width="11.42578125" customWidth="true"/>
+    <col min="214" max="214" width="12.42578125" customWidth="true"/>
     <col min="215" max="215" width="12.42578125" customWidth="true"/>
     <col min="216" max="216" width="12.42578125" customWidth="true"/>
     <col min="217" max="217" width="12.42578125" customWidth="true"/>
     <col min="218" max="218" width="12.42578125" customWidth="true"/>
     <col min="219" max="219" width="12.42578125" customWidth="true"/>
     <col min="220" max="220" width="11.42578125" customWidth="true"/>
-    <col min="221" max="221" width="12.42578125" customWidth="true"/>
+    <col min="221" max="221" width="11.42578125" customWidth="true"/>
     <col min="222" max="222" width="12.42578125" customWidth="true"/>
-    <col min="223" max="223" width="11.42578125" customWidth="true"/>
+    <col min="223" max="223" width="12.42578125" customWidth="true"/>
     <col min="224" max="224" width="12.42578125" customWidth="true"/>
     <col min="225" max="225" width="12.42578125" customWidth="true"/>
     <col min="226" max="226" width="12.42578125" customWidth="true"/>
@@ -332,17 +340,17 @@
     <col min="228" max="228" width="12.42578125" customWidth="true"/>
     <col min="229" max="229" width="12.42578125" customWidth="true"/>
     <col min="230" max="230" width="12.42578125" customWidth="true"/>
-    <col min="231" max="231" width="11.42578125" customWidth="true"/>
+    <col min="231" max="231" width="12.42578125" customWidth="true"/>
     <col min="232" max="232" width="12.42578125" customWidth="true"/>
     <col min="233" max="233" width="12.42578125" customWidth="true"/>
-    <col min="234" max="234" width="11.42578125" customWidth="true"/>
+    <col min="234" max="234" width="12.42578125" customWidth="true"/>
     <col min="235" max="235" width="12.42578125" customWidth="true"/>
     <col min="236" max="236" width="12.42578125" customWidth="true"/>
     <col min="237" max="237" width="12.42578125" customWidth="true"/>
     <col min="238" max="238" width="12.42578125" customWidth="true"/>
     <col min="239" max="239" width="12.42578125" customWidth="true"/>
     <col min="240" max="240" width="12.42578125" customWidth="true"/>
-    <col min="241" max="241" width="11.42578125" customWidth="true"/>
+    <col min="241" max="241" width="12.42578125" customWidth="true"/>
     <col min="242" max="242" width="12.42578125" customWidth="true"/>
     <col min="243" max="243" width="12.42578125" customWidth="true"/>
     <col min="244" max="244" width="12.42578125" customWidth="true"/>
@@ -356,7 +364,7 @@
     <col min="252" max="252" width="12.42578125" customWidth="true"/>
     <col min="253" max="253" width="12.42578125" customWidth="true"/>
     <col min="254" max="254" width="12.42578125" customWidth="true"/>
-    <col min="255" max="255" width="12.42578125" customWidth="true"/>
+    <col min="255" max="255" width="11.42578125" customWidth="true"/>
     <col min="256" max="256" width="12.42578125" customWidth="true"/>
     <col min="257" max="257" width="12.42578125" customWidth="true"/>
     <col min="258" max="258" width="12.42578125" customWidth="true"/>
@@ -364,22 +372,22 @@
     <col min="260" max="260" width="12.42578125" customWidth="true"/>
     <col min="261" max="261" width="12.42578125" customWidth="true"/>
     <col min="262" max="262" width="12.42578125" customWidth="true"/>
-    <col min="263" max="263" width="11.42578125" customWidth="true"/>
+    <col min="263" max="263" width="12.42578125" customWidth="true"/>
     <col min="264" max="264" width="12.42578125" customWidth="true"/>
     <col min="265" max="265" width="12.42578125" customWidth="true"/>
     <col min="266" max="266" width="12.42578125" customWidth="true"/>
     <col min="267" max="267" width="12.42578125" customWidth="true"/>
     <col min="268" max="268" width="12.42578125" customWidth="true"/>
-    <col min="269" max="269" width="11.42578125" customWidth="true"/>
-    <col min="270" max="270" width="10.42578125" customWidth="true"/>
-    <col min="271" max="271" width="11.42578125" customWidth="true"/>
+    <col min="269" max="269" width="12.42578125" customWidth="true"/>
+    <col min="270" max="270" width="12.42578125" customWidth="true"/>
+    <col min="271" max="271" width="12.42578125" customWidth="true"/>
     <col min="272" max="272" width="12.42578125" customWidth="true"/>
     <col min="273" max="273" width="12.42578125" customWidth="true"/>
     <col min="274" max="274" width="12.42578125" customWidth="true"/>
-    <col min="275" max="275" width="11.42578125" customWidth="true"/>
+    <col min="275" max="275" width="12.42578125" customWidth="true"/>
     <col min="276" max="276" width="12.42578125" customWidth="true"/>
     <col min="277" max="277" width="12.42578125" customWidth="true"/>
-    <col min="278" max="278" width="12.42578125" customWidth="true"/>
+    <col min="278" max="278" width="11.42578125" customWidth="true"/>
     <col min="279" max="279" width="12.42578125" customWidth="true"/>
     <col min="280" max="280" width="12.42578125" customWidth="true"/>
     <col min="281" max="281" width="12.42578125" customWidth="true"/>
@@ -387,14 +395,14 @@
     <col min="283" max="283" width="12.42578125" customWidth="true"/>
     <col min="284" max="284" width="12.42578125" customWidth="true"/>
     <col min="285" max="285" width="12.42578125" customWidth="true"/>
-    <col min="286" max="286" width="12.42578125" customWidth="true"/>
+    <col min="286" max="286" width="11.42578125" customWidth="true"/>
     <col min="287" max="287" width="12.42578125" customWidth="true"/>
     <col min="288" max="288" width="12.42578125" customWidth="true"/>
     <col min="289" max="289" width="12.42578125" customWidth="true"/>
     <col min="290" max="290" width="12.42578125" customWidth="true"/>
     <col min="291" max="291" width="12.42578125" customWidth="true"/>
     <col min="292" max="292" width="12.42578125" customWidth="true"/>
-    <col min="293" max="293" width="12.42578125" customWidth="true"/>
+    <col min="293" max="293" width="11.42578125" customWidth="true"/>
     <col min="294" max="294" width="12.42578125" customWidth="true"/>
     <col min="295" max="295" width="12.42578125" customWidth="true"/>
     <col min="296" max="296" width="12.42578125" customWidth="true"/>
@@ -405,7 +413,7 @@
     <col min="301" max="301" width="12.42578125" customWidth="true"/>
     <col min="302" max="302" width="12.42578125" customWidth="true"/>
     <col min="303" max="303" width="12.42578125" customWidth="true"/>
-    <col min="304" max="304" width="12.42578125" customWidth="true"/>
+    <col min="304" max="304" width="11.42578125" customWidth="true"/>
     <col min="305" max="305" width="12.42578125" customWidth="true"/>
     <col min="306" max="306" width="12.42578125" customWidth="true"/>
     <col min="307" max="307" width="12.42578125" customWidth="true"/>
@@ -414,16 +422,16 @@
     <col min="310" max="310" width="12.42578125" customWidth="true"/>
     <col min="311" max="311" width="12.42578125" customWidth="true"/>
     <col min="312" max="312" width="12.42578125" customWidth="true"/>
-    <col min="313" max="313" width="12.42578125" customWidth="true"/>
+    <col min="313" max="313" width="11.42578125" customWidth="true"/>
     <col min="314" max="314" width="12.42578125" customWidth="true"/>
     <col min="315" max="315" width="12.42578125" customWidth="true"/>
     <col min="316" max="316" width="12.42578125" customWidth="true"/>
-    <col min="317" max="317" width="12.42578125" customWidth="true"/>
+    <col min="317" max="317" width="11.42578125" customWidth="true"/>
     <col min="318" max="318" width="12.42578125" customWidth="true"/>
     <col min="319" max="319" width="12.42578125" customWidth="true"/>
     <col min="320" max="320" width="12.42578125" customWidth="true"/>
-    <col min="321" max="321" width="12.42578125" customWidth="true"/>
-    <col min="322" max="322" width="12.42578125" customWidth="true"/>
+    <col min="321" max="321" width="11.42578125" customWidth="true"/>
+    <col min="322" max="322" width="11.42578125" customWidth="true"/>
     <col min="323" max="323" width="12.42578125" customWidth="true"/>
     <col min="324" max="324" width="12.42578125" customWidth="true"/>
     <col min="325" max="325" width="12.42578125" customWidth="true"/>
@@ -433,1053 +441,1053 @@
     <col min="329" max="329" width="12.42578125" customWidth="true"/>
     <col min="330" max="330" width="12.42578125" customWidth="true"/>
     <col min="331" max="331" width="12.42578125" customWidth="true"/>
-    <col min="332" max="332" width="11.42578125" customWidth="true"/>
+    <col min="332" max="332" width="12.42578125" customWidth="true"/>
     <col min="333" max="333" width="12.42578125" customWidth="true"/>
     <col min="334" max="334" width="12.42578125" customWidth="true"/>
-    <col min="335" max="335" width="12.42578125" customWidth="true"/>
+    <col min="335" max="335" width="11.42578125" customWidth="true"/>
     <col min="336" max="336" width="12.42578125" customWidth="true"/>
     <col min="337" max="337" width="12.42578125" customWidth="true"/>
-    <col min="338" max="338" width="12.42578125" customWidth="true"/>
+    <col min="338" max="338" width="11.42578125" customWidth="true"/>
     <col min="339" max="339" width="12.42578125" customWidth="true"/>
-    <col min="340" max="340" width="12.42578125" customWidth="true"/>
+    <col min="340" max="340" width="11.42578125" customWidth="true"/>
     <col min="341" max="341" width="12.42578125" customWidth="true"/>
-    <col min="342" max="342" width="12.42578125" customWidth="true"/>
-    <col min="343" max="343" width="12.42578125" customWidth="true"/>
-    <col min="344" max="344" width="11.42578125" customWidth="true"/>
+    <col min="342" max="342" width="11.42578125" customWidth="true"/>
+    <col min="343" max="343" width="11.42578125" customWidth="true"/>
+    <col min="344" max="344" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>-35.001005569034746</v>
+        <v>-34.998622575521502</v>
       </c>
       <c r="B1">
-        <v>-34.728930277144293</v>
+        <v>-34.727486038700761</v>
       </c>
       <c r="C1">
-        <v>-34.43671064409051</v>
+        <v>-34.43514259177995</v>
       </c>
       <c r="D1">
-        <v>-34.160885750765495</v>
+        <v>-34.159473083168713</v>
       </c>
       <c r="E1">
-        <v>-33.880089783674059</v>
+        <v>-33.878886197201354</v>
       </c>
       <c r="F1">
-        <v>-33.637155691545644</v>
+        <v>-33.636165414354451</v>
       </c>
       <c r="G1">
-        <v>-33.39587018758543</v>
+        <v>-33.394909826788201</v>
       </c>
       <c r="H1">
-        <v>-33.133772611880808</v>
+        <v>-33.132631952639336</v>
       </c>
       <c r="I1">
-        <v>-32.888615016827039</v>
+        <v>-32.887481266829823</v>
       </c>
       <c r="J1">
-        <v>-32.625437312972686</v>
+        <v>-32.624200369779615</v>
       </c>
       <c r="K1">
-        <v>-32.416983788736019</v>
+        <v>-32.412617725129557</v>
       </c>
       <c r="L1">
-        <v>-32.194053623201235</v>
+        <v>-32.189842851520893</v>
       </c>
       <c r="M1">
-        <v>-31.999584712449835</v>
+        <v>-31.995387519912413</v>
       </c>
       <c r="N1">
-        <v>-31.754810189406264</v>
+        <v>-31.750891738851351</v>
       </c>
       <c r="O1">
-        <v>-31.541788012469954</v>
+        <v>-31.537931371037068</v>
       </c>
       <c r="P1">
-        <v>-31.308889571650631</v>
+        <v>-31.304729633450354</v>
       </c>
       <c r="Q1">
-        <v>-31.071502955418357</v>
+        <v>-31.066840199276601</v>
       </c>
       <c r="R1">
-        <v>-30.857256032246578</v>
+        <v>-30.851884112623917</v>
       </c>
       <c r="S1">
-        <v>-30.6359374607257</v>
+        <v>-30.631238293324778</v>
       </c>
       <c r="T1">
-        <v>-30.418535402736193</v>
+        <v>-30.414035215224438</v>
       </c>
       <c r="U1">
-        <v>-30.213136207515699</v>
+        <v>-30.20870276458669</v>
       </c>
       <c r="V1">
-        <v>-30.029686851451292</v>
+        <v>-30.025695900102896</v>
       </c>
       <c r="W1">
-        <v>-29.807215385722714</v>
+        <v>-29.802710127824611</v>
       </c>
       <c r="X1">
-        <v>-29.619127928673208</v>
+        <v>-29.615051241595022</v>
       </c>
       <c r="Y1">
-        <v>-29.46951529091448</v>
+        <v>-29.46247186826319</v>
       </c>
       <c r="Z1">
-        <v>-29.234358458418054</v>
+        <v>-29.22964208046799</v>
       </c>
       <c r="AA1">
-        <v>-29.064146494754716</v>
+        <v>-29.058942323385505</v>
       </c>
       <c r="AB1">
-        <v>-28.909859006352892</v>
+        <v>-28.904774702215331</v>
       </c>
       <c r="AC1">
-        <v>-28.735547622332835</v>
+        <v>-28.730368435208799</v>
       </c>
       <c r="AD1">
-        <v>-28.541438869955766</v>
+        <v>-28.535795632020285</v>
       </c>
       <c r="AE1">
-        <v>-28.362435821457101</v>
+        <v>-28.356743778307212</v>
       </c>
       <c r="AF1">
-        <v>-28.174532029107969</v>
+        <v>-28.170485176149338</v>
       </c>
       <c r="AG1">
-        <v>-27.991250587218637</v>
+        <v>-27.987544267547005</v>
       </c>
       <c r="AH1">
-        <v>-27.852208501438458</v>
+        <v>-27.848346930997543</v>
       </c>
       <c r="AI1">
-        <v>-27.646241051267655</v>
+        <v>-27.642026079106255</v>
       </c>
       <c r="AJ1">
-        <v>-27.478414291233069</v>
+        <v>-27.474361325559457</v>
       </c>
       <c r="AK1">
-        <v>-27.287775136158864</v>
+        <v>-27.282977951129322</v>
       </c>
       <c r="AL1">
-        <v>-27.116344708063405</v>
+        <v>-27.111792405453912</v>
       </c>
       <c r="AM1">
-        <v>-26.972731972084532</v>
+        <v>-26.963659893347032</v>
       </c>
       <c r="AN1">
-        <v>-26.782874510302094</v>
+        <v>-26.775697236114905</v>
       </c>
       <c r="AO1">
-        <v>-26.632131754704634</v>
+        <v>-26.624582038702425</v>
       </c>
       <c r="AP1">
-        <v>-26.477094609233848</v>
+        <v>-26.469582118304718</v>
       </c>
       <c r="AQ1">
-        <v>-26.35892478716821</v>
+        <v>-26.35169304014693</v>
       </c>
       <c r="AR1">
-        <v>-26.293112155476155</v>
+        <v>-26.286653327688793</v>
       </c>
       <c r="AS1">
-        <v>-26.198994597531478</v>
+        <v>-26.192569676971761</v>
       </c>
       <c r="AT1">
-        <v>-26.077669552195179</v>
+        <v>-26.073155686606313</v>
       </c>
       <c r="AU1">
-        <v>-25.947699358326638</v>
+        <v>-25.943828001916124</v>
       </c>
       <c r="AV1">
-        <v>-25.902588392908246</v>
+        <v>-25.898143211943328</v>
       </c>
       <c r="AW1">
-        <v>-25.881231112863038</v>
+        <v>-25.876384606243541</v>
       </c>
       <c r="AX1">
-        <v>-25.819233814919361</v>
+        <v>-25.814410239665616</v>
       </c>
       <c r="AY1">
-        <v>-25.842841544011602</v>
+        <v>-25.838362901784173</v>
       </c>
       <c r="AZ1">
-        <v>-25.764922760724545</v>
+        <v>-25.760256934602204</v>
       </c>
       <c r="BA1">
-        <v>-25.733533345234108</v>
+        <v>-25.728562246787678</v>
       </c>
       <c r="BB1">
-        <v>-25.717013410668617</v>
+        <v>-25.711844704808545</v>
       </c>
       <c r="BC1">
-        <v>-25.803599884925251</v>
+        <v>-25.798219827250776</v>
       </c>
       <c r="BD1">
-        <v>-25.770190082252768</v>
+        <v>-25.764737495775151</v>
       </c>
       <c r="BE1">
-        <v>-25.754231715889773</v>
+        <v>-25.748786259181546</v>
       </c>
       <c r="BF1">
-        <v>-25.886217557484301</v>
+        <v>-25.88148708024211</v>
       </c>
       <c r="BG1">
-        <v>-25.948053680256528</v>
+        <v>-25.943365955786142</v>
       </c>
       <c r="BH1">
-        <v>-26.042074328797391</v>
+        <v>-26.036930506518406</v>
       </c>
       <c r="BI1">
-        <v>-26.019956463138783</v>
+        <v>-26.015465606522159</v>
       </c>
       <c r="BJ1">
-        <v>-26.155833976811099</v>
+        <v>-26.151132659278275</v>
       </c>
       <c r="BK1">
-        <v>-26.328932216131722</v>
+        <v>-26.324372682528391</v>
       </c>
       <c r="BL1">
-        <v>-26.368481713718978</v>
+        <v>-26.363795634320002</v>
       </c>
       <c r="BM1">
-        <v>-26.31316726042396</v>
+        <v>-26.308159279439284</v>
       </c>
       <c r="BN1">
-        <v>-26.368239776894093</v>
+        <v>-26.363468726027158</v>
       </c>
       <c r="BO1">
-        <v>-26.455473236412296</v>
+        <v>-26.449796186801571</v>
       </c>
       <c r="BP1">
-        <v>-26.433164406185636</v>
+        <v>-26.42790128046305</v>
       </c>
       <c r="BQ1">
-        <v>-26.502181643496822</v>
+        <v>-26.496902658081247</v>
       </c>
       <c r="BR1">
-        <v>-26.617300658245341</v>
+        <v>-26.612212012704429</v>
       </c>
       <c r="BS1">
-        <v>-26.671377107901037</v>
+        <v>-26.666277401726173</v>
       </c>
       <c r="BT1">
-        <v>-26.602531591446539</v>
+        <v>-26.597037605654279</v>
       </c>
       <c r="BU1">
-        <v>-26.68096183280915</v>
+        <v>-26.675908987895919</v>
       </c>
       <c r="BV1">
-        <v>-26.900736614819326</v>
+        <v>-26.891334477830842</v>
       </c>
       <c r="BW1">
-        <v>-26.803531907808395</v>
+        <v>-26.795991952442908</v>
       </c>
       <c r="BX1">
-        <v>-26.81145158614266</v>
+        <v>-26.803981089103988</v>
       </c>
       <c r="BY1">
-        <v>-26.72098166204681</v>
+        <v>-26.713439549317197</v>
       </c>
       <c r="BZ1">
-        <v>-26.714043518753478</v>
+        <v>-26.706703621601019</v>
       </c>
       <c r="CA1">
-        <v>-26.708035044670861</v>
+        <v>-26.700860636694596</v>
       </c>
       <c r="CB1">
-        <v>-26.689226194004792</v>
+        <v>-26.682097363017178</v>
       </c>
       <c r="CC1">
-        <v>-26.804817513432006</v>
+        <v>-26.79435516843413</v>
       </c>
       <c r="CD1">
-        <v>-26.855080305820085</v>
+        <v>-26.844624626179904</v>
       </c>
       <c r="CE1">
-        <v>-26.947856473113003</v>
+        <v>-26.937438842180352</v>
       </c>
       <c r="CF1">
-        <v>-27.026075410506948</v>
+        <v>-27.015764642828795</v>
       </c>
       <c r="CG1">
-        <v>-27.10357962839938</v>
+        <v>-27.093390235648137</v>
       </c>
       <c r="CH1">
-        <v>-27.093346617353834</v>
+        <v>-27.082843860215725</v>
       </c>
       <c r="CI1">
-        <v>-27.209680575287848</v>
+        <v>-27.19920829911824</v>
       </c>
       <c r="CJ1">
-        <v>-27.344712613641853</v>
+        <v>-27.332724321193634</v>
       </c>
       <c r="CK1">
-        <v>-27.389142970092902</v>
+        <v>-27.377708596271834</v>
       </c>
       <c r="CL1">
-        <v>-27.52104900776671</v>
+        <v>-27.509168930505368</v>
       </c>
       <c r="CM1">
-        <v>-27.549776166831105</v>
+        <v>-27.538189356320906</v>
       </c>
       <c r="CN1">
-        <v>-27.706997530371279</v>
+        <v>-27.695362262558934</v>
       </c>
       <c r="CO1">
-        <v>-27.792956666489914</v>
+        <v>-27.781345002489616</v>
       </c>
       <c r="CP1">
-        <v>-27.950876053119828</v>
+        <v>-27.938934568495537</v>
       </c>
       <c r="CQ1">
-        <v>-28.184659923811168</v>
+        <v>-28.170603786767114</v>
       </c>
       <c r="CR1">
-        <v>-28.465665483003839</v>
+        <v>-28.449981873079178</v>
       </c>
       <c r="CS1">
-        <v>-28.666572547390931</v>
+        <v>-28.651001045458596</v>
       </c>
       <c r="CT1">
-        <v>-28.974716682181711</v>
+        <v>-28.959232996112359</v>
       </c>
       <c r="CU1">
-        <v>-29.218788233822632</v>
+        <v>-29.203385621020178</v>
       </c>
       <c r="CV1">
-        <v>-29.570835504195742</v>
+        <v>-29.555969876084603</v>
       </c>
       <c r="CW1">
-        <v>-29.890252686305505</v>
+        <v>-29.875606387982579</v>
       </c>
       <c r="CX1">
-        <v>-30.240125192331828</v>
+        <v>-30.224882918296121</v>
       </c>
       <c r="CY1">
-        <v>-30.603345792918194</v>
+        <v>-30.587791564514578</v>
       </c>
       <c r="CZ1">
-        <v>-31.143282876805028</v>
+        <v>-31.127488157130642</v>
       </c>
       <c r="DA1">
-        <v>-31.617048234872478</v>
+        <v>-31.601424439777347</v>
       </c>
       <c r="DB1">
-        <v>-31.81723631078173</v>
+        <v>-31.800984446995663</v>
       </c>
       <c r="DC1">
-        <v>-31.974672618993381</v>
+        <v>-31.958008342649801</v>
       </c>
       <c r="DD1">
-        <v>-32.287963039348739</v>
+        <v>-32.271682908345213</v>
       </c>
       <c r="DE1">
-        <v>-32.871731489106431</v>
+        <v>-32.849561741630701</v>
       </c>
       <c r="DF1">
-        <v>-33.145286412359148</v>
+        <v>-33.123871349360648</v>
       </c>
       <c r="DG1">
-        <v>-33.612194183984073</v>
+        <v>-33.590713335111879</v>
       </c>
       <c r="DH1">
-        <v>-33.832865684158172</v>
+        <v>-33.811069913389105</v>
       </c>
       <c r="DI1">
-        <v>-34.133718313908545</v>
+        <v>-34.112020291664386</v>
       </c>
       <c r="DJ1">
-        <v>-34.354295339311086</v>
+        <v>-34.332387320593071</v>
       </c>
       <c r="DK1">
-        <v>-34.543400310868023</v>
+        <v>-34.521300488835308</v>
       </c>
       <c r="DL1">
-        <v>-35.005492020352364</v>
+        <v>-34.97786033555834</v>
       </c>
       <c r="DM1">
-        <v>-35.676035695317665</v>
+        <v>-35.644804620863404</v>
       </c>
       <c r="DN1">
-        <v>-36.072155232943182</v>
+        <v>-36.041060399583095</v>
       </c>
       <c r="DO1">
-        <v>-36.401178867350794</v>
+        <v>-36.369963986643342</v>
       </c>
       <c r="DP1">
-        <v>-36.72866402228972</v>
+        <v>-36.697399680336098</v>
       </c>
       <c r="DQ1">
-        <v>-36.89836002271899</v>
+        <v>-36.866338799296749</v>
       </c>
       <c r="DR1">
-        <v>-37.19015661260763</v>
+        <v>-37.158301615205012</v>
       </c>
       <c r="DS1">
-        <v>-37.602004554300372</v>
+        <v>-37.568131060913217</v>
       </c>
       <c r="DT1">
-        <v>-37.872596601752619</v>
+        <v>-37.839556183790208</v>
       </c>
       <c r="DU1">
-        <v>-38.263287969912476</v>
+        <v>-38.230063532751927</v>
       </c>
       <c r="DV1">
-        <v>-38.666984501868029</v>
+        <v>-38.634049902484797</v>
       </c>
       <c r="DW1">
-        <v>-38.792104095037011</v>
+        <v>-38.758193157405721</v>
       </c>
       <c r="DX1">
-        <v>-38.938115123930942</v>
+        <v>-38.903784231571272</v>
       </c>
       <c r="DY1">
-        <v>-39.126856120410672</v>
+        <v>-39.09265248582021</v>
       </c>
       <c r="DZ1">
-        <v>-39.472892530325666</v>
+        <v>-39.435060357048002</v>
       </c>
       <c r="EA1">
-        <v>-39.891577201324367</v>
+        <v>-39.852168014515172</v>
       </c>
       <c r="EB1">
-        <v>-40.369907514813114</v>
+        <v>-40.330123250099156</v>
       </c>
       <c r="EC1">
-        <v>-40.847270263882429</v>
+        <v>-40.807534206852623</v>
       </c>
       <c r="ED1">
-        <v>-41.336888735779659</v>
+        <v>-41.29756110898839</v>
       </c>
       <c r="EE1">
-        <v>-41.99291846361146</v>
+        <v>-41.954985949602182</v>
       </c>
       <c r="EF1">
-        <v>-42.697150310287917</v>
+        <v>-42.6596250142644</v>
       </c>
       <c r="EG1">
-        <v>-43.744627484804845</v>
+        <v>-43.700486386373427</v>
       </c>
       <c r="EH1">
-        <v>-44.318997479057025</v>
+        <v>-44.277756672522735</v>
       </c>
       <c r="EI1">
-        <v>-45.124667329864671</v>
+        <v>-45.083208565358724</v>
       </c>
       <c r="EJ1">
-        <v>-46.319017355273907</v>
+        <v>-46.278733595009726</v>
       </c>
       <c r="EK1">
-        <v>-47.432828899798331</v>
+        <v>-47.393541721111553</v>
       </c>
       <c r="EL1">
-        <v>-48.36898756533067</v>
+        <v>-48.329422252973991</v>
       </c>
       <c r="EM1">
-        <v>-49.602858444654728</v>
+        <v>-49.564937217772425</v>
       </c>
       <c r="EN1">
-        <v>-51.235635112916214</v>
+        <v>-51.192104240061227</v>
       </c>
       <c r="EO1">
-        <v>-53.223316151342296</v>
+        <v>-53.175890355246494</v>
       </c>
       <c r="EP1">
-        <v>-55.115472972266112</v>
+        <v>-55.068025347527112</v>
       </c>
       <c r="EQ1">
-        <v>-57.104977766770837</v>
+        <v>-57.05803327096325</v>
       </c>
       <c r="ER1">
-        <v>-59.117677457911412</v>
+        <v>-59.071443862174959</v>
       </c>
       <c r="ES1">
-        <v>-61.189931197341117</v>
+        <v>-61.144559069287716</v>
       </c>
       <c r="ET1">
-        <v>-62.78430363913359</v>
+        <v>-62.737509805284759</v>
       </c>
       <c r="EU1">
-        <v>-65.402019550593167</v>
+        <v>-65.347461189274014</v>
       </c>
       <c r="EV1">
-        <v>-67.314818292553312</v>
+        <v>-67.260921674711824</v>
       </c>
       <c r="EW1">
-        <v>-69.30919092758775</v>
+        <v>-69.255202535135851</v>
       </c>
       <c r="EX1">
-        <v>-70.739037346753335</v>
+        <v>-70.681981735629094</v>
       </c>
       <c r="EY1">
-        <v>-72.989423633282968</v>
+        <v>-72.93633405628178</v>
       </c>
       <c r="EZ1">
-        <v>-74.79511165103186</v>
+        <v>-74.742258407139275</v>
       </c>
       <c r="FA1">
-        <v>-76.480600688472521</v>
+        <v>-76.42731823618287</v>
       </c>
       <c r="FB1">
-        <v>-79.458141710814914</v>
+        <v>-79.394648817419196</v>
       </c>
       <c r="FC1">
-        <v>-81.207987876844342</v>
+        <v>-81.147115031742857</v>
       </c>
       <c r="FD1">
-        <v>-82.644304424769985</v>
+        <v>-82.585314331196642</v>
       </c>
       <c r="FE1">
-        <v>-83.977180566148959</v>
+        <v>-83.917057179511147</v>
       </c>
       <c r="FF1">
-        <v>-85.809457479588971</v>
+        <v>-85.75113012520805</v>
       </c>
       <c r="FG1">
-        <v>-87.437964263263581</v>
+        <v>-87.380834349945275</v>
       </c>
       <c r="FH1">
-        <v>-88.654385726641522</v>
+        <v>-88.597537126240439</v>
       </c>
       <c r="FI1">
-        <v>-90.591992603041689</v>
+        <v>-90.530706323573767</v>
       </c>
       <c r="FJ1">
-        <v>-91.595294822857184</v>
+        <v>-91.535507082826413</v>
       </c>
       <c r="FK1">
-        <v>-92.994489881109516</v>
+        <v>-92.934993106547779</v>
       </c>
       <c r="FL1">
-        <v>-94.568261952757453</v>
+        <v>-94.51025042892914</v>
       </c>
       <c r="FM1">
-        <v>-95.762550968735908</v>
+        <v>-95.702935475869438</v>
       </c>
       <c r="FN1">
-        <v>-96.884059402085086</v>
+        <v>-96.823003137070643</v>
       </c>
       <c r="FO1">
-        <v>-97.900832828952105</v>
+        <v>-97.838207426897497</v>
       </c>
       <c r="FP1">
-        <v>-99.17157246489819</v>
+        <v>-99.108466589352773</v>
       </c>
       <c r="FQ1">
-        <v>-100.00968041649286</v>
+        <v>-99.946569760403918</v>
       </c>
       <c r="FR1">
-        <v>-100.99066314262521</v>
+        <v>-100.92757318353807</v>
       </c>
       <c r="FS1">
-        <v>-101.67629733131812</v>
+        <v>-101.61630757805753</v>
       </c>
       <c r="FT1">
-        <v>-102.53550667172428</v>
+        <v>-102.47569781748301</v>
       </c>
       <c r="FU1">
-        <v>-103.08060316858291</v>
+        <v>-103.01976280679327</v>
       </c>
       <c r="FV1">
-        <v>-103.6418311032478</v>
+        <v>-103.5802580379293</v>
       </c>
       <c r="FW1">
-        <v>-104.87834307841521</v>
+        <v>-104.80839796579045</v>
       </c>
       <c r="FX1">
-        <v>-105.80779844044949</v>
+        <v>-105.73815549617717</v>
       </c>
       <c r="FY1">
-        <v>-106.1290298624757</v>
+        <v>-106.05988696978694</v>
       </c>
       <c r="FZ1">
-        <v>-106.80594978516244</v>
+        <v>-106.73697455187914</v>
       </c>
       <c r="GA1">
-        <v>-107.36042453182709</v>
+        <v>-107.29134808333359</v>
       </c>
       <c r="GB1">
-        <v>-107.59277560665363</v>
+        <v>-107.52130748619794</v>
       </c>
       <c r="GC1">
-        <v>-107.84644414491291</v>
+        <v>-107.77342540450661</v>
       </c>
       <c r="GD1">
-        <v>-108.27870996411923</v>
+        <v>-108.20556311845615</v>
       </c>
       <c r="GE1">
-        <v>-108.38672161240055</v>
+        <v>-108.31743804423122</v>
       </c>
       <c r="GF1">
-        <v>-108.61097259126602</v>
+        <v>-108.54195404370886</v>
       </c>
       <c r="GG1">
-        <v>-108.73899745775877</v>
+        <v>-108.67264067358448</v>
       </c>
       <c r="GH1">
-        <v>-108.83076204163416</v>
+        <v>-108.76501410649686</v>
       </c>
       <c r="GI1">
-        <v>-108.68353995863939</v>
+        <v>-108.61671971781988</v>
       </c>
       <c r="GJ1">
-        <v>-108.69171868450222</v>
+        <v>-108.62519619805447</v>
       </c>
       <c r="GK1">
-        <v>-108.77173796051743</v>
+        <v>-108.70487838679682</v>
       </c>
       <c r="GL1">
-        <v>-108.71625594695021</v>
+        <v>-108.65261529240114</v>
       </c>
       <c r="GM1">
-        <v>-108.61808518921571</v>
+        <v>-108.55539463185544</v>
       </c>
       <c r="GN1">
-        <v>-108.51861794526292</v>
+        <v>-108.4607105240386</v>
       </c>
       <c r="GO1">
-        <v>-108.50383119637539</v>
+        <v>-108.44528697578578</v>
       </c>
       <c r="GP1">
-        <v>-108.28481490887266</v>
+        <v>-108.22724818953584</v>
       </c>
       <c r="GQ1">
-        <v>-108.17105226271785</v>
+        <v>-108.1137543054551</v>
       </c>
       <c r="GR1">
-        <v>-108.11149360815907</v>
+        <v>-108.05392806061255</v>
       </c>
       <c r="GS1">
-        <v>-108.10928669258713</v>
+        <v>-108.04949438149931</v>
       </c>
       <c r="GT1">
-        <v>-108.06203448359121</v>
+        <v>-108.00277115472134</v>
       </c>
       <c r="GU1">
-        <v>-107.8619459843827</v>
+        <v>-107.81247596726973</v>
       </c>
       <c r="GV1">
-        <v>-107.66502157037765</v>
+        <v>-107.61814940932113</v>
       </c>
       <c r="GW1">
-        <v>-107.58522019382598</v>
+        <v>-107.53806168162134</v>
       </c>
       <c r="GX1">
-        <v>-107.3831057471873</v>
+        <v>-107.33587830999433</v>
       </c>
       <c r="GY1">
-        <v>-107.22022680466306</v>
+        <v>-107.17722605574319</v>
       </c>
       <c r="GZ1">
-        <v>-107.00010554671783</v>
+        <v>-106.96047522292365</v>
       </c>
       <c r="HA1">
-        <v>-106.81443322880978</v>
+        <v>-106.77514235132851</v>
       </c>
       <c r="HB1">
-        <v>-106.71890967034139</v>
+        <v>-106.67555845574348</v>
       </c>
       <c r="HC1">
-        <v>-106.62417992099962</v>
+        <v>-106.57994611182289</v>
       </c>
       <c r="HD1">
-        <v>-106.45901332051774</v>
+        <v>-106.41530258147117</v>
       </c>
       <c r="HE1">
-        <v>-106.24706935059986</v>
+        <v>-106.2032467846699</v>
       </c>
       <c r="HF1">
-        <v>-106.12352602654667</v>
+        <v>-106.0792597071938</v>
       </c>
       <c r="HG1">
-        <v>-105.96115241853769</v>
+        <v>-105.91852080664592</v>
       </c>
       <c r="HH1">
-        <v>-105.87884520704468</v>
+        <v>-105.83514788474488</v>
       </c>
       <c r="HI1">
-        <v>-105.81953115519653</v>
+        <v>-105.77415338766404</v>
       </c>
       <c r="HJ1">
-        <v>-105.67745026603237</v>
+        <v>-105.63380618422345</v>
       </c>
       <c r="HK1">
-        <v>-105.54828992937129</v>
+        <v>-105.50491743626338</v>
       </c>
       <c r="HL1">
-        <v>-105.37137498414425</v>
+        <v>-105.32797395101984</v>
       </c>
       <c r="HM1">
-        <v>-105.22145560100081</v>
+        <v>-105.18173896519423</v>
       </c>
       <c r="HN1">
-        <v>-105.19314847653162</v>
+        <v>-105.14944622804947</v>
       </c>
       <c r="HO1">
-        <v>-105.07608899349363</v>
+        <v>-105.03297665569539</v>
       </c>
       <c r="HP1">
-        <v>-104.96863384403144</v>
+        <v>-104.92719742374439</v>
       </c>
       <c r="HQ1">
-        <v>-104.8031539437111</v>
+        <v>-104.76340255158817</v>
       </c>
       <c r="HR1">
-        <v>-104.80305047886992</v>
+        <v>-104.76268653187824</v>
       </c>
       <c r="HS1">
-        <v>-104.62720265866895</v>
+        <v>-104.58793065725948</v>
       </c>
       <c r="HT1">
-        <v>-104.4610126232817</v>
+        <v>-104.42727540079956</v>
       </c>
       <c r="HU1">
-        <v>-104.39686278955115</v>
+        <v>-104.36131120290399</v>
       </c>
       <c r="HV1">
-        <v>-104.30439020653783</v>
+        <v>-104.26887420650775</v>
       </c>
       <c r="HW1">
-        <v>-104.20176204842885</v>
+        <v>-104.16738035339154</v>
       </c>
       <c r="HX1">
-        <v>-103.97385690314177</v>
+        <v>-103.94193191289169</v>
       </c>
       <c r="HY1">
-        <v>-103.89004552391599</v>
+        <v>-103.85798207417467</v>
       </c>
       <c r="HZ1">
-        <v>-103.7530619631026</v>
+        <v>-103.72111977302271</v>
       </c>
       <c r="IA1">
-        <v>-103.61457808165461</v>
+        <v>-103.58513420446187</v>
       </c>
       <c r="IB1">
-        <v>-103.57268991709653</v>
+        <v>-103.54094362061454</v>
       </c>
       <c r="IC1">
-        <v>-103.4651192038</v>
+        <v>-103.43368678793964</v>
       </c>
       <c r="ID1">
-        <v>-103.33835265807382</v>
+        <v>-103.30832858828596</v>
       </c>
       <c r="IE1">
-        <v>-103.13881242113936</v>
+        <v>-103.11002905512788</v>
       </c>
       <c r="IF1">
-        <v>-102.97119860142037</v>
+        <v>-102.94249959016764</v>
       </c>
       <c r="IG1">
-        <v>-102.89092297456742</v>
+        <v>-102.86218654567612</v>
       </c>
       <c r="IH1">
-        <v>-102.92067432013125</v>
+        <v>-102.88444940654138</v>
       </c>
       <c r="II1">
-        <v>-102.7748718551168</v>
+        <v>-102.74126037665822</v>
       </c>
       <c r="IJ1">
-        <v>-102.68107327564447</v>
+        <v>-102.64759313127675</v>
       </c>
       <c r="IK1">
-        <v>-102.69131733568054</v>
+        <v>-102.65592464745025</v>
       </c>
       <c r="IL1">
-        <v>-102.63574571168876</v>
+        <v>-102.60051467941683</v>
       </c>
       <c r="IM1">
-        <v>-102.61872044455272</v>
+        <v>-102.58365629618955</v>
       </c>
       <c r="IN1">
-        <v>-102.56363738817151</v>
+        <v>-102.52862657532788</v>
       </c>
       <c r="IO1">
-        <v>-102.68820690776425</v>
+        <v>-102.64606724509055</v>
       </c>
       <c r="IP1">
-        <v>-102.64862937757441</v>
+        <v>-102.60899215105833</v>
       </c>
       <c r="IQ1">
-        <v>-102.71162218804885</v>
+        <v>-102.6714655818875</v>
       </c>
       <c r="IR1">
-        <v>-102.66452252509661</v>
+        <v>-102.62456613939511</v>
       </c>
       <c r="IS1">
-        <v>-102.59006989656379</v>
+        <v>-102.54988042670657</v>
       </c>
       <c r="IT1">
-        <v>-102.50711141079636</v>
+        <v>-102.46733160095688</v>
       </c>
       <c r="IU1">
-        <v>-102.40457523601978</v>
+        <v>-102.36727298365879</v>
       </c>
       <c r="IV1">
-        <v>-102.26697627009239</v>
+        <v>-102.23199464651553</v>
       </c>
       <c r="IW1">
-        <v>-102.31573949515253</v>
+        <v>-102.27501365902646</v>
       </c>
       <c r="IX1">
-        <v>-102.243349783806</v>
+        <v>-102.20350661939008</v>
       </c>
       <c r="IY1">
-        <v>-102.20012644696665</v>
+        <v>-102.16044255208274</v>
       </c>
       <c r="IZ1">
-        <v>-102.12006216859797</v>
+        <v>-102.0806884615822</v>
       </c>
       <c r="JA1">
-        <v>-102.02286808160582</v>
+        <v>-101.98349965937294</v>
       </c>
       <c r="JB1">
-        <v>-101.89999720236185</v>
+        <v>-101.86050169159135</v>
       </c>
       <c r="JC1">
-        <v>-101.8215770124081</v>
+        <v>-101.78241461783141</v>
       </c>
       <c r="JD1">
-        <v>-101.77080671850273</v>
+        <v>-101.73112223898107</v>
       </c>
       <c r="JE1">
-        <v>-101.69349673857437</v>
+        <v>-101.65396856459103</v>
       </c>
       <c r="JF1">
-        <v>-101.6524646589703</v>
+        <v>-101.61257288379817</v>
       </c>
       <c r="JG1">
-        <v>-101.548732901975</v>
+        <v>-101.50916843421182</v>
       </c>
       <c r="JH1">
-        <v>-101.49875685663274</v>
+        <v>-101.45941936339649</v>
       </c>
       <c r="JI1">
-        <v>-101.49388300792009</v>
+        <v>-101.45441872666896</v>
       </c>
       <c r="JJ1">
-        <v>-101.53778004145684</v>
+        <v>-101.49594606253793</v>
       </c>
       <c r="JK1">
-        <v>-101.52480198232473</v>
+        <v>-101.48341723926887</v>
       </c>
       <c r="JL1">
-        <v>-101.46582264547831</v>
+        <v>-101.42476860537542</v>
       </c>
       <c r="JM1">
-        <v>-101.38799119779893</v>
+        <v>-101.34903159768105</v>
       </c>
       <c r="JN1">
-        <v>-101.27694624951457</v>
+        <v>-101.23889229066812</v>
       </c>
       <c r="JO1">
-        <v>-101.20290697081613</v>
+        <v>-101.16494884442724</v>
       </c>
       <c r="JP1">
-        <v>-100.99936046740899</v>
+        <v>-100.96275329439415</v>
       </c>
       <c r="JQ1">
-        <v>-100.89263935049948</v>
+        <v>-100.8559439142563</v>
       </c>
       <c r="JR1">
-        <v>-100.90197174591329</v>
+        <v>-100.8625139966515</v>
       </c>
       <c r="JS1">
-        <v>-100.85555648600582</v>
+        <v>-100.81606952071895</v>
       </c>
       <c r="JT1">
-        <v>-100.87206722108256</v>
+        <v>-100.83057007295787</v>
       </c>
       <c r="JU1">
-        <v>-100.72571846814792</v>
+        <v>-100.68656486066409</v>
       </c>
       <c r="JV1">
-        <v>-100.61208674887797</v>
+        <v>-100.57315773992707</v>
       </c>
       <c r="JW1">
-        <v>-100.51595835384488</v>
+        <v>-100.47738217603737</v>
       </c>
       <c r="JX1">
-        <v>-100.4194107674564</v>
+        <v>-100.38209064631764</v>
       </c>
       <c r="JY1">
-        <v>-100.3159502245699</v>
+        <v>-100.27912023574369</v>
       </c>
       <c r="JZ1">
-        <v>-100.17969352597849</v>
+        <v>-100.14435902382395</v>
       </c>
       <c r="KA1">
-        <v>-100.07719722749577</v>
+        <v>-100.04244389940403</v>
       </c>
       <c r="KB1">
-        <v>-100.06500436097632</v>
+        <v>-100.02812667504082</v>
       </c>
       <c r="KC1">
-        <v>-100.03844339796301</v>
+        <v>-100.00137085795807</v>
       </c>
       <c r="KD1">
-        <v>-99.943642518056109</v>
+        <v>-99.907536350097118</v>
       </c>
       <c r="KE1">
-        <v>-100.0312089286821</v>
+        <v>-99.988652654950016</v>
       </c>
       <c r="KF1">
-        <v>-99.887877854885531</v>
+        <v>-99.848344360464566</v>
       </c>
       <c r="KG1">
-        <v>-99.888198066051046</v>
+        <v>-99.847424700996484</v>
       </c>
       <c r="KH1">
-        <v>-99.880146819015607</v>
+        <v>-99.839255961031284</v>
       </c>
       <c r="KI1">
-        <v>-99.940781770104905</v>
+        <v>-99.899986993902303</v>
       </c>
       <c r="KJ1">
-        <v>-99.888732968613269</v>
+        <v>-99.847788483141514</v>
       </c>
       <c r="KK1">
-        <v>-99.837107893870808</v>
+        <v>-99.796981963284424</v>
       </c>
       <c r="KL1">
-        <v>-99.724417024919092</v>
+        <v>-99.687608289880004</v>
       </c>
       <c r="KM1">
-        <v>-99.625192212388313</v>
+        <v>-99.589040761380815</v>
       </c>
       <c r="KN1">
-        <v>-99.615292073990432</v>
+        <v>-99.579131466938719</v>
       </c>
       <c r="KO1">
-        <v>-99.480637657163683</v>
+        <v>-99.447660157939779</v>
       </c>
       <c r="KP1">
-        <v>-99.479425925413565</v>
+        <v>-99.445502747233476</v>
       </c>
       <c r="KQ1">
-        <v>-99.356825109236681</v>
+        <v>-99.323157333939179</v>
       </c>
       <c r="KR1">
-        <v>-99.2683582876695</v>
+        <v>-99.23502720041779</v>
       </c>
       <c r="KS1">
-        <v>-99.148526491396993</v>
+        <v>-99.116100278752256</v>
       </c>
       <c r="KT1">
-        <v>-99.084774940247655</v>
+        <v>-99.051713054585548</v>
       </c>
       <c r="KU1">
-        <v>-99.005634268218159</v>
+        <v>-98.972649105072364</v>
       </c>
       <c r="KV1">
-        <v>-98.999438085559504</v>
+        <v>-98.96380981031524</v>
       </c>
       <c r="KW1">
-        <v>-98.960675706895145</v>
+        <v>-98.925088207604233</v>
       </c>
       <c r="KX1">
-        <v>-98.865283542730424</v>
+        <v>-98.830099355533704</v>
       </c>
       <c r="KY1">
-        <v>-98.722343280134524</v>
+        <v>-98.689377627421308</v>
       </c>
       <c r="KZ1">
-        <v>-98.715089093015592</v>
+        <v>-98.679289639419594</v>
       </c>
       <c r="LA1">
-        <v>-98.637354646380132</v>
+        <v>-98.601988504994367</v>
       </c>
       <c r="LB1">
-        <v>-98.520872763018957</v>
+        <v>-98.486264394221863</v>
       </c>
       <c r="LC1">
-        <v>-98.436021253882814</v>
+        <v>-98.402339267104892</v>
       </c>
       <c r="LD1">
-        <v>-98.305925523572512</v>
+        <v>-98.273557686198785</v>
       </c>
       <c r="LE1">
-        <v>-98.13432521655794</v>
+        <v>-98.102522302764342</v>
       </c>
       <c r="LF1">
-        <v>-97.950794539835101</v>
+        <v>-97.921435069469439</v>
       </c>
       <c r="LG1">
-        <v>-97.859448270289576</v>
+        <v>-97.827822240250612</v>
       </c>
       <c r="LH1">
-        <v>-97.678205578813333</v>
+        <v>-97.647676325243012</v>
       </c>
       <c r="LI1">
-        <v>-97.605986893376681</v>
+        <v>-97.575064604396459</v>
       </c>
       <c r="LJ1">
-        <v>-97.451148116795665</v>
+        <v>-97.423166895229826</v>
       </c>
       <c r="LK1">
-        <v>-97.265352745205334</v>
+        <v>-97.239051329422253</v>
       </c>
       <c r="LL1">
-        <v>-97.071619254986089</v>
+        <v>-97.045702031939484</v>
       </c>
       <c r="LM1">
-        <v>-96.929564245538302</v>
+        <v>-96.902895315100551</v>
       </c>
       <c r="LN1">
-        <v>-96.789509953107711</v>
+        <v>-96.761536710415584</v>
       </c>
       <c r="LO1">
-        <v>-96.604229845309789</v>
+        <v>-96.576932151454841</v>
       </c>
       <c r="LP1">
-        <v>-96.409820061578557</v>
+        <v>-96.382756422048615</v>
       </c>
       <c r="LQ1">
-        <v>-96.205120965341578</v>
+        <v>-96.17986422012946</v>
       </c>
       <c r="LR1">
-        <v>-96.020188356230335</v>
+        <v>-95.995028792739021</v>
       </c>
       <c r="LS1">
-        <v>-95.846424637650557</v>
+        <v>-95.821294007861397</v>
       </c>
       <c r="LT1">
-        <v>-95.662477496768517</v>
+        <v>-95.6379664433545</v>
       </c>
       <c r="LU1">
-        <v>-95.458085569786945</v>
+        <v>-95.434600366902572</v>
       </c>
       <c r="LV1">
-        <v>-95.271513124364247</v>
+        <v>-95.248072278880741</v>
       </c>
       <c r="LW1">
-        <v>-95.075953386434094</v>
+        <v>-95.052717802309061</v>
       </c>
       <c r="LX1">
-        <v>-94.885180752287681</v>
+        <v>-94.863148281379267</v>
       </c>
       <c r="LY1">
-        <v>-94.696076907559245</v>
+        <v>-94.67440894821388</v>
       </c>
       <c r="LZ1">
-        <v>-94.498545140944813</v>
+        <v>-94.477284603112977</v>
       </c>
       <c r="MA1">
-        <v>-94.292957677220627</v>
+        <v>-94.272722127692106</v>
       </c>
       <c r="MB1">
-        <v>-94.084999316361063</v>
+        <v>-94.06628950153771</v>
       </c>
       <c r="MC1">
-        <v>-93.880186268114429</v>
+        <v>-93.861910666281744</v>
       </c>
       <c r="MD1">
-        <v>-93.694275674952962</v>
+        <v>-93.674489301509666</v>
       </c>
       <c r="ME1">
-        <v>-93.524818320550736</v>
+        <v>-93.501612396231053</v>
       </c>
       <c r="MF1">
-        <v>-93.331441503853966</v>
+        <v>-93.309606523702129</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -64,11 +64,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -98,6 +100,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,106 +462,106 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>-34.998622575521502</v>
+        <v>-34.998622575521487</v>
       </c>
       <c r="B1">
         <v>-34.727486038700761</v>
       </c>
       <c r="C1">
-        <v>-34.43514259177995</v>
+        <v>-34.435142591779936</v>
       </c>
       <c r="D1">
         <v>-34.159473083168713</v>
       </c>
       <c r="E1">
-        <v>-33.878886197201354</v>
+        <v>-33.878886197201389</v>
       </c>
       <c r="F1">
-        <v>-33.636165414354451</v>
+        <v>-33.636165414354444</v>
       </c>
       <c r="G1">
-        <v>-33.394909826788201</v>
+        <v>-33.394909826788208</v>
       </c>
       <c r="H1">
-        <v>-33.132631952639336</v>
+        <v>-33.13263195263935</v>
       </c>
       <c r="I1">
-        <v>-32.887481266829823</v>
+        <v>-32.88748126682983</v>
       </c>
       <c r="J1">
         <v>-32.624200369779615</v>
       </c>
       <c r="K1">
-        <v>-32.412617725129557</v>
+        <v>-32.412617725129572</v>
       </c>
       <c r="L1">
         <v>-32.189842851520893</v>
       </c>
       <c r="M1">
-        <v>-31.995387519912413</v>
+        <v>-31.995387519912398</v>
       </c>
       <c r="N1">
-        <v>-31.750891738851351</v>
+        <v>-31.750891738851358</v>
       </c>
       <c r="O1">
-        <v>-31.537931371037068</v>
+        <v>-31.537931371037075</v>
       </c>
       <c r="P1">
-        <v>-31.304729633450354</v>
+        <v>-31.304729633450371</v>
       </c>
       <c r="Q1">
         <v>-31.066840199276601</v>
       </c>
       <c r="R1">
-        <v>-30.851884112623917</v>
+        <v>-30.851884112623907</v>
       </c>
       <c r="S1">
-        <v>-30.631238293324778</v>
+        <v>-30.631238293324767</v>
       </c>
       <c r="T1">
-        <v>-30.414035215224438</v>
+        <v>-30.414035215224406</v>
       </c>
       <c r="U1">
-        <v>-30.20870276458669</v>
+        <v>-30.208702764586697</v>
       </c>
       <c r="V1">
-        <v>-30.025695900102896</v>
+        <v>-30.025695900102882</v>
       </c>
       <c r="W1">
-        <v>-29.802710127824611</v>
+        <v>-29.8027101278246</v>
       </c>
       <c r="X1">
-        <v>-29.615051241595022</v>
+        <v>-29.615051241595026</v>
       </c>
       <c r="Y1">
-        <v>-29.46247186826319</v>
+        <v>-29.462471868263197</v>
       </c>
       <c r="Z1">
-        <v>-29.22964208046799</v>
+        <v>-29.229642080468015</v>
       </c>
       <c r="AA1">
-        <v>-29.058942323385505</v>
+        <v>-29.058942323385519</v>
       </c>
       <c r="AB1">
-        <v>-28.904774702215331</v>
+        <v>-28.904774702215342</v>
       </c>
       <c r="AC1">
-        <v>-28.730368435208799</v>
+        <v>-28.730368435208796</v>
       </c>
       <c r="AD1">
-        <v>-28.535795632020285</v>
+        <v>-28.535795632020278</v>
       </c>
       <c r="AE1">
-        <v>-28.356743778307212</v>
+        <v>-28.356743778307187</v>
       </c>
       <c r="AF1">
-        <v>-28.170485176149338</v>
+        <v>-28.170485176149356</v>
       </c>
       <c r="AG1">
-        <v>-27.987544267547005</v>
+        <v>-27.987544267546987</v>
       </c>
       <c r="AH1">
-        <v>-27.848346930997543</v>
+        <v>-27.84834693099755</v>
       </c>
       <c r="AI1">
         <v>-27.642026079106255</v>
@@ -566,385 +570,385 @@
         <v>-27.474361325559457</v>
       </c>
       <c r="AK1">
-        <v>-27.282977951129322</v>
+        <v>-27.282977951129293</v>
       </c>
       <c r="AL1">
-        <v>-27.111792405453912</v>
+        <v>-27.111792405453929</v>
       </c>
       <c r="AM1">
-        <v>-26.963659893347032</v>
+        <v>-26.963659893347025</v>
       </c>
       <c r="AN1">
-        <v>-26.775697236114905</v>
+        <v>-26.775697236114915</v>
       </c>
       <c r="AO1">
         <v>-26.624582038702425</v>
       </c>
       <c r="AP1">
-        <v>-26.469582118304718</v>
+        <v>-26.469582118304711</v>
       </c>
       <c r="AQ1">
-        <v>-26.35169304014693</v>
+        <v>-26.351693040146912</v>
       </c>
       <c r="AR1">
-        <v>-26.286653327688793</v>
+        <v>-26.286653327688789</v>
       </c>
       <c r="AS1">
-        <v>-26.192569676971761</v>
+        <v>-26.19256967697174</v>
       </c>
       <c r="AT1">
         <v>-26.073155686606313</v>
       </c>
       <c r="AU1">
-        <v>-25.943828001916124</v>
+        <v>-25.943828001916138</v>
       </c>
       <c r="AV1">
-        <v>-25.898143211943328</v>
+        <v>-25.898143211943349</v>
       </c>
       <c r="AW1">
         <v>-25.876384606243541</v>
       </c>
       <c r="AX1">
-        <v>-25.814410239665616</v>
+        <v>-25.81441023966563</v>
       </c>
       <c r="AY1">
-        <v>-25.838362901784173</v>
+        <v>-25.838362901784162</v>
       </c>
       <c r="AZ1">
-        <v>-25.760256934602204</v>
+        <v>-25.760256934602197</v>
       </c>
       <c r="BA1">
-        <v>-25.728562246787678</v>
+        <v>-25.728562246787661</v>
       </c>
       <c r="BB1">
-        <v>-25.711844704808545</v>
+        <v>-25.711844704808534</v>
       </c>
       <c r="BC1">
-        <v>-25.798219827250776</v>
+        <v>-25.79821982725079</v>
       </c>
       <c r="BD1">
-        <v>-25.764737495775151</v>
+        <v>-25.764737495775137</v>
       </c>
       <c r="BE1">
-        <v>-25.748786259181546</v>
+        <v>-25.748786259181564</v>
       </c>
       <c r="BF1">
-        <v>-25.88148708024211</v>
+        <v>-25.881487080242128</v>
       </c>
       <c r="BG1">
-        <v>-25.943365955786142</v>
+        <v>-25.943365955786128</v>
       </c>
       <c r="BH1">
-        <v>-26.036930506518406</v>
+        <v>-26.036930506518392</v>
       </c>
       <c r="BI1">
-        <v>-26.015465606522159</v>
+        <v>-26.015465606522177</v>
       </c>
       <c r="BJ1">
-        <v>-26.151132659278275</v>
+        <v>-26.151132659278279</v>
       </c>
       <c r="BK1">
-        <v>-26.324372682528391</v>
+        <v>-26.324372682528416</v>
       </c>
       <c r="BL1">
-        <v>-26.363795634320002</v>
+        <v>-26.363795634320013</v>
       </c>
       <c r="BM1">
-        <v>-26.308159279439284</v>
+        <v>-26.308159279439259</v>
       </c>
       <c r="BN1">
-        <v>-26.363468726027158</v>
+        <v>-26.36346872602719</v>
       </c>
       <c r="BO1">
-        <v>-26.449796186801571</v>
+        <v>-26.449796186801578</v>
       </c>
       <c r="BP1">
-        <v>-26.42790128046305</v>
+        <v>-26.427901280463029</v>
       </c>
       <c r="BQ1">
-        <v>-26.496902658081247</v>
+        <v>-26.496902658081225</v>
       </c>
       <c r="BR1">
-        <v>-26.612212012704429</v>
+        <v>-26.61221201270444</v>
       </c>
       <c r="BS1">
-        <v>-26.666277401726173</v>
+        <v>-26.666277401726191</v>
       </c>
       <c r="BT1">
-        <v>-26.597037605654279</v>
+        <v>-26.597037605654254</v>
       </c>
       <c r="BU1">
-        <v>-26.675908987895919</v>
+        <v>-26.675908987895902</v>
       </c>
       <c r="BV1">
-        <v>-26.891334477830842</v>
+        <v>-26.891334477830856</v>
       </c>
       <c r="BW1">
-        <v>-26.795991952442908</v>
+        <v>-26.795991952442858</v>
       </c>
       <c r="BX1">
-        <v>-26.803981089103988</v>
+        <v>-26.803981089103996</v>
       </c>
       <c r="BY1">
-        <v>-26.713439549317197</v>
+        <v>-26.713439549317183</v>
       </c>
       <c r="BZ1">
-        <v>-26.706703621601019</v>
+        <v>-26.70670362160104</v>
       </c>
       <c r="CA1">
-        <v>-26.700860636694596</v>
+        <v>-26.700860636694603</v>
       </c>
       <c r="CB1">
-        <v>-26.682097363017178</v>
+        <v>-26.68209736301716</v>
       </c>
       <c r="CC1">
-        <v>-26.79435516843413</v>
+        <v>-26.794355168434109</v>
       </c>
       <c r="CD1">
-        <v>-26.844624626179904</v>
+        <v>-26.8446246261799</v>
       </c>
       <c r="CE1">
-        <v>-26.937438842180352</v>
+        <v>-26.937438842180324</v>
       </c>
       <c r="CF1">
-        <v>-27.015764642828795</v>
+        <v>-27.015764642828788</v>
       </c>
       <c r="CG1">
-        <v>-27.093390235648137</v>
+        <v>-27.093390235648133</v>
       </c>
       <c r="CH1">
-        <v>-27.082843860215725</v>
+        <v>-27.082843860215721</v>
       </c>
       <c r="CI1">
         <v>-27.19920829911824</v>
       </c>
       <c r="CJ1">
-        <v>-27.332724321193634</v>
+        <v>-27.332724321193616</v>
       </c>
       <c r="CK1">
-        <v>-27.377708596271834</v>
+        <v>-27.377708596271791</v>
       </c>
       <c r="CL1">
-        <v>-27.509168930505368</v>
+        <v>-27.509168930505396</v>
       </c>
       <c r="CM1">
-        <v>-27.538189356320906</v>
+        <v>-27.538189356320899</v>
       </c>
       <c r="CN1">
-        <v>-27.695362262558934</v>
+        <v>-27.695362262558941</v>
       </c>
       <c r="CO1">
         <v>-27.781345002489616</v>
       </c>
       <c r="CP1">
-        <v>-27.938934568495537</v>
+        <v>-27.938934568495529</v>
       </c>
       <c r="CQ1">
-        <v>-28.170603786767114</v>
+        <v>-28.170603786767121</v>
       </c>
       <c r="CR1">
-        <v>-28.449981873079178</v>
+        <v>-28.449981873079167</v>
       </c>
       <c r="CS1">
         <v>-28.651001045458596</v>
       </c>
       <c r="CT1">
-        <v>-28.959232996112359</v>
+        <v>-28.959232996112373</v>
       </c>
       <c r="CU1">
-        <v>-29.203385621020178</v>
+        <v>-29.203385621020185</v>
       </c>
       <c r="CV1">
         <v>-29.555969876084603</v>
       </c>
       <c r="CW1">
-        <v>-29.875606387982579</v>
+        <v>-29.875606387982589</v>
       </c>
       <c r="CX1">
         <v>-30.224882918296121</v>
       </c>
       <c r="CY1">
-        <v>-30.587791564514578</v>
+        <v>-30.587791564514571</v>
       </c>
       <c r="CZ1">
-        <v>-31.127488157130642</v>
+        <v>-31.127488157130639</v>
       </c>
       <c r="DA1">
-        <v>-31.601424439777347</v>
+        <v>-31.601424439777354</v>
       </c>
       <c r="DB1">
-        <v>-31.800984446995663</v>
+        <v>-31.800984446995646</v>
       </c>
       <c r="DC1">
         <v>-31.958008342649801</v>
       </c>
       <c r="DD1">
-        <v>-32.271682908345213</v>
+        <v>-32.271682908345191</v>
       </c>
       <c r="DE1">
-        <v>-32.849561741630701</v>
+        <v>-32.849561741630694</v>
       </c>
       <c r="DF1">
-        <v>-33.123871349360648</v>
+        <v>-33.123871349360655</v>
       </c>
       <c r="DG1">
-        <v>-33.590713335111879</v>
+        <v>-33.590713335111857</v>
       </c>
       <c r="DH1">
-        <v>-33.811069913389105</v>
+        <v>-33.811069913389112</v>
       </c>
       <c r="DI1">
-        <v>-34.112020291664386</v>
+        <v>-34.112020291664372</v>
       </c>
       <c r="DJ1">
-        <v>-34.332387320593071</v>
+        <v>-34.332387320593078</v>
       </c>
       <c r="DK1">
         <v>-34.521300488835308</v>
       </c>
       <c r="DL1">
-        <v>-34.97786033555834</v>
+        <v>-34.977860335558347</v>
       </c>
       <c r="DM1">
-        <v>-35.644804620863404</v>
+        <v>-35.644804620863411</v>
       </c>
       <c r="DN1">
         <v>-36.041060399583095</v>
       </c>
       <c r="DO1">
-        <v>-36.369963986643342</v>
+        <v>-36.369963986643327</v>
       </c>
       <c r="DP1">
-        <v>-36.697399680336098</v>
+        <v>-36.697399680336069</v>
       </c>
       <c r="DQ1">
-        <v>-36.866338799296749</v>
+        <v>-36.866338799296756</v>
       </c>
       <c r="DR1">
-        <v>-37.158301615205012</v>
+        <v>-37.158301615205026</v>
       </c>
       <c r="DS1">
         <v>-37.568131060913217</v>
       </c>
       <c r="DT1">
-        <v>-37.839556183790208</v>
+        <v>-37.839556183790229</v>
       </c>
       <c r="DU1">
-        <v>-38.230063532751927</v>
+        <v>-38.230063532751934</v>
       </c>
       <c r="DV1">
-        <v>-38.634049902484797</v>
+        <v>-38.634049902484776</v>
       </c>
       <c r="DW1">
-        <v>-38.758193157405721</v>
+        <v>-38.758193157405692</v>
       </c>
       <c r="DX1">
-        <v>-38.903784231571272</v>
+        <v>-38.903784231571251</v>
       </c>
       <c r="DY1">
-        <v>-39.09265248582021</v>
+        <v>-39.092652485820217</v>
       </c>
       <c r="DZ1">
-        <v>-39.435060357048002</v>
+        <v>-39.435060357047995</v>
       </c>
       <c r="EA1">
-        <v>-39.852168014515172</v>
+        <v>-39.852168014515165</v>
       </c>
       <c r="EB1">
         <v>-40.330123250099156</v>
       </c>
       <c r="EC1">
-        <v>-40.807534206852623</v>
+        <v>-40.80753420685263</v>
       </c>
       <c r="ED1">
-        <v>-41.29756110898839</v>
+        <v>-41.297561108988411</v>
       </c>
       <c r="EE1">
-        <v>-41.954985949602182</v>
+        <v>-41.954985949602175</v>
       </c>
       <c r="EF1">
         <v>-42.6596250142644</v>
       </c>
       <c r="EG1">
-        <v>-43.700486386373427</v>
+        <v>-43.70048638637342</v>
       </c>
       <c r="EH1">
         <v>-44.277756672522735</v>
       </c>
       <c r="EI1">
-        <v>-45.083208565358724</v>
+        <v>-45.083208565358731</v>
       </c>
       <c r="EJ1">
-        <v>-46.278733595009726</v>
+        <v>-46.278733595009719</v>
       </c>
       <c r="EK1">
-        <v>-47.393541721111553</v>
+        <v>-47.393541721111546</v>
       </c>
       <c r="EL1">
-        <v>-48.329422252973991</v>
+        <v>-48.32942225297397</v>
       </c>
       <c r="EM1">
-        <v>-49.564937217772425</v>
+        <v>-49.564937217772403</v>
       </c>
       <c r="EN1">
-        <v>-51.192104240061227</v>
+        <v>-51.192104240061219</v>
       </c>
       <c r="EO1">
-        <v>-53.175890355246494</v>
+        <v>-53.175890355246501</v>
       </c>
       <c r="EP1">
-        <v>-55.068025347527112</v>
+        <v>-55.068025347527097</v>
       </c>
       <c r="EQ1">
-        <v>-57.05803327096325</v>
+        <v>-57.058033270963243</v>
       </c>
       <c r="ER1">
-        <v>-59.071443862174959</v>
+        <v>-59.071443862174952</v>
       </c>
       <c r="ES1">
         <v>-61.144559069287716</v>
       </c>
       <c r="ET1">
-        <v>-62.737509805284759</v>
+        <v>-62.737509805284773</v>
       </c>
       <c r="EU1">
-        <v>-65.347461189274014</v>
+        <v>-65.347461189274028</v>
       </c>
       <c r="EV1">
-        <v>-67.260921674711824</v>
+        <v>-67.26092167471181</v>
       </c>
       <c r="EW1">
-        <v>-69.255202535135851</v>
+        <v>-69.255202535135837</v>
       </c>
       <c r="EX1">
         <v>-70.681981735629094</v>
       </c>
       <c r="EY1">
-        <v>-72.93633405628178</v>
+        <v>-72.936334056281765</v>
       </c>
       <c r="EZ1">
-        <v>-74.742258407139275</v>
+        <v>-74.742258407139261</v>
       </c>
       <c r="FA1">
         <v>-76.42731823618287</v>
       </c>
       <c r="FB1">
-        <v>-79.394648817419196</v>
+        <v>-79.394648817419181</v>
       </c>
       <c r="FC1">
         <v>-81.147115031742857</v>
       </c>
       <c r="FD1">
-        <v>-82.585314331196642</v>
+        <v>-82.585314331196628</v>
       </c>
       <c r="FE1">
-        <v>-83.917057179511147</v>
+        <v>-83.917057179511133</v>
       </c>
       <c r="FF1">
-        <v>-85.75113012520805</v>
+        <v>-85.751130125208093</v>
       </c>
       <c r="FG1">
-        <v>-87.380834349945275</v>
+        <v>-87.38083434994526</v>
       </c>
       <c r="FH1">
         <v>-88.597537126240439</v>
@@ -953,28 +957,28 @@
         <v>-90.530706323573767</v>
       </c>
       <c r="FJ1">
-        <v>-91.535507082826413</v>
+        <v>-91.535507082826399</v>
       </c>
       <c r="FK1">
         <v>-92.934993106547779</v>
       </c>
       <c r="FL1">
-        <v>-94.51025042892914</v>
+        <v>-94.510250428929126</v>
       </c>
       <c r="FM1">
-        <v>-95.702935475869438</v>
+        <v>-95.702935475869452</v>
       </c>
       <c r="FN1">
-        <v>-96.823003137070643</v>
+        <v>-96.823003137070685</v>
       </c>
       <c r="FO1">
-        <v>-97.838207426897497</v>
+        <v>-97.83820742689754</v>
       </c>
       <c r="FP1">
         <v>-99.108466589352773</v>
       </c>
       <c r="FQ1">
-        <v>-99.946569760403918</v>
+        <v>-99.946569760403975</v>
       </c>
       <c r="FR1">
         <v>-100.92757318353807</v>
@@ -983,25 +987,25 @@
         <v>-101.61630757805753</v>
       </c>
       <c r="FT1">
-        <v>-102.47569781748301</v>
+        <v>-102.47569781748302</v>
       </c>
       <c r="FU1">
         <v>-103.01976280679327</v>
       </c>
       <c r="FV1">
-        <v>-103.5802580379293</v>
+        <v>-103.58025803792931</v>
       </c>
       <c r="FW1">
         <v>-104.80839796579045</v>
       </c>
       <c r="FX1">
-        <v>-105.73815549617717</v>
+        <v>-105.73815549617714</v>
       </c>
       <c r="FY1">
-        <v>-106.05988696978694</v>
+        <v>-106.0598869697869</v>
       </c>
       <c r="FZ1">
-        <v>-106.73697455187914</v>
+        <v>-106.73697455187917</v>
       </c>
       <c r="GA1">
         <v>-107.29134808333359</v>
@@ -1010,25 +1014,25 @@
         <v>-107.52130748619794</v>
       </c>
       <c r="GC1">
-        <v>-107.77342540450661</v>
+        <v>-107.77342540450658</v>
       </c>
       <c r="GD1">
-        <v>-108.20556311845615</v>
+        <v>-108.20556311845614</v>
       </c>
       <c r="GE1">
-        <v>-108.31743804423122</v>
+        <v>-108.31743804423125</v>
       </c>
       <c r="GF1">
-        <v>-108.54195404370886</v>
+        <v>-108.54195404370887</v>
       </c>
       <c r="GG1">
         <v>-108.67264067358448</v>
       </c>
       <c r="GH1">
-        <v>-108.76501410649686</v>
+        <v>-108.76501410649688</v>
       </c>
       <c r="GI1">
-        <v>-108.61671971781988</v>
+        <v>-108.61671971781989</v>
       </c>
       <c r="GJ1">
         <v>-108.62519619805447</v>
@@ -1037,445 +1041,445 @@
         <v>-108.70487838679682</v>
       </c>
       <c r="GL1">
-        <v>-108.65261529240114</v>
+        <v>-108.65261529240117</v>
       </c>
       <c r="GM1">
-        <v>-108.55539463185544</v>
+        <v>-108.55539463185541</v>
       </c>
       <c r="GN1">
-        <v>-108.4607105240386</v>
+        <v>-108.4607105240385</v>
       </c>
       <c r="GO1">
-        <v>-108.44528697578578</v>
+        <v>-108.44528697578576</v>
       </c>
       <c r="GP1">
-        <v>-108.22724818953584</v>
+        <v>-108.22724818953587</v>
       </c>
       <c r="GQ1">
-        <v>-108.1137543054551</v>
+        <v>-108.11375430545512</v>
       </c>
       <c r="GR1">
-        <v>-108.05392806061255</v>
+        <v>-108.05392806061245</v>
       </c>
       <c r="GS1">
-        <v>-108.04949438149931</v>
+        <v>-108.04949438149933</v>
       </c>
       <c r="GT1">
-        <v>-108.00277115472134</v>
+        <v>-108.00277115472142</v>
       </c>
       <c r="GU1">
-        <v>-107.81247596726973</v>
+        <v>-107.81247596726969</v>
       </c>
       <c r="GV1">
         <v>-107.61814940932113</v>
       </c>
       <c r="GW1">
-        <v>-107.53806168162134</v>
+        <v>-107.53806168162127</v>
       </c>
       <c r="GX1">
-        <v>-107.33587830999433</v>
+        <v>-107.33587830999424</v>
       </c>
       <c r="GY1">
         <v>-107.17722605574319</v>
       </c>
       <c r="GZ1">
-        <v>-106.96047522292365</v>
+        <v>-106.96047522292362</v>
       </c>
       <c r="HA1">
-        <v>-106.77514235132851</v>
+        <v>-106.77514235132847</v>
       </c>
       <c r="HB1">
-        <v>-106.67555845574348</v>
+        <v>-106.67555845574347</v>
       </c>
       <c r="HC1">
-        <v>-106.57994611182289</v>
+        <v>-106.57994611182285</v>
       </c>
       <c r="HD1">
-        <v>-106.41530258147117</v>
+        <v>-106.41530258147111</v>
       </c>
       <c r="HE1">
         <v>-106.2032467846699</v>
       </c>
       <c r="HF1">
-        <v>-106.0792597071938</v>
+        <v>-106.07925970719384</v>
       </c>
       <c r="HG1">
-        <v>-105.91852080664592</v>
+        <v>-105.91852080664589</v>
       </c>
       <c r="HH1">
         <v>-105.83514788474488</v>
       </c>
       <c r="HI1">
-        <v>-105.77415338766404</v>
+        <v>-105.77415338766409</v>
       </c>
       <c r="HJ1">
-        <v>-105.63380618422345</v>
+        <v>-105.63380618422346</v>
       </c>
       <c r="HK1">
         <v>-105.50491743626338</v>
       </c>
       <c r="HL1">
-        <v>-105.32797395101984</v>
+        <v>-105.32797395101981</v>
       </c>
       <c r="HM1">
         <v>-105.18173896519423</v>
       </c>
       <c r="HN1">
-        <v>-105.14944622804947</v>
+        <v>-105.14944622804943</v>
       </c>
       <c r="HO1">
         <v>-105.03297665569539</v>
       </c>
       <c r="HP1">
-        <v>-104.92719742374439</v>
+        <v>-104.92719742374437</v>
       </c>
       <c r="HQ1">
-        <v>-104.76340255158817</v>
+        <v>-104.76340255158813</v>
       </c>
       <c r="HR1">
-        <v>-104.76268653187824</v>
+        <v>-104.7626865318782</v>
       </c>
       <c r="HS1">
-        <v>-104.58793065725948</v>
+        <v>-104.58793065725952</v>
       </c>
       <c r="HT1">
-        <v>-104.42727540079956</v>
+        <v>-104.42727540079947</v>
       </c>
       <c r="HU1">
-        <v>-104.36131120290399</v>
+        <v>-104.36131120290395</v>
       </c>
       <c r="HV1">
-        <v>-104.26887420650775</v>
+        <v>-104.26887420650773</v>
       </c>
       <c r="HW1">
-        <v>-104.16738035339154</v>
+        <v>-104.16738035339149</v>
       </c>
       <c r="HX1">
-        <v>-103.94193191289169</v>
+        <v>-103.94193191289159</v>
       </c>
       <c r="HY1">
-        <v>-103.85798207417467</v>
+        <v>-103.85798207417466</v>
       </c>
       <c r="HZ1">
         <v>-103.72111977302271</v>
       </c>
       <c r="IA1">
-        <v>-103.58513420446187</v>
+        <v>-103.58513420446184</v>
       </c>
       <c r="IB1">
-        <v>-103.54094362061454</v>
+        <v>-103.54094362061458</v>
       </c>
       <c r="IC1">
-        <v>-103.43368678793964</v>
+        <v>-103.43368678793959</v>
       </c>
       <c r="ID1">
-        <v>-103.30832858828596</v>
+        <v>-103.30832858828593</v>
       </c>
       <c r="IE1">
-        <v>-103.11002905512788</v>
+        <v>-103.11002905512781</v>
       </c>
       <c r="IF1">
-        <v>-102.94249959016764</v>
+        <v>-102.94249959016761</v>
       </c>
       <c r="IG1">
-        <v>-102.86218654567612</v>
+        <v>-102.86218654567611</v>
       </c>
       <c r="IH1">
         <v>-102.88444940654138</v>
       </c>
       <c r="II1">
-        <v>-102.74126037665822</v>
+        <v>-102.74126037665819</v>
       </c>
       <c r="IJ1">
-        <v>-102.64759313127675</v>
+        <v>-102.64759313127678</v>
       </c>
       <c r="IK1">
-        <v>-102.65592464745025</v>
+        <v>-102.65592464745011</v>
       </c>
       <c r="IL1">
-        <v>-102.60051467941683</v>
+        <v>-102.60051467941682</v>
       </c>
       <c r="IM1">
-        <v>-102.58365629618955</v>
+        <v>-102.5836562961896</v>
       </c>
       <c r="IN1">
-        <v>-102.52862657532788</v>
+        <v>-102.52862657532785</v>
       </c>
       <c r="IO1">
-        <v>-102.64606724509055</v>
+        <v>-102.64606724509053</v>
       </c>
       <c r="IP1">
-        <v>-102.60899215105833</v>
+        <v>-102.60899215105832</v>
       </c>
       <c r="IQ1">
         <v>-102.6714655818875</v>
       </c>
       <c r="IR1">
-        <v>-102.62456613939511</v>
+        <v>-102.62456613939504</v>
       </c>
       <c r="IS1">
-        <v>-102.54988042670657</v>
+        <v>-102.54988042670652</v>
       </c>
       <c r="IT1">
-        <v>-102.46733160095688</v>
+        <v>-102.46733160095681</v>
       </c>
       <c r="IU1">
-        <v>-102.36727298365879</v>
+        <v>-102.36727298365871</v>
       </c>
       <c r="IV1">
-        <v>-102.23199464651553</v>
+        <v>-102.23199464651552</v>
       </c>
       <c r="IW1">
-        <v>-102.27501365902646</v>
+        <v>-102.27501365902626</v>
       </c>
       <c r="IX1">
-        <v>-102.20350661939008</v>
+        <v>-102.20350661939003</v>
       </c>
       <c r="IY1">
-        <v>-102.16044255208274</v>
+        <v>-102.16044255208266</v>
       </c>
       <c r="IZ1">
-        <v>-102.0806884615822</v>
+        <v>-102.08068846158218</v>
       </c>
       <c r="JA1">
-        <v>-101.98349965937294</v>
+        <v>-101.98349965937292</v>
       </c>
       <c r="JB1">
-        <v>-101.86050169159135</v>
+        <v>-101.86050169159134</v>
       </c>
       <c r="JC1">
-        <v>-101.78241461783141</v>
+        <v>-101.78241461783118</v>
       </c>
       <c r="JD1">
-        <v>-101.73112223898107</v>
+        <v>-101.73112223898106</v>
       </c>
       <c r="JE1">
         <v>-101.65396856459103</v>
       </c>
       <c r="JF1">
-        <v>-101.61257288379817</v>
+        <v>-101.61257288379808</v>
       </c>
       <c r="JG1">
-        <v>-101.50916843421182</v>
+        <v>-101.5091684342118</v>
       </c>
       <c r="JH1">
-        <v>-101.45941936339649</v>
+        <v>-101.45941936339653</v>
       </c>
       <c r="JI1">
-        <v>-101.45441872666896</v>
+        <v>-101.45441872666892</v>
       </c>
       <c r="JJ1">
-        <v>-101.49594606253793</v>
+        <v>-101.49594606253797</v>
       </c>
       <c r="JK1">
-        <v>-101.48341723926887</v>
+        <v>-101.48341723926886</v>
       </c>
       <c r="JL1">
-        <v>-101.42476860537542</v>
+        <v>-101.42476860537535</v>
       </c>
       <c r="JM1">
-        <v>-101.34903159768105</v>
+        <v>-101.34903159768102</v>
       </c>
       <c r="JN1">
-        <v>-101.23889229066812</v>
+        <v>-101.23889229066808</v>
       </c>
       <c r="JO1">
-        <v>-101.16494884442724</v>
+        <v>-101.1649488444272</v>
       </c>
       <c r="JP1">
-        <v>-100.96275329439415</v>
+        <v>-100.96275329439412</v>
       </c>
       <c r="JQ1">
-        <v>-100.8559439142563</v>
+        <v>-100.85594391425623</v>
       </c>
       <c r="JR1">
-        <v>-100.8625139966515</v>
+        <v>-100.86251399665146</v>
       </c>
       <c r="JS1">
-        <v>-100.81606952071895</v>
+        <v>-100.81606952071894</v>
       </c>
       <c r="JT1">
-        <v>-100.83057007295787</v>
+        <v>-100.83057007295788</v>
       </c>
       <c r="JU1">
-        <v>-100.68656486066409</v>
+        <v>-100.68656486066406</v>
       </c>
       <c r="JV1">
-        <v>-100.57315773992707</v>
+        <v>-100.57315773992705</v>
       </c>
       <c r="JW1">
-        <v>-100.47738217603737</v>
+        <v>-100.47738217603731</v>
       </c>
       <c r="JX1">
-        <v>-100.38209064631764</v>
+        <v>-100.38209064631762</v>
       </c>
       <c r="JY1">
         <v>-100.27912023574369</v>
       </c>
       <c r="JZ1">
-        <v>-100.14435902382395</v>
+        <v>-100.1443590238239</v>
       </c>
       <c r="KA1">
-        <v>-100.04244389940403</v>
+        <v>-100.04244389940399</v>
       </c>
       <c r="KB1">
-        <v>-100.02812667504082</v>
+        <v>-100.02812667504081</v>
       </c>
       <c r="KC1">
-        <v>-100.00137085795807</v>
+        <v>-100.00137085795799</v>
       </c>
       <c r="KD1">
-        <v>-99.907536350097118</v>
+        <v>-99.907536350097175</v>
       </c>
       <c r="KE1">
-        <v>-99.988652654950016</v>
+        <v>-99.988652654949988</v>
       </c>
       <c r="KF1">
-        <v>-99.848344360464566</v>
+        <v>-99.848344360464594</v>
       </c>
       <c r="KG1">
         <v>-99.847424700996484</v>
       </c>
       <c r="KH1">
-        <v>-99.839255961031284</v>
+        <v>-99.839255961031171</v>
       </c>
       <c r="KI1">
         <v>-99.899986993902303</v>
       </c>
       <c r="KJ1">
-        <v>-99.847788483141514</v>
+        <v>-99.8477884831415</v>
       </c>
       <c r="KK1">
-        <v>-99.796981963284424</v>
+        <v>-99.796981963284395</v>
       </c>
       <c r="KL1">
-        <v>-99.687608289880004</v>
+        <v>-99.687608289880046</v>
       </c>
       <c r="KM1">
-        <v>-99.589040761380815</v>
+        <v>-99.589040761380872</v>
       </c>
       <c r="KN1">
-        <v>-99.579131466938719</v>
+        <v>-99.579131466938733</v>
       </c>
       <c r="KO1">
         <v>-99.447660157939779</v>
       </c>
       <c r="KP1">
-        <v>-99.445502747233476</v>
+        <v>-99.445502747233419</v>
       </c>
       <c r="KQ1">
-        <v>-99.323157333939179</v>
+        <v>-99.323157333939136</v>
       </c>
       <c r="KR1">
         <v>-99.23502720041779</v>
       </c>
       <c r="KS1">
-        <v>-99.116100278752256</v>
+        <v>-99.116100278752157</v>
       </c>
       <c r="KT1">
-        <v>-99.051713054585548</v>
+        <v>-99.051713054585477</v>
       </c>
       <c r="KU1">
-        <v>-98.972649105072364</v>
+        <v>-98.972649105072421</v>
       </c>
       <c r="KV1">
-        <v>-98.96380981031524</v>
+        <v>-98.963809810315226</v>
       </c>
       <c r="KW1">
-        <v>-98.925088207604233</v>
+        <v>-98.925088207604176</v>
       </c>
       <c r="KX1">
-        <v>-98.830099355533704</v>
+        <v>-98.830099355533733</v>
       </c>
       <c r="KY1">
-        <v>-98.689377627421308</v>
+        <v>-98.689377627421294</v>
       </c>
       <c r="KZ1">
-        <v>-98.679289639419594</v>
+        <v>-98.67928963941965</v>
       </c>
       <c r="LA1">
         <v>-98.601988504994367</v>
       </c>
       <c r="LB1">
-        <v>-98.486264394221863</v>
+        <v>-98.486264394221791</v>
       </c>
       <c r="LC1">
-        <v>-98.402339267104892</v>
+        <v>-98.402339267104793</v>
       </c>
       <c r="LD1">
-        <v>-98.273557686198785</v>
+        <v>-98.273557686198799</v>
       </c>
       <c r="LE1">
         <v>-98.102522302764342</v>
       </c>
       <c r="LF1">
-        <v>-97.921435069469439</v>
+        <v>-97.92143506946941</v>
       </c>
       <c r="LG1">
-        <v>-97.827822240250612</v>
+        <v>-97.827822240250597</v>
       </c>
       <c r="LH1">
-        <v>-97.647676325243012</v>
+        <v>-97.647676325242998</v>
       </c>
       <c r="LI1">
-        <v>-97.575064604396459</v>
+        <v>-97.575064604396388</v>
       </c>
       <c r="LJ1">
-        <v>-97.423166895229826</v>
+        <v>-97.423166895229755</v>
       </c>
       <c r="LK1">
-        <v>-97.239051329422253</v>
+        <v>-97.239051329422182</v>
       </c>
       <c r="LL1">
-        <v>-97.045702031939484</v>
+        <v>-97.045702031939499</v>
       </c>
       <c r="LM1">
-        <v>-96.902895315100551</v>
+        <v>-96.902895315100508</v>
       </c>
       <c r="LN1">
-        <v>-96.761536710415584</v>
+        <v>-96.761536710415541</v>
       </c>
       <c r="LO1">
-        <v>-96.576932151454841</v>
+        <v>-96.576932151454756</v>
       </c>
       <c r="LP1">
-        <v>-96.382756422048615</v>
+        <v>-96.382756422048629</v>
       </c>
       <c r="LQ1">
-        <v>-96.17986422012946</v>
+        <v>-96.179864220129431</v>
       </c>
       <c r="LR1">
-        <v>-95.995028792739021</v>
+        <v>-95.995028792738935</v>
       </c>
       <c r="LS1">
-        <v>-95.821294007861397</v>
+        <v>-95.821294007861297</v>
       </c>
       <c r="LT1">
-        <v>-95.6379664433545</v>
+        <v>-95.6379664433546</v>
       </c>
       <c r="LU1">
-        <v>-95.434600366902572</v>
+        <v>-95.434600366902501</v>
       </c>
       <c r="LV1">
-        <v>-95.248072278880741</v>
+        <v>-95.248072278880684</v>
       </c>
       <c r="LW1">
-        <v>-95.052717802309061</v>
+        <v>-95.052717802309019</v>
       </c>
       <c r="LX1">
-        <v>-94.863148281379267</v>
+        <v>-94.863148281379225</v>
       </c>
       <c r="LY1">
-        <v>-94.67440894821388</v>
+        <v>-94.674408948213809</v>
       </c>
       <c r="LZ1">
-        <v>-94.477284603112977</v>
+        <v>-94.477284603112935</v>
       </c>
       <c r="MA1">
-        <v>-94.272722127692106</v>
+        <v>-94.272722127692049</v>
       </c>
       <c r="MB1">
-        <v>-94.06628950153771</v>
+        <v>-94.066289501537696</v>
       </c>
       <c r="MC1">
         <v>-93.861910666281744</v>
@@ -1484,10 +1488,10 @@
         <v>-93.674489301509666</v>
       </c>
       <c r="ME1">
-        <v>-93.501612396231053</v>
+        <v>-93.501612396231039</v>
       </c>
       <c r="MF1">
-        <v>-93.309606523702129</v>
+        <v>-93.309606523702172</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/logL_tmp_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -66,11 +66,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -102,6 +104,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,7 +122,7 @@
     <col min="2" max="2" width="12.42578125" customWidth="true"/>
     <col min="3" max="3" width="12.42578125" customWidth="true"/>
     <col min="4" max="4" width="12.42578125" customWidth="true"/>
-    <col min="5" max="5" width="11.42578125" customWidth="true"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.42578125" customWidth="true"/>
     <col min="7" max="7" width="12.42578125" customWidth="true"/>
     <col min="8" max="8" width="12.42578125" customWidth="true"/>
@@ -130,24 +134,24 @@
     <col min="14" max="14" width="12.42578125" customWidth="true"/>
     <col min="15" max="15" width="12.42578125" customWidth="true"/>
     <col min="16" max="16" width="12.42578125" customWidth="true"/>
-    <col min="17" max="17" width="11.42578125" customWidth="true"/>
+    <col min="17" max="17" width="12.42578125" customWidth="true"/>
     <col min="18" max="18" width="12.42578125" customWidth="true"/>
     <col min="19" max="19" width="12.42578125" customWidth="true"/>
-    <col min="20" max="20" width="12.42578125" customWidth="true"/>
+    <col min="20" max="20" width="11.42578125" customWidth="true"/>
     <col min="21" max="21" width="12.42578125" customWidth="true"/>
-    <col min="22" max="22" width="11.42578125" customWidth="true"/>
+    <col min="22" max="22" width="12.42578125" customWidth="true"/>
     <col min="23" max="23" width="12.42578125" customWidth="true"/>
     <col min="24" max="24" width="12.42578125" customWidth="true"/>
     <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="12.42578125" customWidth="true"/>
     <col min="27" max="27" width="12.42578125" customWidth="true"/>
-    <col min="28" max="28" width="11.42578125" customWidth="true"/>
+    <col min="28" max="28" width="12.42578125" customWidth="true"/>
     <col min="29" max="29" width="12.42578125" customWidth="true"/>
     <col min="30" max="30" width="12.42578125" customWidth="true"/>
     <col min="31" max="31" width="12.42578125" customWidth="true"/>
     <col min="32" max="32" width="12.42578125" customWidth="true"/>
     <col min="33" max="33" width="12.42578125" customWidth="true"/>
-    <col min="34" max="34" width="12.42578125" customWidth="true"/>
+    <col min="34" max="34" width="11.42578125" customWidth="true"/>
     <col min="35" max="35" width="12.42578125" customWidth="true"/>
     <col min="36" max="36" width="12.42578125" customWidth="true"/>
     <col min="37" max="37" width="12.42578125" customWidth="true"/>
@@ -158,18 +162,18 @@
     <col min="42" max="42" width="12.42578125" customWidth="true"/>
     <col min="43" max="43" width="12.42578125" customWidth="true"/>
     <col min="44" max="44" width="12.42578125" customWidth="true"/>
-    <col min="45" max="45" width="12.42578125" customWidth="true"/>
+    <col min="45" max="45" width="11.42578125" customWidth="true"/>
     <col min="46" max="46" width="12.42578125" customWidth="true"/>
-    <col min="47" max="47" width="10.42578125" customWidth="true"/>
+    <col min="47" max="47" width="12.42578125" customWidth="true"/>
     <col min="48" max="48" width="12.42578125" customWidth="true"/>
     <col min="49" max="49" width="12.42578125" customWidth="true"/>
     <col min="50" max="50" width="12.42578125" customWidth="true"/>
-    <col min="51" max="51" width="11.42578125" customWidth="true"/>
+    <col min="51" max="51" width="12.42578125" customWidth="true"/>
     <col min="52" max="52" width="12.42578125" customWidth="true"/>
     <col min="53" max="53" width="12.42578125" customWidth="true"/>
-    <col min="54" max="54" width="11.42578125" customWidth="true"/>
+    <col min="54" max="54" width="12.42578125" customWidth="true"/>
     <col min="55" max="55" width="12.42578125" customWidth="true"/>
-    <col min="56" max="56" width="11.42578125" customWidth="true"/>
+    <col min="56" max="56" width="12.42578125" customWidth="true"/>
     <col min="57" max="57" width="12.42578125" customWidth="true"/>
     <col min="58" max="58" width="12.42578125" customWidth="true"/>
     <col min="59" max="59" width="12.42578125" customWidth="true"/>
@@ -184,7 +188,7 @@
     <col min="68" max="68" width="12.42578125" customWidth="true"/>
     <col min="69" max="69" width="12.42578125" customWidth="true"/>
     <col min="70" max="70" width="12.42578125" customWidth="true"/>
-    <col min="71" max="71" width="11.42578125" customWidth="true"/>
+    <col min="71" max="71" width="12.42578125" customWidth="true"/>
     <col min="72" max="72" width="12.42578125" customWidth="true"/>
     <col min="73" max="73" width="12.42578125" customWidth="true"/>
     <col min="74" max="74" width="12.42578125" customWidth="true"/>
@@ -200,20 +204,20 @@
     <col min="84" max="84" width="12.42578125" customWidth="true"/>
     <col min="85" max="85" width="12.42578125" customWidth="true"/>
     <col min="86" max="86" width="12.42578125" customWidth="true"/>
-    <col min="87" max="87" width="11.42578125" customWidth="true"/>
+    <col min="87" max="87" width="12.42578125" customWidth="true"/>
     <col min="88" max="88" width="12.42578125" customWidth="true"/>
-    <col min="89" max="89" width="11.42578125" customWidth="true"/>
+    <col min="89" max="89" width="12.42578125" customWidth="true"/>
     <col min="90" max="90" width="12.42578125" customWidth="true"/>
     <col min="91" max="91" width="12.42578125" customWidth="true"/>
     <col min="92" max="92" width="12.42578125" customWidth="true"/>
-    <col min="93" max="93" width="10.42578125" customWidth="true"/>
+    <col min="93" max="93" width="12.42578125" customWidth="true"/>
     <col min="94" max="94" width="12.42578125" customWidth="true"/>
     <col min="95" max="95" width="12.42578125" customWidth="true"/>
     <col min="96" max="96" width="12.42578125" customWidth="true"/>
     <col min="97" max="97" width="12.42578125" customWidth="true"/>
-    <col min="98" max="98" width="10.42578125" customWidth="true"/>
+    <col min="98" max="98" width="12.42578125" customWidth="true"/>
     <col min="99" max="99" width="12.42578125" customWidth="true"/>
-    <col min="100" max="100" width="12.42578125" customWidth="true"/>
+    <col min="100" max="100" width="11.42578125" customWidth="true"/>
     <col min="101" max="101" width="12.42578125" customWidth="true"/>
     <col min="102" max="102" width="12.42578125" customWidth="true"/>
     <col min="103" max="103" width="12.42578125" customWidth="true"/>
@@ -230,21 +234,21 @@
     <col min="114" max="114" width="12.42578125" customWidth="true"/>
     <col min="115" max="115" width="12.42578125" customWidth="true"/>
     <col min="116" max="116" width="12.42578125" customWidth="true"/>
-    <col min="117" max="117" width="12.42578125" customWidth="true"/>
-    <col min="118" max="118" width="11.42578125" customWidth="true"/>
+    <col min="117" max="117" width="11.42578125" customWidth="true"/>
+    <col min="118" max="118" width="12.42578125" customWidth="true"/>
     <col min="119" max="119" width="12.42578125" customWidth="true"/>
     <col min="120" max="120" width="12.42578125" customWidth="true"/>
-    <col min="121" max="121" width="11.42578125" customWidth="true"/>
+    <col min="121" max="121" width="12.42578125" customWidth="true"/>
     <col min="122" max="122" width="12.42578125" customWidth="true"/>
     <col min="123" max="123" width="12.42578125" customWidth="true"/>
-    <col min="124" max="124" width="12.42578125" customWidth="true"/>
+    <col min="124" max="124" width="11.42578125" customWidth="true"/>
     <col min="125" max="125" width="12.42578125" customWidth="true"/>
     <col min="126" max="126" width="11.42578125" customWidth="true"/>
-    <col min="127" max="127" width="12.42578125" customWidth="true"/>
+    <col min="127" max="127" width="11.42578125" customWidth="true"/>
     <col min="128" max="128" width="12.42578125" customWidth="true"/>
     <col min="129" max="129" width="12.42578125" customWidth="true"/>
     <col min="130" max="130" width="12.42578125" customWidth="true"/>
-    <col min="131" max="131" width="12.42578125" customWidth="true"/>
+    <col min="131" max="131" width="11.42578125" customWidth="true"/>
     <col min="132" max="132" width="12.42578125" customWidth="true"/>
     <col min="133" max="133" width="12.42578125" customWidth="true"/>
     <col min="134" max="134" width="12.42578125" customWidth="true"/>
@@ -253,8 +257,8 @@
     <col min="137" max="137" width="12.42578125" customWidth="true"/>
     <col min="138" max="138" width="12.42578125" customWidth="true"/>
     <col min="139" max="139" width="12.42578125" customWidth="true"/>
-    <col min="140" max="140" width="11.42578125" customWidth="true"/>
-    <col min="141" max="141" width="12.42578125" customWidth="true"/>
+    <col min="140" max="140" width="12.42578125" customWidth="true"/>
+    <col min="141" max="141" width="11.42578125" customWidth="true"/>
     <col min="142" max="142" width="12.42578125" customWidth="true"/>
     <col min="143" max="143" width="12.42578125" customWidth="true"/>
     <col min="144" max="144" width="12.42578125" customWidth="true"/>
@@ -262,7 +266,7 @@
     <col min="146" max="146" width="12.42578125" customWidth="true"/>
     <col min="147" max="147" width="12.42578125" customWidth="true"/>
     <col min="148" max="148" width="12.42578125" customWidth="true"/>
-    <col min="149" max="149" width="12.42578125" customWidth="true"/>
+    <col min="149" max="149" width="11.42578125" customWidth="true"/>
     <col min="150" max="150" width="12.42578125" customWidth="true"/>
     <col min="151" max="151" width="12.42578125" customWidth="true"/>
     <col min="152" max="152" width="12.42578125" customWidth="true"/>
@@ -278,12 +282,12 @@
     <col min="162" max="162" width="12.42578125" customWidth="true"/>
     <col min="163" max="163" width="12.42578125" customWidth="true"/>
     <col min="164" max="164" width="12.42578125" customWidth="true"/>
-    <col min="165" max="165" width="12.42578125" customWidth="true"/>
+    <col min="165" max="165" width="11.42578125" customWidth="true"/>
     <col min="166" max="166" width="12.42578125" customWidth="true"/>
     <col min="167" max="167" width="12.42578125" customWidth="true"/>
     <col min="168" max="168" width="12.42578125" customWidth="true"/>
     <col min="169" max="169" width="12.42578125" customWidth="true"/>
-    <col min="170" max="170" width="12.42578125" customWidth="true"/>
+    <col min="170" max="170" width="11.42578125" customWidth="true"/>
     <col min="171" max="171" width="12.42578125" customWidth="true"/>
     <col min="172" max="172" width="12.42578125" customWidth="true"/>
     <col min="173" max="173" width="12.42578125" customWidth="true"/>
@@ -291,26 +295,26 @@
     <col min="175" max="175" width="12.42578125" customWidth="true"/>
     <col min="176" max="176" width="12.42578125" customWidth="true"/>
     <col min="177" max="177" width="12.42578125" customWidth="true"/>
-    <col min="178" max="178" width="11.42578125" customWidth="true"/>
-    <col min="179" max="179" width="11.42578125" customWidth="true"/>
+    <col min="178" max="178" width="12.42578125" customWidth="true"/>
+    <col min="179" max="179" width="12.42578125" customWidth="true"/>
     <col min="180" max="180" width="12.42578125" customWidth="true"/>
-    <col min="181" max="181" width="11.42578125" customWidth="true"/>
+    <col min="181" max="181" width="12.42578125" customWidth="true"/>
     <col min="182" max="182" width="12.42578125" customWidth="true"/>
     <col min="183" max="183" width="12.42578125" customWidth="true"/>
     <col min="184" max="184" width="12.42578125" customWidth="true"/>
     <col min="185" max="185" width="12.42578125" customWidth="true"/>
-    <col min="186" max="186" width="12.42578125" customWidth="true"/>
-    <col min="187" max="187" width="11.42578125" customWidth="true"/>
-    <col min="188" max="188" width="11.42578125" customWidth="true"/>
+    <col min="186" max="186" width="10.42578125" customWidth="true"/>
+    <col min="187" max="187" width="12.42578125" customWidth="true"/>
+    <col min="188" max="188" width="12.42578125" customWidth="true"/>
     <col min="189" max="189" width="12.42578125" customWidth="true"/>
-    <col min="190" max="190" width="12.42578125" customWidth="true"/>
-    <col min="191" max="191" width="12.42578125" customWidth="true"/>
+    <col min="190" max="190" width="11.42578125" customWidth="true"/>
+    <col min="191" max="191" width="10.42578125" customWidth="true"/>
     <col min="192" max="192" width="12.42578125" customWidth="true"/>
-    <col min="193" max="193" width="12.42578125" customWidth="true"/>
+    <col min="193" max="193" width="11.42578125" customWidth="true"/>
     <col min="194" max="194" width="12.42578125" customWidth="true"/>
     <col min="195" max="195" width="12.42578125" customWidth="true"/>
     <col min="196" max="196" width="12.42578125" customWidth="true"/>
-    <col min="197" max="197" width="11.42578125" customWidth="true"/>
+    <col min="197" max="197" width="12.42578125" customWidth="true"/>
     <col min="198" max="198" width="12.42578125" customWidth="true"/>
     <col min="199" max="199" width="12.42578125" customWidth="true"/>
     <col min="200" max="200" width="12.42578125" customWidth="true"/>
@@ -327,16 +331,16 @@
     <col min="211" max="211" width="12.42578125" customWidth="true"/>
     <col min="212" max="212" width="12.42578125" customWidth="true"/>
     <col min="213" max="213" width="12.42578125" customWidth="true"/>
-    <col min="214" max="214" width="12.42578125" customWidth="true"/>
+    <col min="214" max="214" width="11.42578125" customWidth="true"/>
     <col min="215" max="215" width="12.42578125" customWidth="true"/>
     <col min="216" max="216" width="12.42578125" customWidth="true"/>
     <col min="217" max="217" width="12.42578125" customWidth="true"/>
     <col min="218" max="218" width="12.42578125" customWidth="true"/>
     <col min="219" max="219" width="12.42578125" customWidth="true"/>
     <col min="220" max="220" width="11.42578125" customWidth="true"/>
-    <col min="221" max="221" width="11.42578125" customWidth="true"/>
+    <col min="221" max="221" width="12.42578125" customWidth="true"/>
     <col min="222" max="222" width="12.42578125" customWidth="true"/>
-    <col min="223" max="223" width="12.42578125" customWidth="true"/>
+    <col min="223" max="223" width="11.42578125" customWidth="true"/>
     <col min="224" max="224" width="12.42578125" customWidth="true"/>
     <col min="225" max="225" width="12.42578125" customWidth="true"/>
     <col min="226" max="226" width="12.42578125" customWidth="true"/>
@@ -344,17 +348,17 @@
     <col min="228" max="228" width="12.42578125" customWidth="true"/>
     <col min="229" max="229" width="12.42578125" customWidth="true"/>
     <col min="230" max="230" width="12.42578125" customWidth="true"/>
-    <col min="231" max="231" width="12.42578125" customWidth="true"/>
+    <col min="231" max="231" width="11.42578125" customWidth="true"/>
     <col min="232" max="232" width="12.42578125" customWidth="true"/>
     <col min="233" max="233" width="12.42578125" customWidth="true"/>
-    <col min="234" max="234" width="12.42578125" customWidth="true"/>
+    <col min="234" max="234" width="11.42578125" customWidth="true"/>
     <col min="235" max="235" width="12.42578125" customWidth="true"/>
     <col min="236" max="236" width="12.42578125" customWidth="true"/>
     <col min="237" max="237" width="12.42578125" customWidth="true"/>
     <col min="238" max="238" width="12.42578125" customWidth="true"/>
     <col min="239" max="239" width="12.42578125" customWidth="true"/>
     <col min="240" max="240" width="12.42578125" customWidth="true"/>
-    <col min="241" max="241" width="12.42578125" customWidth="true"/>
+    <col min="241" max="241" width="11.42578125" customWidth="true"/>
     <col min="242" max="242" width="12.42578125" customWidth="true"/>
     <col min="243" max="243" width="12.42578125" customWidth="true"/>
     <col min="244" max="244" width="12.42578125" customWidth="true"/>
@@ -368,7 +372,7 @@
     <col min="252" max="252" width="12.42578125" customWidth="true"/>
     <col min="253" max="253" width="12.42578125" customWidth="true"/>
     <col min="254" max="254" width="12.42578125" customWidth="true"/>
-    <col min="255" max="255" width="11.42578125" customWidth="true"/>
+    <col min="255" max="255" width="12.42578125" customWidth="true"/>
     <col min="256" max="256" width="12.42578125" customWidth="true"/>
     <col min="257" max="257" width="12.42578125" customWidth="true"/>
     <col min="258" max="258" width="12.42578125" customWidth="true"/>
@@ -376,22 +380,22 @@
     <col min="260" max="260" width="12.42578125" customWidth="true"/>
     <col min="261" max="261" width="12.42578125" customWidth="true"/>
     <col min="262" max="262" width="12.42578125" customWidth="true"/>
-    <col min="263" max="263" width="12.42578125" customWidth="true"/>
+    <col min="263" max="263" width="11.42578125" customWidth="true"/>
     <col min="264" max="264" width="12.42578125" customWidth="true"/>
     <col min="265" max="265" width="12.42578125" customWidth="true"/>
     <col min="266" max="266" width="12.42578125" customWidth="true"/>
     <col min="267" max="267" width="12.42578125" customWidth="true"/>
     <col min="268" max="268" width="12.42578125" customWidth="true"/>
-    <col min="269" max="269" width="12.42578125" customWidth="true"/>
-    <col min="270" max="270" width="12.42578125" customWidth="true"/>
-    <col min="271" max="271" width="12.42578125" customWidth="true"/>
+    <col min="269" max="269" width="11.42578125" customWidth="true"/>
+    <col min="270" max="270" width="10.42578125" customWidth="true"/>
+    <col min="271" max="271" width="11.42578125" customWidth="true"/>
     <col min="272" max="272" width="12.42578125" customWidth="true"/>
     <col min="273" max="273" width="12.42578125" customWidth="true"/>
     <col min="274" max="274" width="12.42578125" customWidth="true"/>
-    <col min="275" max="275" width="12.42578125" customWidth="true"/>
+    <col min="275" max="275" width="11.42578125" customWidth="true"/>
     <col min="276" max="276" width="12.42578125" customWidth="true"/>
     <col min="277" max="277" width="12.42578125" customWidth="true"/>
-    <col min="278" max="278" width="11.42578125" customWidth="true"/>
+    <col min="278" max="278" width="12.42578125" customWidth="true"/>
     <col min="279" max="279" width="12.42578125" customWidth="true"/>
     <col min="280" max="280" width="12.42578125" customWidth="true"/>
     <col min="281" max="281" width="12.42578125" customWidth="true"/>
@@ -399,14 +403,14 @@
     <col min="283" max="283" width="12.42578125" customWidth="true"/>
     <col min="284" max="284" width="12.42578125" customWidth="true"/>
     <col min="285" max="285" width="12.42578125" customWidth="true"/>
-    <col min="286" max="286" width="11.42578125" customWidth="true"/>
+    <col min="286" max="286" width="12.42578125" customWidth="true"/>
     <col min="287" max="287" width="12.42578125" customWidth="true"/>
     <col min="288" max="288" width="12.42578125" customWidth="true"/>
     <col min="289" max="289" width="12.42578125" customWidth="true"/>
     <col min="290" max="290" width="12.42578125" customWidth="true"/>
     <col min="291" max="291" width="12.42578125" customWidth="true"/>
     <col min="292" max="292" width="12.42578125" customWidth="true"/>
-    <col min="293" max="293" width="11.42578125" customWidth="true"/>
+    <col min="293" max="293" width="12.42578125" customWidth="true"/>
     <col min="294" max="294" width="12.42578125" customWidth="true"/>
     <col min="295" max="295" width="12.42578125" customWidth="true"/>
     <col min="296" max="296" width="12.42578125" customWidth="true"/>
@@ -417,7 +421,7 @@
     <col min="301" max="301" width="12.42578125" customWidth="true"/>
     <col min="302" max="302" width="12.42578125" customWidth="true"/>
     <col min="303" max="303" width="12.42578125" customWidth="true"/>
-    <col min="304" max="304" width="11.42578125" customWidth="true"/>
+    <col min="304" max="304" width="12.42578125" customWidth="true"/>
     <col min="305" max="305" width="12.42578125" customWidth="true"/>
     <col min="306" max="306" width="12.42578125" customWidth="true"/>
     <col min="307" max="307" width="12.42578125" customWidth="true"/>
@@ -426,16 +430,16 @@
     <col min="310" max="310" width="12.42578125" customWidth="true"/>
     <col min="311" max="311" width="12.42578125" customWidth="true"/>
     <col min="312" max="312" width="12.42578125" customWidth="true"/>
-    <col min="313" max="313" width="11.42578125" customWidth="true"/>
+    <col min="313" max="313" width="12.42578125" customWidth="true"/>
     <col min="314" max="314" width="12.42578125" customWidth="true"/>
     <col min="315" max="315" width="12.42578125" customWidth="true"/>
     <col min="316" max="316" width="12.42578125" customWidth="true"/>
-    <col min="317" max="317" width="11.42578125" customWidth="true"/>
+    <col min="317" max="317" width="12.42578125" customWidth="true"/>
     <col min="318" max="318" width="12.42578125" customWidth="true"/>
     <col min="319" max="319" width="12.42578125" customWidth="true"/>
     <col min="320" max="320" width="12.42578125" customWidth="true"/>
-    <col min="321" max="321" width="11.42578125" customWidth="true"/>
-    <col min="322" max="322" width="11.42578125" customWidth="true"/>
+    <col min="321" max="321" width="12.42578125" customWidth="true"/>
+    <col min="322" max="322" width="12.42578125" customWidth="true"/>
     <col min="323" max="323" width="12.42578125" customWidth="true"/>
     <col min="324" max="324" width="12.42578125" customWidth="true"/>
     <col min="325" max="325" width="12.42578125" customWidth="true"/>
@@ -443,1055 +447,1055 @@
     <col min="327" max="327" width="12.42578125" customWidth="true"/>
     <col min="328" max="328" width="12.42578125" customWidth="true"/>
     <col min="329" max="329" width="12.42578125" customWidth="true"/>
-    <col min="330" max="330" width="12.42578125" customWidth="true"/>
+    <col min="330" max="330" width="11.42578125" customWidth="true"/>
     <col min="331" max="331" width="12.42578125" customWidth="true"/>
     <col min="332" max="332" width="12.42578125" customWidth="true"/>
     <col min="333" max="333" width="12.42578125" customWidth="true"/>
     <col min="334" max="334" width="12.42578125" customWidth="true"/>
-    <col min="335" max="335" width="11.42578125" customWidth="true"/>
+    <col min="335" max="335" width="12.42578125" customWidth="true"/>
     <col min="336" max="336" width="12.42578125" customWidth="true"/>
     <col min="337" max="337" width="12.42578125" customWidth="true"/>
-    <col min="338" max="338" width="11.42578125" customWidth="true"/>
+    <col min="338" max="338" width="12.42578125" customWidth="true"/>
     <col min="339" max="339" width="12.42578125" customWidth="true"/>
-    <col min="340" max="340" width="11.42578125" customWidth="true"/>
+    <col min="340" max="340" width="12.42578125" customWidth="true"/>
     <col min="341" max="341" width="12.42578125" customWidth="true"/>
-    <col min="342" max="342" width="11.42578125" customWidth="true"/>
-    <col min="343" max="343" width="11.42578125" customWidth="true"/>
-    <col min="344" max="344" width="12.42578125" customWidth="true"/>
+    <col min="342" max="342" width="12.42578125" customWidth="true"/>
+    <col min="343" max="343" width="12.42578125" customWidth="true"/>
+    <col min="344" max="344" width="11.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>-34.998622575521487</v>
+        <v>-35.001005569034781</v>
       </c>
       <c r="B1">
-        <v>-34.727486038700761</v>
+        <v>-34.728930277144293</v>
       </c>
       <c r="C1">
-        <v>-34.435142591779936</v>
+        <v>-34.436710644090496</v>
       </c>
       <c r="D1">
-        <v>-34.159473083168713</v>
+        <v>-34.160885750765473</v>
       </c>
       <c r="E1">
-        <v>-33.878886197201389</v>
+        <v>-33.880089783674045</v>
       </c>
       <c r="F1">
-        <v>-33.636165414354444</v>
+        <v>-33.637155691545651</v>
       </c>
       <c r="G1">
-        <v>-33.394909826788208</v>
+        <v>-33.395870187585409</v>
       </c>
       <c r="H1">
-        <v>-33.13263195263935</v>
+        <v>-33.133772611880786</v>
       </c>
       <c r="I1">
-        <v>-32.88748126682983</v>
+        <v>-32.888615016827067</v>
       </c>
       <c r="J1">
-        <v>-32.624200369779615</v>
+        <v>-32.625437312972693</v>
       </c>
       <c r="K1">
-        <v>-32.412617725129572</v>
+        <v>-32.416983788736019</v>
       </c>
       <c r="L1">
-        <v>-32.189842851520893</v>
+        <v>-32.194053623201249</v>
       </c>
       <c r="M1">
-        <v>-31.995387519912398</v>
+        <v>-31.999584712449799</v>
       </c>
       <c r="N1">
-        <v>-31.750891738851358</v>
+        <v>-31.754810189406264</v>
       </c>
       <c r="O1">
-        <v>-31.537931371037075</v>
+        <v>-31.54178801246994</v>
       </c>
       <c r="P1">
-        <v>-31.304729633450371</v>
+        <v>-31.308889571650639</v>
       </c>
       <c r="Q1">
-        <v>-31.066840199276601</v>
+        <v>-31.071502955418342</v>
       </c>
       <c r="R1">
-        <v>-30.851884112623907</v>
+        <v>-30.8572560322466</v>
       </c>
       <c r="S1">
-        <v>-30.631238293324767</v>
+        <v>-30.6359374607257</v>
       </c>
       <c r="T1">
-        <v>-30.414035215224406</v>
+        <v>-30.4185354027362</v>
       </c>
       <c r="U1">
-        <v>-30.208702764586697</v>
+        <v>-30.213136207515671</v>
       </c>
       <c r="V1">
-        <v>-30.025695900102882</v>
+        <v>-30.029686851451299</v>
       </c>
       <c r="W1">
-        <v>-29.8027101278246</v>
+        <v>-29.807215385722714</v>
       </c>
       <c r="X1">
-        <v>-29.615051241595026</v>
+        <v>-29.619127928673208</v>
       </c>
       <c r="Y1">
-        <v>-29.462471868263197</v>
+        <v>-29.469515290914487</v>
       </c>
       <c r="Z1">
-        <v>-29.229642080468015</v>
+        <v>-29.234358458417972</v>
       </c>
       <c r="AA1">
-        <v>-29.058942323385519</v>
+        <v>-29.064146494754688</v>
       </c>
       <c r="AB1">
-        <v>-28.904774702215342</v>
+        <v>-28.9098590063529</v>
       </c>
       <c r="AC1">
-        <v>-28.730368435208796</v>
+        <v>-28.735547622332856</v>
       </c>
       <c r="AD1">
-        <v>-28.535795632020278</v>
+        <v>-28.541438869955758</v>
       </c>
       <c r="AE1">
-        <v>-28.356743778307187</v>
+        <v>-28.362435821457108</v>
       </c>
       <c r="AF1">
-        <v>-28.170485176149356</v>
+        <v>-28.174532029107976</v>
       </c>
       <c r="AG1">
-        <v>-27.987544267546987</v>
+        <v>-27.991250587218612</v>
       </c>
       <c r="AH1">
-        <v>-27.84834693099755</v>
+        <v>-27.852208501438458</v>
       </c>
       <c r="AI1">
-        <v>-27.642026079106255</v>
+        <v>-27.646241051267655</v>
       </c>
       <c r="AJ1">
-        <v>-27.474361325559457</v>
+        <v>-27.478414291233065</v>
       </c>
       <c r="AK1">
-        <v>-27.282977951129293</v>
+        <v>-27.287775136158867</v>
       </c>
       <c r="AL1">
-        <v>-27.111792405453929</v>
+        <v>-27.116344708063394</v>
       </c>
       <c r="AM1">
-        <v>-26.963659893347025</v>
+        <v>-26.972731972084524</v>
       </c>
       <c r="AN1">
-        <v>-26.775697236114915</v>
+        <v>-26.782874510302111</v>
       </c>
       <c r="AO1">
-        <v>-26.624582038702425</v>
+        <v>-26.632131754704645</v>
       </c>
       <c r="AP1">
-        <v>-26.469582118304711</v>
+        <v>-26.477094609233866</v>
       </c>
       <c r="AQ1">
-        <v>-26.351693040146912</v>
+        <v>-26.358924787168181</v>
       </c>
       <c r="AR1">
-        <v>-26.286653327688789</v>
+        <v>-26.293112155476159</v>
       </c>
       <c r="AS1">
-        <v>-26.19256967697174</v>
+        <v>-26.198994597531478</v>
       </c>
       <c r="AT1">
-        <v>-26.073155686606313</v>
+        <v>-26.07766955219515</v>
       </c>
       <c r="AU1">
-        <v>-25.943828001916138</v>
+        <v>-25.947699358326634</v>
       </c>
       <c r="AV1">
-        <v>-25.898143211943349</v>
+        <v>-25.902588392908211</v>
       </c>
       <c r="AW1">
-        <v>-25.876384606243541</v>
+        <v>-25.881231112863027</v>
       </c>
       <c r="AX1">
-        <v>-25.81441023966563</v>
+        <v>-25.819233814919372</v>
       </c>
       <c r="AY1">
-        <v>-25.838362901784162</v>
+        <v>-25.842841544011602</v>
       </c>
       <c r="AZ1">
-        <v>-25.760256934602197</v>
+        <v>-25.764922760724556</v>
       </c>
       <c r="BA1">
-        <v>-25.728562246787661</v>
+        <v>-25.733533345234104</v>
       </c>
       <c r="BB1">
-        <v>-25.711844704808534</v>
+        <v>-25.717013410668606</v>
       </c>
       <c r="BC1">
-        <v>-25.79821982725079</v>
+        <v>-25.803599884925234</v>
       </c>
       <c r="BD1">
-        <v>-25.764737495775137</v>
+        <v>-25.770190082252768</v>
       </c>
       <c r="BE1">
-        <v>-25.748786259181564</v>
+        <v>-25.754231715889773</v>
       </c>
       <c r="BF1">
-        <v>-25.881487080242128</v>
+        <v>-25.886217557484276</v>
       </c>
       <c r="BG1">
-        <v>-25.943365955786128</v>
+        <v>-25.948053680256528</v>
       </c>
       <c r="BH1">
-        <v>-26.036930506518392</v>
+        <v>-26.042074328797426</v>
       </c>
       <c r="BI1">
-        <v>-26.015465606522177</v>
+        <v>-26.019956463138829</v>
       </c>
       <c r="BJ1">
-        <v>-26.151132659278279</v>
+        <v>-26.155833976811135</v>
       </c>
       <c r="BK1">
-        <v>-26.324372682528416</v>
+        <v>-26.32893221613174</v>
       </c>
       <c r="BL1">
-        <v>-26.363795634320013</v>
+        <v>-26.368481713718978</v>
       </c>
       <c r="BM1">
-        <v>-26.308159279439259</v>
+        <v>-26.313167260423963</v>
       </c>
       <c r="BN1">
-        <v>-26.36346872602719</v>
+        <v>-26.368239776894114</v>
       </c>
       <c r="BO1">
-        <v>-26.449796186801578</v>
+        <v>-26.45547323641231</v>
       </c>
       <c r="BP1">
-        <v>-26.427901280463029</v>
+        <v>-26.433164406185636</v>
       </c>
       <c r="BQ1">
-        <v>-26.496902658081225</v>
+        <v>-26.502181643496804</v>
       </c>
       <c r="BR1">
-        <v>-26.61221201270444</v>
+        <v>-26.617300658245345</v>
       </c>
       <c r="BS1">
-        <v>-26.666277401726191</v>
+        <v>-26.671377107901016</v>
       </c>
       <c r="BT1">
-        <v>-26.597037605654254</v>
+        <v>-26.602531591446539</v>
       </c>
       <c r="BU1">
-        <v>-26.675908987895902</v>
+        <v>-26.680961832809139</v>
       </c>
       <c r="BV1">
-        <v>-26.891334477830856</v>
+        <v>-26.900736614819291</v>
       </c>
       <c r="BW1">
-        <v>-26.795991952442858</v>
+        <v>-26.803531907808395</v>
       </c>
       <c r="BX1">
-        <v>-26.803981089103996</v>
+        <v>-26.81145158614266</v>
       </c>
       <c r="BY1">
-        <v>-26.713439549317183</v>
+        <v>-26.720981662046789</v>
       </c>
       <c r="BZ1">
-        <v>-26.70670362160104</v>
+        <v>-26.714043518753464</v>
       </c>
       <c r="CA1">
-        <v>-26.700860636694603</v>
+        <v>-26.708035044670861</v>
       </c>
       <c r="CB1">
-        <v>-26.68209736301716</v>
+        <v>-26.689226194004792</v>
       </c>
       <c r="CC1">
-        <v>-26.794355168434109</v>
+        <v>-26.804817513432006</v>
       </c>
       <c r="CD1">
-        <v>-26.8446246261799</v>
+        <v>-26.855080305820056</v>
       </c>
       <c r="CE1">
-        <v>-26.937438842180324</v>
+        <v>-26.947856473113013</v>
       </c>
       <c r="CF1">
-        <v>-27.015764642828788</v>
+        <v>-27.026075410506937</v>
       </c>
       <c r="CG1">
-        <v>-27.093390235648133</v>
+        <v>-27.103579628399373</v>
       </c>
       <c r="CH1">
-        <v>-27.082843860215721</v>
+        <v>-27.093346617353834</v>
       </c>
       <c r="CI1">
-        <v>-27.19920829911824</v>
+        <v>-27.209680575287837</v>
       </c>
       <c r="CJ1">
-        <v>-27.332724321193616</v>
+        <v>-27.344712613641832</v>
       </c>
       <c r="CK1">
-        <v>-27.377708596271791</v>
+        <v>-27.389142970092902</v>
       </c>
       <c r="CL1">
-        <v>-27.509168930505396</v>
+        <v>-27.521049007766692</v>
       </c>
       <c r="CM1">
-        <v>-27.538189356320899</v>
+        <v>-27.549776166831123</v>
       </c>
       <c r="CN1">
-        <v>-27.695362262558941</v>
+        <v>-27.706997530371261</v>
       </c>
       <c r="CO1">
-        <v>-27.781345002489616</v>
+        <v>-27.792956666489914</v>
       </c>
       <c r="CP1">
-        <v>-27.938934568495529</v>
+        <v>-27.950876053119821</v>
       </c>
       <c r="CQ1">
-        <v>-28.170603786767121</v>
+        <v>-28.184659923811171</v>
       </c>
       <c r="CR1">
-        <v>-28.449981873079167</v>
+        <v>-28.465665483003836</v>
       </c>
       <c r="CS1">
-        <v>-28.651001045458596</v>
+        <v>-28.666572547390938</v>
       </c>
       <c r="CT1">
-        <v>-28.959232996112373</v>
+        <v>-28.974716682181707</v>
       </c>
       <c r="CU1">
-        <v>-29.203385621020185</v>
+        <v>-29.218788233822593</v>
       </c>
       <c r="CV1">
-        <v>-29.555969876084603</v>
+        <v>-29.570835504195738</v>
       </c>
       <c r="CW1">
-        <v>-29.875606387982589</v>
+        <v>-29.890252686305526</v>
       </c>
       <c r="CX1">
-        <v>-30.224882918296121</v>
+        <v>-30.240125192331821</v>
       </c>
       <c r="CY1">
-        <v>-30.587791564514571</v>
+        <v>-30.603345792918226</v>
       </c>
       <c r="CZ1">
-        <v>-31.127488157130639</v>
+        <v>-31.143282876805007</v>
       </c>
       <c r="DA1">
-        <v>-31.601424439777354</v>
+        <v>-31.617048234872474</v>
       </c>
       <c r="DB1">
-        <v>-31.800984446995646</v>
+        <v>-31.817236310781723</v>
       </c>
       <c r="DC1">
-        <v>-31.958008342649801</v>
+        <v>-31.974672618993395</v>
       </c>
       <c r="DD1">
-        <v>-32.271682908345191</v>
+        <v>-32.287963039348732</v>
       </c>
       <c r="DE1">
-        <v>-32.849561741630694</v>
+        <v>-32.871731489106438</v>
       </c>
       <c r="DF1">
-        <v>-33.123871349360655</v>
+        <v>-33.145286412359148</v>
       </c>
       <c r="DG1">
-        <v>-33.590713335111857</v>
+        <v>-33.61219418398408</v>
       </c>
       <c r="DH1">
-        <v>-33.811069913389112</v>
+        <v>-33.832865684158143</v>
       </c>
       <c r="DI1">
-        <v>-34.112020291664372</v>
+        <v>-34.133718313908574</v>
       </c>
       <c r="DJ1">
-        <v>-34.332387320593078</v>
+        <v>-34.354295339311065</v>
       </c>
       <c r="DK1">
-        <v>-34.521300488835308</v>
+        <v>-34.543400310868009</v>
       </c>
       <c r="DL1">
-        <v>-34.977860335558347</v>
+        <v>-35.005492020352357</v>
       </c>
       <c r="DM1">
-        <v>-35.644804620863411</v>
+        <v>-35.676035695317687</v>
       </c>
       <c r="DN1">
-        <v>-36.041060399583095</v>
+        <v>-36.072155232943182</v>
       </c>
       <c r="DO1">
-        <v>-36.369963986643327</v>
+        <v>-36.401178867350801</v>
       </c>
       <c r="DP1">
-        <v>-36.697399680336069</v>
+        <v>-36.728664022289735</v>
       </c>
       <c r="DQ1">
-        <v>-36.866338799296756</v>
+        <v>-36.898360022718983</v>
       </c>
       <c r="DR1">
-        <v>-37.158301615205026</v>
+        <v>-37.190156612607645</v>
       </c>
       <c r="DS1">
-        <v>-37.568131060913217</v>
+        <v>-37.602004554300372</v>
       </c>
       <c r="DT1">
-        <v>-37.839556183790229</v>
+        <v>-37.87259660175264</v>
       </c>
       <c r="DU1">
-        <v>-38.230063532751934</v>
+        <v>-38.263287969912497</v>
       </c>
       <c r="DV1">
-        <v>-38.634049902484776</v>
+        <v>-38.666984501868058</v>
       </c>
       <c r="DW1">
-        <v>-38.758193157405692</v>
+        <v>-38.792104095037033</v>
       </c>
       <c r="DX1">
-        <v>-38.903784231571251</v>
+        <v>-38.938115123930984</v>
       </c>
       <c r="DY1">
-        <v>-39.092652485820217</v>
+        <v>-39.126856120410707</v>
       </c>
       <c r="DZ1">
-        <v>-39.435060357047995</v>
+        <v>-39.472892530325687</v>
       </c>
       <c r="EA1">
-        <v>-39.852168014515165</v>
+        <v>-39.891577201324402</v>
       </c>
       <c r="EB1">
-        <v>-40.330123250099156</v>
+        <v>-40.36990751481315</v>
       </c>
       <c r="EC1">
-        <v>-40.80753420685263</v>
+        <v>-40.847270263882457</v>
       </c>
       <c r="ED1">
-        <v>-41.297561108988411</v>
+        <v>-41.336888735779716</v>
       </c>
       <c r="EE1">
-        <v>-41.954985949602175</v>
+        <v>-41.99291846361151</v>
       </c>
       <c r="EF1">
-        <v>-42.6596250142644</v>
+        <v>-42.697150310287959</v>
       </c>
       <c r="EG1">
-        <v>-43.70048638637342</v>
+        <v>-43.744627484804866</v>
       </c>
       <c r="EH1">
-        <v>-44.277756672522735</v>
+        <v>-44.318997479057089</v>
       </c>
       <c r="EI1">
-        <v>-45.083208565358731</v>
+        <v>-45.124667329864721</v>
       </c>
       <c r="EJ1">
-        <v>-46.278733595009719</v>
+        <v>-46.319017355273949</v>
       </c>
       <c r="EK1">
-        <v>-47.393541721111546</v>
+        <v>-47.432828899798388</v>
       </c>
       <c r="EL1">
-        <v>-48.32942225297397</v>
+        <v>-48.368987565330734</v>
       </c>
       <c r="EM1">
-        <v>-49.564937217772403</v>
+        <v>-49.602858444654814</v>
       </c>
       <c r="EN1">
-        <v>-51.192104240061219</v>
+        <v>-51.235635112916292</v>
       </c>
       <c r="EO1">
-        <v>-53.175890355246501</v>
+        <v>-53.223316151342409</v>
       </c>
       <c r="EP1">
-        <v>-55.068025347527097</v>
+        <v>-55.115472972266211</v>
       </c>
       <c r="EQ1">
-        <v>-57.058033270963243</v>
+        <v>-57.104977766770922</v>
       </c>
       <c r="ER1">
-        <v>-59.071443862174952</v>
+        <v>-59.117677457911512</v>
       </c>
       <c r="ES1">
-        <v>-61.144559069287716</v>
+        <v>-61.18993119734121</v>
       </c>
       <c r="ET1">
-        <v>-62.737509805284773</v>
+        <v>-62.784303639133668</v>
       </c>
       <c r="EU1">
-        <v>-65.347461189274028</v>
+        <v>-65.40201955059328</v>
       </c>
       <c r="EV1">
-        <v>-67.26092167471181</v>
+        <v>-67.314818292553426</v>
       </c>
       <c r="EW1">
-        <v>-69.255202535135837</v>
+        <v>-69.309190927587863</v>
       </c>
       <c r="EX1">
-        <v>-70.681981735629094</v>
+        <v>-70.739037346753449</v>
       </c>
       <c r="EY1">
-        <v>-72.936334056281765</v>
+        <v>-72.989423633283124</v>
       </c>
       <c r="EZ1">
-        <v>-74.742258407139261</v>
+        <v>-74.795111651031988</v>
       </c>
       <c r="FA1">
-        <v>-76.42731823618287</v>
+        <v>-76.480600688472677</v>
       </c>
       <c r="FB1">
-        <v>-79.394648817419181</v>
+        <v>-79.458141710815113</v>
       </c>
       <c r="FC1">
-        <v>-81.147115031742857</v>
+        <v>-81.207987876844527</v>
       </c>
       <c r="FD1">
-        <v>-82.585314331196628</v>
+        <v>-82.644304424770169</v>
       </c>
       <c r="FE1">
-        <v>-83.917057179511133</v>
+        <v>-83.977180566149116</v>
       </c>
       <c r="FF1">
-        <v>-85.751130125208093</v>
+        <v>-85.809457479589128</v>
       </c>
       <c r="FG1">
-        <v>-87.38083434994526</v>
+        <v>-87.437964263263723</v>
       </c>
       <c r="FH1">
-        <v>-88.597537126240439</v>
+        <v>-88.654385726641678</v>
       </c>
       <c r="FI1">
-        <v>-90.530706323573767</v>
+        <v>-90.591992603041817</v>
       </c>
       <c r="FJ1">
-        <v>-91.535507082826399</v>
+        <v>-91.595294822857284</v>
       </c>
       <c r="FK1">
-        <v>-92.934993106547779</v>
+        <v>-92.994489881109672</v>
       </c>
       <c r="FL1">
-        <v>-94.510250428929126</v>
+        <v>-94.568261952757595</v>
       </c>
       <c r="FM1">
-        <v>-95.702935475869452</v>
+        <v>-95.762550968736065</v>
       </c>
       <c r="FN1">
-        <v>-96.823003137070685</v>
+        <v>-96.884059402085271</v>
       </c>
       <c r="FO1">
-        <v>-97.83820742689754</v>
+        <v>-97.900832828952275</v>
       </c>
       <c r="FP1">
-        <v>-99.108466589352773</v>
+        <v>-99.17157246489846</v>
       </c>
       <c r="FQ1">
-        <v>-99.946569760403975</v>
+        <v>-100.00968041649304</v>
       </c>
       <c r="FR1">
-        <v>-100.92757318353807</v>
+        <v>-100.99066314262539</v>
       </c>
       <c r="FS1">
-        <v>-101.61630757805753</v>
+        <v>-101.67629733131827</v>
       </c>
       <c r="FT1">
-        <v>-102.47569781748302</v>
+        <v>-102.53550667172446</v>
       </c>
       <c r="FU1">
-        <v>-103.01976280679327</v>
+        <v>-103.08060316858304</v>
       </c>
       <c r="FV1">
-        <v>-103.58025803792931</v>
+        <v>-103.64183110324792</v>
       </c>
       <c r="FW1">
-        <v>-104.80839796579045</v>
+        <v>-104.87834307841544</v>
       </c>
       <c r="FX1">
-        <v>-105.73815549617714</v>
+        <v>-105.80779844044966</v>
       </c>
       <c r="FY1">
-        <v>-106.0598869697869</v>
+        <v>-106.12902986247595</v>
       </c>
       <c r="FZ1">
-        <v>-106.73697455187917</v>
+        <v>-106.80594978516268</v>
       </c>
       <c r="GA1">
-        <v>-107.29134808333359</v>
+        <v>-107.36042453182729</v>
       </c>
       <c r="GB1">
-        <v>-107.52130748619794</v>
+        <v>-107.59277560665387</v>
       </c>
       <c r="GC1">
-        <v>-107.77342540450658</v>
+        <v>-107.84644414491316</v>
       </c>
       <c r="GD1">
-        <v>-108.20556311845614</v>
+        <v>-108.27870996411944</v>
       </c>
       <c r="GE1">
-        <v>-108.31743804423125</v>
+        <v>-108.38672161240073</v>
       </c>
       <c r="GF1">
-        <v>-108.54195404370887</v>
+        <v>-108.61097259126619</v>
       </c>
       <c r="GG1">
-        <v>-108.67264067358448</v>
+        <v>-108.73899745775894</v>
       </c>
       <c r="GH1">
-        <v>-108.76501410649688</v>
+        <v>-108.83076204163434</v>
       </c>
       <c r="GI1">
-        <v>-108.61671971781989</v>
+        <v>-108.68353995863954</v>
       </c>
       <c r="GJ1">
-        <v>-108.62519619805447</v>
+        <v>-108.69171868450238</v>
       </c>
       <c r="GK1">
-        <v>-108.70487838679682</v>
+        <v>-108.7717379605176</v>
       </c>
       <c r="GL1">
-        <v>-108.65261529240117</v>
+        <v>-108.71625594695023</v>
       </c>
       <c r="GM1">
-        <v>-108.55539463185541</v>
+        <v>-108.61808518921582</v>
       </c>
       <c r="GN1">
-        <v>-108.4607105240385</v>
+        <v>-108.51861794526303</v>
       </c>
       <c r="GO1">
-        <v>-108.44528697578576</v>
+        <v>-108.50383119637547</v>
       </c>
       <c r="GP1">
-        <v>-108.22724818953587</v>
+        <v>-108.28481490887272</v>
       </c>
       <c r="GQ1">
-        <v>-108.11375430545512</v>
+        <v>-108.17105226271792</v>
       </c>
       <c r="GR1">
-        <v>-108.05392806061245</v>
+        <v>-108.11149360815914</v>
       </c>
       <c r="GS1">
-        <v>-108.04949438149933</v>
+        <v>-108.1092866925872</v>
       </c>
       <c r="GT1">
-        <v>-108.00277115472142</v>
+        <v>-108.06203448359129</v>
       </c>
       <c r="GU1">
-        <v>-107.81247596726969</v>
+        <v>-107.86194598438267</v>
       </c>
       <c r="GV1">
-        <v>-107.61814940932113</v>
+        <v>-107.66502157037762</v>
       </c>
       <c r="GW1">
-        <v>-107.53806168162127</v>
+        <v>-107.58522019382595</v>
       </c>
       <c r="GX1">
-        <v>-107.33587830999424</v>
+        <v>-107.3831057471873</v>
       </c>
       <c r="GY1">
-        <v>-107.17722605574319</v>
+        <v>-107.22022680466303</v>
       </c>
       <c r="GZ1">
-        <v>-106.96047522292362</v>
+        <v>-107.00010554671775</v>
       </c>
       <c r="HA1">
-        <v>-106.77514235132847</v>
+        <v>-106.81443322880973</v>
       </c>
       <c r="HB1">
-        <v>-106.67555845574347</v>
+        <v>-106.71890967034135</v>
       </c>
       <c r="HC1">
-        <v>-106.57994611182285</v>
+        <v>-106.62417992099957</v>
       </c>
       <c r="HD1">
-        <v>-106.41530258147111</v>
+        <v>-106.45901332051767</v>
       </c>
       <c r="HE1">
-        <v>-106.2032467846699</v>
+        <v>-106.24706935059976</v>
       </c>
       <c r="HF1">
-        <v>-106.07925970719384</v>
+        <v>-106.12352602654656</v>
       </c>
       <c r="HG1">
-        <v>-105.91852080664589</v>
+        <v>-105.96115241853755</v>
       </c>
       <c r="HH1">
-        <v>-105.83514788474488</v>
+        <v>-105.87884520704455</v>
       </c>
       <c r="HI1">
-        <v>-105.77415338766409</v>
+        <v>-105.81953115519649</v>
       </c>
       <c r="HJ1">
-        <v>-105.63380618422346</v>
+        <v>-105.67745026603228</v>
       </c>
       <c r="HK1">
-        <v>-105.50491743626338</v>
+        <v>-105.54828992937122</v>
       </c>
       <c r="HL1">
-        <v>-105.32797395101981</v>
+        <v>-105.37137498414413</v>
       </c>
       <c r="HM1">
-        <v>-105.18173896519423</v>
+        <v>-105.22145560100068</v>
       </c>
       <c r="HN1">
-        <v>-105.14944622804943</v>
+        <v>-105.19314847653146</v>
       </c>
       <c r="HO1">
-        <v>-105.03297665569539</v>
+        <v>-105.07608899349356</v>
       </c>
       <c r="HP1">
-        <v>-104.92719742374437</v>
+        <v>-104.96863384403125</v>
       </c>
       <c r="HQ1">
-        <v>-104.76340255158813</v>
+        <v>-104.80315394371098</v>
       </c>
       <c r="HR1">
-        <v>-104.7626865318782</v>
+        <v>-104.80305047886972</v>
       </c>
       <c r="HS1">
-        <v>-104.58793065725952</v>
+        <v>-104.62720265866872</v>
       </c>
       <c r="HT1">
-        <v>-104.42727540079947</v>
+        <v>-104.46101262328136</v>
       </c>
       <c r="HU1">
-        <v>-104.36131120290395</v>
+        <v>-104.39686278955081</v>
       </c>
       <c r="HV1">
-        <v>-104.26887420650773</v>
+        <v>-104.30439020653746</v>
       </c>
       <c r="HW1">
-        <v>-104.16738035339149</v>
+        <v>-104.20176204842849</v>
       </c>
       <c r="HX1">
-        <v>-103.94193191289159</v>
+        <v>-103.97385690314131</v>
       </c>
       <c r="HY1">
-        <v>-103.85798207417466</v>
+        <v>-103.89004552391553</v>
       </c>
       <c r="HZ1">
-        <v>-103.72111977302271</v>
+        <v>-103.75306196310211</v>
       </c>
       <c r="IA1">
-        <v>-103.58513420446184</v>
+        <v>-103.6145780816541</v>
       </c>
       <c r="IB1">
-        <v>-103.54094362061458</v>
+        <v>-103.57268991709591</v>
       </c>
       <c r="IC1">
-        <v>-103.43368678793959</v>
+        <v>-103.46511920379952</v>
       </c>
       <c r="ID1">
-        <v>-103.30832858828593</v>
+        <v>-103.33835265807321</v>
       </c>
       <c r="IE1">
-        <v>-103.11002905512781</v>
+        <v>-103.13881242113865</v>
       </c>
       <c r="IF1">
-        <v>-102.94249959016761</v>
+        <v>-102.9711986014197</v>
       </c>
       <c r="IG1">
-        <v>-102.86218654567611</v>
+        <v>-102.89092297456661</v>
       </c>
       <c r="IH1">
-        <v>-102.88444940654138</v>
+        <v>-102.92067432013036</v>
       </c>
       <c r="II1">
-        <v>-102.74126037665819</v>
+        <v>-102.77487185511588</v>
       </c>
       <c r="IJ1">
-        <v>-102.64759313127678</v>
+        <v>-102.6810732756434</v>
       </c>
       <c r="IK1">
-        <v>-102.65592464745011</v>
+        <v>-102.6913173356796</v>
       </c>
       <c r="IL1">
-        <v>-102.60051467941682</v>
+        <v>-102.63574571168765</v>
       </c>
       <c r="IM1">
-        <v>-102.5836562961896</v>
+        <v>-102.61872044455164</v>
       </c>
       <c r="IN1">
-        <v>-102.52862657532785</v>
+        <v>-102.56363738817032</v>
       </c>
       <c r="IO1">
-        <v>-102.64606724509053</v>
+        <v>-102.68820690776316</v>
       </c>
       <c r="IP1">
-        <v>-102.60899215105832</v>
+        <v>-102.64862937757292</v>
       </c>
       <c r="IQ1">
-        <v>-102.6714655818875</v>
+        <v>-102.71162218804727</v>
       </c>
       <c r="IR1">
-        <v>-102.62456613939504</v>
+        <v>-102.66452252509501</v>
       </c>
       <c r="IS1">
-        <v>-102.54988042670652</v>
+        <v>-102.59006989656204</v>
       </c>
       <c r="IT1">
-        <v>-102.46733160095681</v>
+        <v>-102.50711141079439</v>
       </c>
       <c r="IU1">
-        <v>-102.36727298365871</v>
+        <v>-102.40457523601739</v>
       </c>
       <c r="IV1">
-        <v>-102.23199464651552</v>
+        <v>-102.26697627008937</v>
       </c>
       <c r="IW1">
-        <v>-102.27501365902626</v>
+        <v>-102.31573949514983</v>
       </c>
       <c r="IX1">
-        <v>-102.20350661939003</v>
+        <v>-102.24334978380305</v>
       </c>
       <c r="IY1">
-        <v>-102.16044255208266</v>
+        <v>-102.20012644696345</v>
       </c>
       <c r="IZ1">
-        <v>-102.08068846158218</v>
+        <v>-102.1200621685945</v>
       </c>
       <c r="JA1">
-        <v>-101.98349965937292</v>
+        <v>-102.0228680816022</v>
       </c>
       <c r="JB1">
-        <v>-101.86050169159134</v>
+        <v>-101.89999720235794</v>
       </c>
       <c r="JC1">
-        <v>-101.78241461783118</v>
+        <v>-101.82157701240352</v>
       </c>
       <c r="JD1">
-        <v>-101.73112223898106</v>
+        <v>-101.77080671849781</v>
       </c>
       <c r="JE1">
-        <v>-101.65396856459103</v>
+        <v>-101.6934967385691</v>
       </c>
       <c r="JF1">
-        <v>-101.61257288379808</v>
+        <v>-101.65246465896492</v>
       </c>
       <c r="JG1">
-        <v>-101.5091684342118</v>
+        <v>-101.54873290196925</v>
       </c>
       <c r="JH1">
-        <v>-101.45941936339653</v>
+        <v>-101.49875685662602</v>
       </c>
       <c r="JI1">
-        <v>-101.45441872666892</v>
+        <v>-101.49388300791307</v>
       </c>
       <c r="JJ1">
-        <v>-101.49594606253797</v>
+        <v>-101.53778004144989</v>
       </c>
       <c r="JK1">
-        <v>-101.48341723926886</v>
+        <v>-101.52480198231747</v>
       </c>
       <c r="JL1">
-        <v>-101.42476860537535</v>
+        <v>-101.46582264547052</v>
       </c>
       <c r="JM1">
-        <v>-101.34903159768102</v>
+        <v>-101.38799119778993</v>
       </c>
       <c r="JN1">
-        <v>-101.23889229066808</v>
+        <v>-101.27694624950436</v>
       </c>
       <c r="JO1">
-        <v>-101.1649488444272</v>
+        <v>-101.20290697080547</v>
       </c>
       <c r="JP1">
-        <v>-100.96275329439412</v>
+        <v>-100.99936046739721</v>
       </c>
       <c r="JQ1">
-        <v>-100.85594391425623</v>
+        <v>-100.89263935048643</v>
       </c>
       <c r="JR1">
-        <v>-100.86251399665146</v>
+        <v>-100.90197174590057</v>
       </c>
       <c r="JS1">
-        <v>-100.81606952071894</v>
+        <v>-100.85555648599248</v>
       </c>
       <c r="JT1">
-        <v>-100.83057007295788</v>
+        <v>-100.87206722106902</v>
       </c>
       <c r="JU1">
-        <v>-100.68656486066406</v>
+        <v>-100.72571846813271</v>
       </c>
       <c r="JV1">
-        <v>-100.57315773992705</v>
+        <v>-100.61208674886167</v>
       </c>
       <c r="JW1">
-        <v>-100.47738217603731</v>
+        <v>-100.515958353827</v>
       </c>
       <c r="JX1">
-        <v>-100.38209064631762</v>
+        <v>-100.41941076743616</v>
       </c>
       <c r="JY1">
-        <v>-100.27912023574369</v>
+        <v>-100.31595022454985</v>
       </c>
       <c r="JZ1">
-        <v>-100.1443590238239</v>
+        <v>-100.17969352595655</v>
       </c>
       <c r="KA1">
-        <v>-100.04244389940399</v>
+        <v>-100.07719722747076</v>
       </c>
       <c r="KB1">
-        <v>-100.02812667504081</v>
+        <v>-100.06500436095133</v>
       </c>
       <c r="KC1">
-        <v>-100.00137085795799</v>
+        <v>-100.03844339793707</v>
       </c>
       <c r="KD1">
-        <v>-99.907536350097175</v>
+        <v>-99.943642518028582</v>
       </c>
       <c r="KE1">
-        <v>-99.988652654949988</v>
+        <v>-100.03120892865455</v>
       </c>
       <c r="KF1">
-        <v>-99.848344360464594</v>
+        <v>-99.887877854853585</v>
       </c>
       <c r="KG1">
-        <v>-99.847424700996484</v>
+        <v>-99.888198066017765</v>
       </c>
       <c r="KH1">
-        <v>-99.839255961031171</v>
+        <v>-99.880146818980663</v>
       </c>
       <c r="KI1">
-        <v>-99.899986993902303</v>
+        <v>-99.940781770067915</v>
       </c>
       <c r="KJ1">
-        <v>-99.8477884831415</v>
+        <v>-99.888732968573905</v>
       </c>
       <c r="KK1">
-        <v>-99.796981963284395</v>
+        <v>-99.837107893828033</v>
       </c>
       <c r="KL1">
-        <v>-99.687608289880046</v>
+        <v>-99.724417024867449</v>
       </c>
       <c r="KM1">
-        <v>-99.589040761380872</v>
+        <v>-99.625192212331157</v>
       </c>
       <c r="KN1">
-        <v>-99.579131466938733</v>
+        <v>-99.615292073927847</v>
       </c>
       <c r="KO1">
-        <v>-99.447660157939779</v>
+        <v>-99.480637657089375</v>
       </c>
       <c r="KP1">
-        <v>-99.445502747233419</v>
+        <v>-99.47942592532732</v>
       </c>
       <c r="KQ1">
-        <v>-99.323157333939136</v>
+        <v>-99.356825109146442</v>
       </c>
       <c r="KR1">
-        <v>-99.23502720041779</v>
+        <v>-99.268358287570251</v>
       </c>
       <c r="KS1">
-        <v>-99.116100278752157</v>
+        <v>-99.148526491286361</v>
       </c>
       <c r="KT1">
-        <v>-99.051713054585477</v>
+        <v>-99.084774940131538</v>
       </c>
       <c r="KU1">
-        <v>-98.972649105072421</v>
+        <v>-99.005634268093701</v>
       </c>
       <c r="KV1">
-        <v>-98.963809810315226</v>
+        <v>-98.999438085433482</v>
       </c>
       <c r="KW1">
-        <v>-98.925088207604176</v>
+        <v>-98.960675706759446</v>
       </c>
       <c r="KX1">
-        <v>-98.830099355533733</v>
+        <v>-98.865283542586965</v>
       </c>
       <c r="KY1">
-        <v>-98.689377627421294</v>
+        <v>-98.722343279970161</v>
       </c>
       <c r="KZ1">
-        <v>-98.67928963941965</v>
+        <v>-98.715089092856559</v>
       </c>
       <c r="LA1">
-        <v>-98.601988504994367</v>
+        <v>-98.637354646211762</v>
       </c>
       <c r="LB1">
-        <v>-98.486264394221791</v>
+        <v>-98.520872762834401</v>
       </c>
       <c r="LC1">
-        <v>-98.402339267104793</v>
+        <v>-98.436021253673744</v>
       </c>
       <c r="LD1">
-        <v>-98.273557686198799</v>
+        <v>-98.305925523345593</v>
       </c>
       <c r="LE1">
-        <v>-98.102522302764342</v>
+        <v>-98.134325216314295</v>
       </c>
       <c r="LF1">
-        <v>-97.92143506946941</v>
+        <v>-97.950794539568491</v>
       </c>
       <c r="LG1">
-        <v>-97.827822240250597</v>
+        <v>-97.859448270013445</v>
       </c>
       <c r="LH1">
-        <v>-97.647676325242998</v>
+        <v>-97.678205578512348</v>
       </c>
       <c r="LI1">
-        <v>-97.575064604396388</v>
+        <v>-97.605986893002935</v>
       </c>
       <c r="LJ1">
-        <v>-97.423166895229755</v>
+        <v>-97.451148116372906</v>
       </c>
       <c r="LK1">
-        <v>-97.239051329422182</v>
+        <v>-97.265352744747887</v>
       </c>
       <c r="LL1">
-        <v>-97.045702031939499</v>
+        <v>-97.071619254485654</v>
       </c>
       <c r="LM1">
-        <v>-96.902895315100508</v>
+        <v>-96.929564245002396</v>
       </c>
       <c r="LN1">
-        <v>-96.761536710415541</v>
+        <v>-96.788488961113771</v>
       </c>
       <c r="LO1">
-        <v>-96.576932151454756</v>
+        <v>-96.603244405068693</v>
       </c>
       <c r="LP1">
-        <v>-96.382756422048629</v>
+        <v>-96.408877609012876</v>
       </c>
       <c r="LQ1">
-        <v>-96.179864220129431</v>
+        <v>-96.204164727559103</v>
       </c>
       <c r="LR1">
-        <v>-95.995028792738935</v>
+        <v>-96.019238097423283</v>
       </c>
       <c r="LS1">
-        <v>-95.821294007861297</v>
+        <v>-95.845445464061129</v>
       </c>
       <c r="LT1">
-        <v>-95.6379664433546</v>
+        <v>-95.661512271590283</v>
       </c>
       <c r="LU1">
-        <v>-95.434600366902501</v>
+        <v>-95.457175533978202</v>
       </c>
       <c r="LV1">
-        <v>-95.248072278880684</v>
+        <v>-95.271513124364233</v>
       </c>
       <c r="LW1">
-        <v>-95.052717802309019</v>
+        <v>-95.075953386434122</v>
       </c>
       <c r="LX1">
-        <v>-94.863148281379225</v>
+        <v>-94.885180752287596</v>
       </c>
       <c r="LY1">
-        <v>-94.674408948213809</v>
+        <v>-94.696076907559188</v>
       </c>
       <c r="LZ1">
-        <v>-94.477284603112935</v>
+        <v>-94.498545140944856</v>
       </c>
       <c r="MA1">
-        <v>-94.272722127692049</v>
+        <v>-94.292957677220599</v>
       </c>
       <c r="MB1">
-        <v>-94.066289501537696</v>
+        <v>-94.084999316361063</v>
       </c>
       <c r="MC1">
-        <v>-93.861910666281744</v>
+        <v>-93.880186268114329</v>
       </c>
       <c r="MD1">
-        <v>-93.674489301509666</v>
+        <v>-93.694275674953161</v>
       </c>
       <c r="ME1">
-        <v>-93.501612396231039</v>
+        <v>-93.524818320550793</v>
       </c>
       <c r="MF1">
-        <v>-93.309606523702172</v>
+        <v>-93.33144150385391</v>
       </c>
     </row>
   </sheetData>
